--- a/806209426/localisation/excel/air_l_german.xlsx
+++ b/806209426/localisation/excel/air_l_german.xlsx
@@ -58,13 +58,13 @@
     <t xml:space="preserve"> AIRWING_MISSION_EFFICIENCY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TAuftragseffizienz: $AMOUNT|H1%$§!</t>
+    <t xml:space="preserve">§T§T Auftragseffizienz: $AMOUNT|H1%$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_EFFICIENCY_TOT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TAuftragseffizienz: $AMOUNT|H1%$§!\n</t>
+    <t xml:space="preserve">§T§T Auftragseffizienz: $AMOUNT|H1%$ §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_IN_REGION:</t>
@@ -196,13 +196,13 @@
     <t xml:space="preserve"> AIRWING_MISSION_TYPE_TRAINING_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sammeln Sie Erfahrung für dieses §HLuftgeschwader§! sowie §HLuftwaffenerfahrung§!.\nDurch Luftübungen wird §HTreibstoff§! verbraucht und das Risiko von §HLuftunfällen§!.\n§RWenn diese Option aktiviert wird, werden alle Missionen deaktiviert.§!</t>
+    <t xml:space="preserve">Sammeln Sie Erfahrung für dieses §H§H Luftgeschwader §!§!  sowie §H§H Luftwaffenerfahrung §!§! .\nDurch Luftübungen wird §H§H Treibstoff §!§!  verbraucht und das Risiko von §H§H Luftunfällen §!§! .\n§R§R Wenn diese Option aktiviert wird, werden alle Missionen deaktiviert. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_TYPE_TRAINING_DESC_SHIFT_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">Halten Sie §HUmschalt§! und klicken Sie, um §HPilotenübungen§! abzuhalten, bis das §HLuftgeschwader§! voll ausgebildet ist.</t>
+    <t xml:space="preserve">Halten Sie §H§H Umschalt §!§!  und klicken Sie, um §H§H Pilotenübungen §!§!  abzuhalten, bis das §H§H Luftgeschwader §!§!  voll ausgebildet ist.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_TYPE_NAVAL_MINE_PLANTING:</t>
@@ -241,7 +241,7 @@
     <t xml:space="preserve"> AIRWING_MISSION_TYPE_DROP_NUKE_DISABLED_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht genug§! Atomraketen für nuklearen Schlag vorhanden!</t>
+    <t xml:space="preserve">§R§R Nicht genug §!§!  Atomraketen für nuklearen Schlag vorhanden!</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_TYPE_RECON:</t>
@@ -301,7 +301,7 @@
     <t xml:space="preserve"> AIRWING_MISSION_WING_STATUS_2:</t>
   </si>
   <si>
-    <t xml:space="preserve">§T$NUM|H$ $NAME|H$ $STATUS|H$.§!</t>
+    <t xml:space="preserve">§T§T $NUM|H$ $NAME|H$ $STATUS|H$. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_WINGS_STATUS_1:</t>
@@ -316,37 +316,37 @@
     <t xml:space="preserve"> AIRWING_MISSION_TRAINING_WILL_STOP_AT_MAX:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HPilotenübungen§! werden automatisch gestoppt, wenn das §HLuftgeschwader§! die maximale Ausbildungserfahrung erreicht.</t>
+    <t xml:space="preserve">§H§H Pilotenübungen §!§!  werden automatisch gestoppt, wenn das §H§H Luftgeschwader §!§!  die maximale Ausbildungserfahrung erreicht.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_CARRIER_IN_PORT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs können keine Aufträge ausgeführt werden, wenn der Träger in einem Hafen vor Anker liegt.§!</t>
+    <t xml:space="preserve">§R§R Es können keine Aufträge ausgeführt werden, wenn der Träger in einem Hafen vor Anker liegt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_COUNTRY_HIDDEN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§T$COUNTRY|UH$ hat etwa $AMOUNT|H$ Flugzeuge auf diesem Luftwaffenstützpunkt.§!</t>
+    <t xml:space="preserve">§T§T $COUNTRY|UH$ hat etwa $AMOUNT|H$ Flugzeuge auf diesem Luftwaffenstützpunkt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_WING_STATUS_IDLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Terwarten Befehle§!</t>
+    <t xml:space="preserve">§T§T erwarten Befehle §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_WING_STATUS_CARRIER_MISSION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Tauf einer Trägermission§!</t>
+    <t xml:space="preserve">§T§T auf einer Trägermission §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_WING_STATUS_MISSION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Thaben folgenden Befehl: $MIS$§!</t>
+    <t xml:space="preserve">§T§T haben folgenden Befehl: $MIS$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_CANCEL_TRANSFER:</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve"> AIRWING_MISSION_SET_REINF_LIMIT_RCLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um die aktuelle Anzahl an Flugzeugen als Grenze festzusetzen§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um die aktuelle Anzahl an Flugzeugen als Grenze festzusetzen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_CANCEL_MISSIONS_IN_REGION:</t>
@@ -382,19 +382,19 @@
     <t xml:space="preserve"> AIRWING_MISSION_DAY:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufträge werden nur am §HTag§! geflogen.</t>
+    <t xml:space="preserve">Aufträge werden nur am §H§H Tag §!§!  geflogen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_NIGHT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufträge werden nur bei §HNacht§! geflogen.</t>
+    <t xml:space="preserve">Aufträge werden nur bei §H§H Nacht §!§!  geflogen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_DAY_NIGHT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Aufträge werden bei §HTag§! und §HNacht§! geflogen.</t>
+    <t xml:space="preserve">Aufträge werden bei §H§H Tag §!§!  und §H§H Nacht §!§!  geflogen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_TRANSFERRING:</t>
@@ -430,13 +430,13 @@
     <t xml:space="preserve"> AIRBASE_CAPACITY_LIMITED_BY_DAMAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKapazität durch Schaden eingeschränkt!§!</t>
+    <t xml:space="preserve">§R§R Kapazität durch Schaden eingeschränkt! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_AIRPLANES_ESTIMATED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HLuftstützpunkt§! in $BASE|H$: etwa $VALUE|H$ Flugzeuge</t>
+    <t xml:space="preserve">§H§H Luftstützpunkt §!§!  in $BASE|H$: etwa $VALUE|H$ Flugzeuge</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_SPLIT:</t>
@@ -454,13 +454,13 @@
     <t xml:space="preserve"> AIRWING_CREATE_EMPTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs kann kein leeres Luftgeschwader erstellt werden!§!</t>
+    <t xml:space="preserve">§R§R Es kann kein leeres Luftgeschwader erstellt werden! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_CREATE_NO_MANPOWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftgeschwader kann nicht erstellt werden! Nicht genügend Mannstärke.§!</t>
+    <t xml:space="preserve">§R§R Luftgeschwader kann nicht erstellt werden! Nicht genügend Mannstärke. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_REORG:</t>
@@ -481,25 +481,25 @@
     <t xml:space="preserve"> AIRWING_MERGE_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWählen Sie zum Zusammenlegen zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören, keine Freiwilligen sind und sich nicht im Transfer befinden.§!</t>
+    <t xml:space="preserve">§R§R Wählen Sie zum Zusammenlegen zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören, keine Freiwilligen sind und sich nicht im Transfer befinden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MERGE_GROUPS_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RZum Zusammenlegen müssen zwei oder mehr Luftgruppen ausgewählt werden.§!</t>
+    <t xml:space="preserve">§R§R Zum Zusammenlegen müssen zwei oder mehr Luftgruppen ausgewählt werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_REORG_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWählen Sie zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören und sich nicht im Transfer befinden.§!</t>
+    <t xml:space="preserve">§R§R Wählen Sie zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören und sich nicht im Transfer befinden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_SPLIT_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWählen Sie ein Luftgeschwader aus, das sich nicht im Transfer befindet, nicht aus Freiwilligen besteht und aus mindestens §H2§! Flugzeugen besteht.§!</t>
+    <t xml:space="preserve">§R§R Wählen Sie ein Luftgeschwader aus, das sich nicht im Transfer befindet, nicht aus Freiwilligen besteht und aus mindestens §H§H 2 §!§!  Flugzeugen besteht. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_REORG_ONE_BASE:</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve"> AIRWING_NEW_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftgeschwader kann nicht erstellt werden. Es befinden sich keine Flugzeuge in der Reserve.§!</t>
+    <t xml:space="preserve">§R§R Luftgeschwader kann nicht erstellt werden. Es befinden sich keine Flugzeuge in der Reserve. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_NEW_NAME:</t>
@@ -583,13 +583,13 @@
     <t xml:space="preserve"> AIRWING_SET_REINF_LIMIT_WARNING_EXISTING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REinige Flugzeuge werden wieder in die Reserve verschoben.§!</t>
+    <t xml:space="preserve">§R§R Einige Flugzeuge werden wieder in die Reserve verschoben. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_SET_REINF_LIMIT_WARNING_NEW:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie können das Limit nicht niedriger ansetzen als die Anzahl von Flugzeugen.§!</t>
+    <t xml:space="preserve">§R§R Sie können das Limit nicht niedriger ansetzen als die Anzahl von Flugzeugen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_SPLIT_HEADER:</t>
@@ -613,19 +613,19 @@
     <t xml:space="preserve"> AIRBASE_DISTANCE_SOME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$VALUE$ km§!</t>
+    <t xml:space="preserve">§Y§Y $VALUE$ km §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_DISTANCE_NONE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$VALUE$ km§!</t>
+    <t xml:space="preserve">§R§R $VALUE$ km §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_DISTANCE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TEntfernung von $REGION|H$ bis $AIRBASE|H$.§!</t>
+    <t xml:space="preserve">§T§T Entfernung von $REGION|H$ bis $AIRBASE|H$. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_DISTANCE_SOME_DESC:</t>
@@ -649,7 +649,7 @@
     <t xml:space="preserve"> ROCKETSITE_CAN_PRODUCE:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§gDurch die Überschreitung der Kapazität wird die Effizienz der Raketen eingeschränkt und die Produktion neuer Raketen an diesem Standort unterbrochen.§!</t>
+    <t xml:space="preserve">\n§g§g Durch die Überschreitung der Kapazität wird die Effizienz der Raketen eingeschränkt und die Produktion neuer Raketen an diesem Standort unterbrochen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ROCKETSITE_CAPACITY_FULL:</t>
@@ -661,25 +661,25 @@
     <t xml:space="preserve"> ROCKETSITE_STOPPED_PRODUCTION:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§REs werden keine weiteren Raketen mehr produziert, solange die Kapazität ausgeschöpft ist.§!</t>
+    <t xml:space="preserve">\n§R§R Es werden keine weiteren Raketen mehr produziert, solange die Kapazität ausgeschöpft ist. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_CAPACITY_OK:</t>
   </si>
   <si>
-    <t xml:space="preserve">Luftstützpunkt ist voll einsatzfähig.\n§gDurch die Überschreitung des Operationslimits kann die Verarbeitungsmenge an Flugzeugen beeinträchtigt und somit die Auftragseffizienz verringert werden.§!</t>
+    <t xml:space="preserve">Luftstützpunkt ist voll einsatzfähig.\n§g§g Durch die Überschreitung des Operationslimits kann die Verarbeitungsmenge an Flugzeugen beeinträchtigt und somit die Auftragseffizienz verringert werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_CAPACITY_NEXT_LEVEL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Mit der nächsten Ausbaustufe des Luftstützpunkts wird §Ydas Operationslimit erhöht§! auf: $VAL|G$</t>
+    <t xml:space="preserve">Mit der nächsten Ausbaustufe des Luftstützpunkts wird §Y§Y das Operationslimit erhöht §!§!  auf: $VAL|G$</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_CAPACITY_PENALTY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftstützpunkt ist überlastet.§!\nDie Auftragseffizienz liegt bei $PERC|%R$.\nErwägen Sie die Verlegung Ihrer Flugzeuge an einen anderen Luftstützpunkt oder den Ausbau dieses Luftstützpunkts.</t>
+    <t xml:space="preserve">§R§R Luftstützpunkt ist überlastet. §!§! \nDie Auftragseffizienz liegt bei $PERC|%R$.\nErwägen Sie die Verlegung Ihrer Flugzeuge an einen anderen Luftstützpunkt oder den Ausbau dieses Luftstützpunkts.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_CAPACITY_PENALTY_DETAIL:</t>
@@ -727,7 +727,7 @@
     <t xml:space="preserve"> AIRWING_RECENTLY_ASSIGNED_WARNING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie erhalten Effizienz nur zurück, während Ihre Luftgeschwader einer aktiven Mission zugewiesen sind.§!</t>
+    <t xml:space="preserve">§R§R Sie erhalten Effizienz nur zurück, während Ihre Luftgeschwader einer aktiven Mission zugewiesen sind. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_DETECTION_IN_REGION_DETAILS:</t>
@@ -745,7 +745,7 @@
     <t xml:space="preserve"> AIRBASE_LACKS_FUEL_PENALTY_DETAIL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Treibstoffmangel: §R$PERC|%1-$§!</t>
+    <t xml:space="preserve">Treibstoffmangel: §R§R $PERC|%1-$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_CATEGORY_UNKNOWN:</t>
@@ -793,7 +793,7 @@
     <t xml:space="preserve"> AIRBASE_REINFORCEMENT_PRIORITY_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TPriorität des Luftwaffenstützpunkts legt Ankunftsreihenfolge für Ersatzflugzeuge fest.§!</t>
+    <t xml:space="preserve">§T§T Priorität des Luftwaffenstützpunkts legt Ankunftsreihenfolge für Ersatzflugzeuge fest. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_TYPE_PARADROP:</t>
@@ -829,7 +829,7 @@
     <t xml:space="preserve"> ADD_AIR_MISSION_INSTANT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GLufteinheiten hierher ziehen, um sie zu dieser Flugzone zuzuweisen.\nAuf die Lufteinheit rechtsklicken, um sie dieser Flugzone zuzuweisen.§!</t>
+    <t xml:space="preserve">§G§G Lufteinheiten hierher ziehen, um sie zu dieser Flugzone zuzuweisen.\nAuf die Lufteinheit rechtsklicken, um sie dieser Flugzone zuzuweisen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_MISSION_EXTENSION_ENTRY:</t>
@@ -970,25 +970,25 @@
     <t xml:space="preserve"> AIR_ASSIGN_ALL_INSTANT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen.§!</t>
+    <t xml:space="preserve">§G§G Klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_ASSIGN_ALL_INSTANT_DISABLED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs gibt keine nicht zugewiesenen Luftgeschwader in Reichweite.§!</t>
+    <t xml:space="preserve">§R§R Es gibt keine nicht zugewiesenen Luftgeschwader in Reichweite. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_ASSIGN_ALL_INSTANT_SHIFT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GUmschalt+klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen.§!</t>
+    <t xml:space="preserve">§G§G Umschalt+klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_ASSIGN_ALL_INSTANT_SHIFT_DISABLED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAlle Luftgeschwader in Reichweite sind bereits dieser Region zugewiesen.§!</t>
+    <t xml:space="preserve">§R§R Alle Luftgeschwader in Reichweite sind bereits dieser Region zugewiesen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REASSIGN_ALL:</t>
@@ -1012,13 +1012,13 @@
     <t xml:space="preserve"> AIR_REASSIGN_ALL_RIGHT_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um Luftgeschwader diesem Gebiet neu zuzuweisen§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um Luftgeschwader diesem Gebiet neu zuzuweisen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REBASE_ALL_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um alle aktiven Luftgeschwader zu den nächstgelegenen Stützpunkten zu verlegen, um die optimale Leistung zu erreichen.§!</t>
+    <t xml:space="preserve">§G§G Klicken, um alle aktiven Luftgeschwader zu den nächstgelegenen Stützpunkten zu verlegen, um die optimale Leistung zu erreichen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REBASE_ALL:</t>
@@ -1048,13 +1048,13 @@
     <t xml:space="preserve"> AIR_REASSIGN_NO_WING_IN_REGION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TIn dieser Region sind keine Luftgeschwader zugewiesen.§!</t>
+    <t xml:space="preserve">§T§T In dieser Region sind keine Luftgeschwader zugewiesen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REASSIGN_WING_IN_REGION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken und rechtsklicken Sie auf eine Zielregion, um Luftgeschwader neu zuzuweisen.§!</t>
+    <t xml:space="preserve">§G§G Klicken und rechtsklicken Sie auf eine Zielregion, um Luftgeschwader neu zuzuweisen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_WAREHOUSE_LABEL:</t>
@@ -1090,7 +1090,7 @@
     <t xml:space="preserve"> AIR_DEPLOYMENT_TOOLTIP:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie können dieses Luftgeschwader nicht auswählen, bevor es eingesetzt wurde.§!</t>
+    <t xml:space="preserve">§R§R Sie können dieses Luftgeschwader nicht auswählen, bevor es eingesetzt wurde. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_EQUIPMENT_DRAG:</t>
@@ -1108,31 +1108,31 @@
     <t xml:space="preserve"> AIRBASE_EXPAND:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um Inhalte zu erweitern§!</t>
+    <t xml:space="preserve">§G§G Klicken, um Inhalte zu erweitern §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_DROP_PLANE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GAusgewählte Flugzeuge hier ablegen, um mit der Verlegung der Flugzeuge nach $AIRBASE|H$ zu beginnen.§!</t>
+    <t xml:space="preserve">§G§G Ausgewählte Flugzeuge hier ablegen, um mit der Verlegung der Flugzeuge nach $AIRBASE|H$ zu beginnen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_PLANE_NOT_CARRIER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs können nur flugzeugträgertaugliche Flugzeuge auf einen Flugzeugträger verlegt werden.§!</t>
+    <t xml:space="preserve">§R§R Es können nur flugzeugträgertaugliche Flugzeuge auf einen Flugzeugträger verlegt werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_NOT_AVALIABLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RStützpunkt ist für die Verlegung nicht verfügbar§!</t>
+    <t xml:space="preserve">§R§R Stützpunkt ist für die Verlegung nicht verfügbar §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_OUT_OF_RANGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAußerhalb der Reichweite dieser Flugzone!§!</t>
+    <t xml:space="preserve">§R§R Außerhalb der Reichweite dieser Flugzone! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DESTROY_EQUIPMENT:</t>
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve"> TRANSFER_AIR_DRAG_NO_COVERAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKeine Reichweite in $REGION$§!</t>
+    <t xml:space="preserve">§R§R Keine Reichweite in $REGION$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TRANSFER_AIR_DRAG_BASE:</t>
@@ -1162,19 +1162,19 @@
     <t xml:space="preserve"> TRANSFER_AIR_DRAG_BASE_NO_ACCESS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKein Zugang zum Luftwaffenstützpunkt in $BASE$§!</t>
+    <t xml:space="preserve">§R§R Kein Zugang zum Luftwaffenstützpunkt in $BASE$ §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> TRANSFER_AIR_DRAG_BASE_NOT_ALLOWED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDarf nicht nach $BASE$ verlegt werden§!</t>
+    <t xml:space="preserve">§R§R Darf nicht nach $BASE$ verlegt werden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_NO_ACCESS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie haben keinen Zugang zu diesem Luftstützpunkt§!</t>
+    <t xml:space="preserve">§R§R Sie haben keinen Zugang zu diesem Luftstützpunkt §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> DEPLOY_AIR_DRAG_BASE:</t>
@@ -1183,13 +1183,13 @@
     <t xml:space="preserve"> TRANSFER_AIR_DRAG_SOME_COVERAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§Y$COVERED$/$TOTAL$§! Luftgeschwader in Reichweite von $REGION|Y$ zuweisen</t>
+    <t xml:space="preserve">§Y§Y $COVERED$/$TOTAL$ §!§!  Luftgeschwader in Reichweite von $REGION|Y$ zuweisen</t>
   </si>
   <si>
     <t xml:space="preserve"> TRANSFER_AIR_DRAG_DEPLOY_FIRST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RMuss erst zum Stützpunkt verlegt werden§!</t>
+    <t xml:space="preserve">§R§R Muss erst zum Stützpunkt verlegt werden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_DELETE_WING:</t>
@@ -1228,13 +1228,13 @@
     <t xml:space="preserve"> AIRBASE_NON_OPERATIONAL_STATUS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Luftwaffenstützpunkt ist §Rnicht in Betrieb!§!, weil wir den Flughafen nicht kontrollieren.</t>
+    <t xml:space="preserve">Dieser Luftwaffenstützpunkt ist §R§R nicht in Betrieb! §!§! , weil wir den Flughafen nicht kontrollieren.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRBASE_NON_OPERATIONAL_DMZ:</t>
   </si>
   <si>
-    <t xml:space="preserve">Dieser Luftwaffenstützpunkt ist §Rnicht in Betrieb!§!, weil wir in entmilitarisierten Zonen keinen Zugang zu Flughäfen haben.</t>
+    <t xml:space="preserve">Dieser Luftwaffenstützpunkt ist §R§R nicht in Betrieb! §!§! , weil wir in entmilitarisierten Zonen keinen Zugang zu Flughäfen haben.</t>
   </si>
   <si>
     <t xml:space="preserve"> AVG_EFFICIENCY:</t>
@@ -1249,25 +1249,25 @@
     <t xml:space="preserve"> STRAT_RADAR_EFFICIENCY_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAlliierte Radareffizienz§!\nJe höher die §YRadareffizienz§! in diesem Gebiet, desto leichter werden Gegner durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen.</t>
+    <t xml:space="preserve">§H§H Alliierte Radareffizienz §!§! \nJe höher die §Y§Y Radareffizienz §!§!  in diesem Gebiet, desto leichter werden Gegner durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen.</t>
   </si>
   <si>
     <t xml:space="preserve"> STRAT_RADAR_EFFICIENCY_ENEMY_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Radareffizienz§!\nJe höher die §YRadareffizienz§! in diesem Gebiet, desto leichter werden Feinde durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen.</t>
+    <t xml:space="preserve">§H§H Feindliche Radareffizienz §!§! \nJe höher die §Y§Y Radareffizienz §!§!  in diesem Gebiet, desto leichter werden Feinde durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_HIGH:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HKein Rückzug§!</t>
+    <t xml:space="preserve">§H§H Kein Rückzug §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_MIXED_HIGH:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die meisten Geschwader: §HKein Rückzug§!</t>
+    <t xml:space="preserve">Die meisten Geschwader: §H§H Kein Rückzug §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_HIGH_DESC:</t>
@@ -1279,13 +1279,13 @@
     <t xml:space="preserve"> AGGRESSIVE_MED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HNormale Operationen§!</t>
+    <t xml:space="preserve">§H§H Normale Operationen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_MIXED_MED:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die meisten Geschwader: §HNormaler Betrieb§!</t>
+    <t xml:space="preserve">Die meisten Geschwader: §H§H Normaler Betrieb §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_MED_DESC:</t>
@@ -1297,13 +1297,13 @@
     <t xml:space="preserve"> AGGRESSIVE_LOW:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HNiedrige Intensität§!</t>
+    <t xml:space="preserve">§H§H Niedrige Intensität §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_MIXED_LOW:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die meisten Geschwader: §HNiedrige Intensität§!</t>
+    <t xml:space="preserve">Die meisten Geschwader: §H§H Niedrige Intensität §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AGGRESSIVE_LOW_DESC:</t>
@@ -1336,13 +1336,13 @@
     <t xml:space="preserve"> AIRWING_DEPLOYING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAus Reserve beziehen§!</t>
+    <t xml:space="preserve">§H§H Aus Reserve beziehen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_DEPLOYMENT_CANCELING:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HAbbruch§!</t>
+    <t xml:space="preserve">§H§H Abbruch §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_DISRUPTED_VAL:</t>
@@ -1354,7 +1354,7 @@
     <t xml:space="preserve"> NOT_ENOUGH_COMMAND_POWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht genügend Befehlsmacht für Mission§!</t>
+    <t xml:space="preserve">§R§R Nicht genügend Befehlsmacht für Mission §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> NECESSARY_COMMAND_POWER_TO_ALLOCATE:</t>
@@ -1366,7 +1366,7 @@
     <t xml:space="preserve"> AIR_CANNOT_SELECT_ALL:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNichts auszuwählen§!</t>
+    <t xml:space="preserve">§R§R Nichts auszuwählen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_WING_REBASE_TITLE:</t>
@@ -1378,13 +1378,13 @@
     <t xml:space="preserve"> AIR_WING_REBASE_FULL_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWir können nicht alle Flugzeuge auf den umliegenden Stützpunkten unterbringen ... Möchten Sie sie dennoch verlegen?§!</t>
+    <t xml:space="preserve">§R§R Wir können nicht alle Flugzeuge auf den umliegenden Stützpunkten unterbringen ... Möchten Sie sie dennoch verlegen? §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REBASING_ALREADY_BEST:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RAlle Flugzeuge befinden sich bereits in den umliegenden Stützpunkten§!</t>
+    <t xml:space="preserve">§R§R Alle Flugzeuge befinden sich bereits in den umliegenden Stützpunkten §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REBASE_ENTRY_GOOD:</t>
@@ -1396,19 +1396,19 @@
     <t xml:space="preserve"> AIR_REBASE_ENTRY_CROWDED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT$ $WING$ wird nach $BASE$ verlegt§!\n</t>
+    <t xml:space="preserve">§R§R $COUNT$ $WING$ wird nach $BASE$ verlegt §!§! \n</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REBASING_SOME_OVERCROWDED:</t>
   </si>
   <si>
-    <t xml:space="preserve">\n§Wenn wir dies tun, werden einige Stützpunkte überbelastet§!</t>
+    <t xml:space="preserve">\n§W§W enn wir dies tun, werden einige Stützpunkte überbelastet §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MOVE_EQUIPMENT_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§H1§! Ausrüstung verschieben\n§GStrg+Maustaste§!, um §H10§! zu verschieben\n§GUmschalt+Maustaste§!, um §H100§! zu verschieben</t>
+    <t xml:space="preserve">§H§H 1 §!§!  Ausrüstung verschieben\n§G§G Strg+Maustaste §!§! , um §H§H 10 §!§!  zu verschieben\n§G§G Umschalt+Maustaste §!§! , um §H§H 100 §!§!  zu verschieben</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MOVE_EQUIPMENT_ALL:</t>
@@ -1420,157 +1420,157 @@
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um ausgewählte Luftgeschwader zu diesem Luftwaffenstützpunkt zu bewegen§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um ausgewählte Luftgeschwader zu diesem Luftwaffenstützpunkt zu bewegen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_NOT_ALL:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht alle ausgewählten Luftgeschwader können hierhin verlegt werden:§!</t>
+    <t xml:space="preserve">§R§R Nicht alle ausgewählten Luftgeschwader können hierhin verlegt werden: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_NONE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKeines der ausgewählten Luftgeschwader kann hierhin verlegt werden:§!</t>
+    <t xml:space="preserve">§R§R Keines der ausgewählten Luftgeschwader kann hierhin verlegt werden: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_NONE_ROCKETS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKeine der ausgewählten Raketen kann hierher transferiert werden:§!</t>
+    <t xml:space="preserve">§R§R Keine der ausgewählten Raketen kann hierher transferiert werden: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_REASON_NOT_CARRIER_CAPABLE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader können nicht auf einem Träger stationiert werden.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader können nicht auf einem Träger stationiert werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader können nicht zwischen Raketenbasen transferiert werden.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader können nicht zwischen Raketenbasen transferiert werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE_ROCKET:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Raketen können nicht zwischen Raketenbasen transferiert werden.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Raketen können nicht zwischen Raketenbasen transferiert werden. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader sind bereits auf dem Luftstützpunkt stationiert.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader sind bereits auf dem Luftstützpunkt stationiert. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE_ROCKET:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Raketen sind bereits auf dem Luftstützpunkt stationiert.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Raketen sind bereits auf dem Luftstützpunkt stationiert. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_REASON_NO_ACCESS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader haben keinen Zugang zu dem Luftstützpunkt.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader haben keinen Zugang zu dem Luftstützpunkt. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REGION_RIGHT_CLICK_NOT_ALL:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht alle ausgewählten Luftgeschwader können diesem Ziel zugewiesen werden:§!</t>
+    <t xml:space="preserve">§R§R Nicht alle ausgewählten Luftgeschwader können diesem Ziel zugewiesen werden: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REGION_RIGHT_CLICK_NONE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RKeines der ausgewählten Luftgeschwader kann diesem Ziel zugewiesen werden:§!</t>
+    <t xml:space="preserve">§R§R Keines der ausgewählten Luftgeschwader kann diesem Ziel zugewiesen werden: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REGION_RIGHT_CLICK_REASON_CARRIER_ON_MISSION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader sind auf einem Träger stationiert und auf einer Mission.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader sind auf einem Träger stationiert und auf einer Mission. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REGION_RIGHT_CLICK_REASON_TRAINING_MISSION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader führen §HPilotenübungen§! durch§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader führen §H§H Pilotenübungen §!§!  durch §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REGION_RIGHT_CLICK_REASON_NO_COVERAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§R$COUNT|H$ Luftgeschwader haben keine Reichweite.§!</t>
+    <t xml:space="preserve">§R§R $COUNT|H$ Luftgeschwader haben keine Reichweite. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_RIGHT_CLICK_CARRIER:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GDie Geschwader werden nach $NAME|H$ verlegt, da dort die größte Kapazität verfügbar ist.§!</t>
+    <t xml:space="preserve">§G§G Die Geschwader werden nach $NAME|H$ verlegt, da dort die größte Kapazität verfügbar ist. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REGION_RIGHT_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um die ausgewählten Luftgeschwader diesem Gebiet zuzuweisen§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um die ausgewählten Luftgeschwader diesem Gebiet zuzuweisen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_GOTO_RIGHT_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um zum Luftstützpunkt zu wechseln§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um zum Luftstützpunkt zu wechseln §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_GOTO_CTRL_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GStrg+Maustaste, um zum Luftstützpunkt zu wechseln§!</t>
+    <t xml:space="preserve">§G§G Strg+Maustaste, um zum Luftstützpunkt zu wechseln §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_OPEN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um das Luftstützpunkt-Fenster zu öffnen§!</t>
+    <t xml:space="preserve">§G§G Klicken, um das Luftstützpunkt-Fenster zu öffnen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_CLOSE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um das Luftstützpunkt-Fenster zu schließen§!</t>
+    <t xml:space="preserve">§G§G Klicken, um das Luftstützpunkt-Fenster zu schließen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_ITEM_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um dieses Luftgeschwader auszuwählen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um dieses Luftgeschwader auszuwählen.</t>
   </si>
   <si>
     <t xml:space="preserve"> ROCKET_ITEM_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um diese Rakete auszuwählen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um diese Rakete auszuwählen.</t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_HALF_WINGS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§THälfte der aktuellen Luftgeschwader auswählen§!</t>
+    <t xml:space="preserve">§T§T Hälfte der aktuellen Luftgeschwader auswählen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_HALF_WINGS_BLOCKED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs müssen mindestens §H2§! Luftgeschwader ausgewählt sein§!</t>
+    <t xml:space="preserve">§R§R Es müssen mindestens §H§H 2 §!§!  Luftgeschwader ausgewählt sein §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> HOLD_WINGS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TLuftgeschwader halten.§!</t>
+    <t xml:space="preserve">§T§T Luftgeschwader halten. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> CREATE_AIR_GROUP:</t>
@@ -1588,19 +1588,19 @@
     <t xml:space="preserve"> AIR_BASE_ITEM_TOGGLE_SELECTION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GUmschalt+klicken§!, um Auswahl umzukehren.</t>
+    <t xml:space="preserve">§G§G Umschalt+klicken §!§! , um Auswahl umzukehren.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_CARRIER_SEPARATOR_SELECT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken, um hier stationierte Luftgeschwader der Auswahl hinzuzufügen.§!</t>
+    <t xml:space="preserve">§G§G Rechtsklicken, um hier stationierte Luftgeschwader der Auswahl hinzuzufügen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_BASE_CARRIER_SEPARATOR_DESELECT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um hier stationierte Luftgeschwader aus der Auswahl zu entfernen.§!</t>
+    <t xml:space="preserve">§G§G Klicken, um hier stationierte Luftgeschwader aus der Auswahl zu entfernen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_WING_STATS:</t>
@@ -1612,7 +1612,7 @@
     <t xml:space="preserve"> CLICK_AIR_WING_SEE_DETAILS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken, um Details anzuzeigen.§!</t>
+    <t xml:space="preserve">§G§G Klicken, um Details anzuzeigen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VOLUNTEERS:</t>
@@ -1630,7 +1630,7 @@
     <t xml:space="preserve"> AIR_CAN_NOT_PERFORM_PORT_STRIKE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RMission wird nicht ausgeführt§!\nFeindliche §YLuftüberlegenheit§! steht bei $CURRENT|H2%$.\nDie Mission erlaubt höchstens $REQUIRED|H2%$.</t>
+    <t xml:space="preserve">§R§R Mission wird nicht ausgeführt §!§! \nFeindliche §Y§Y Luftüberlegenheit §!§!  steht bei $CURRENT|H2%$.\nDie Mission erlaubt höchstens $REQUIRED|H2%$.</t>
   </si>
   <si>
     <t xml:space="preserve"> RESERVES_TOOLTIP:</t>
@@ -1642,7 +1642,7 @@
     <t xml:space="preserve"> AIR_NO_RESERVES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RSie haben keine Flugzeuge, die hier als Reserve stationiert werden können.§!</t>
+    <t xml:space="preserve">§R§R Sie haben keine Flugzeuge, die hier als Reserve stationiert werden können. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ACE_PILOT_WING_SIZE_EFFECT_SMALLER:</t>
@@ -1738,7 +1738,7 @@
     <t xml:space="preserve"> AIR_SELECT_ALL_NO_WINGS_IN_REGION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§TDieser Region sind keine Luftgeschwader zugewiesen.§!</t>
+    <t xml:space="preserve">§T§T Dieser Region sind keine Luftgeschwader zugewiesen. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REMOVE_COUNT:</t>
@@ -1762,19 +1762,19 @@
     <t xml:space="preserve"> AIR_WING_NO_MISSION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftgeschwader ohne zugewiesene Mission§!</t>
+    <t xml:space="preserve">§R§R Luftgeschwader ohne zugewiesene Mission §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_WING_NO_REGION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftgeschwader ohne zugewiesene Region§!</t>
+    <t xml:space="preserve">§R§R Luftgeschwader ohne zugewiesene Region §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_WING_TRAINING:</t>
   </si>
   <si>
-    <t xml:space="preserve">Luftgeschwader führt §HPilotenübungen§! durch</t>
+    <t xml:space="preserve">Luftgeschwader führt §H§H Pilotenübungen §!§!  durch</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MISSION_TRAINING:</t>
@@ -1783,25 +1783,25 @@
     <t xml:space="preserve"> AIR_WING_NO_COVERAGE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RLuftgeschwader kann Armee nicht abdecken§!</t>
+    <t xml:space="preserve">§R§R Luftgeschwader kann Armee nicht abdecken §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MIXED_MISSION_DAY:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die meisten Geschwader führen Missionen §Htagsüber§! aus.</t>
+    <t xml:space="preserve">Die meisten Geschwader führen Missionen §H§H tagsüber §!§!  aus.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MIXED_MISSION_NIGHT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die meisten Geschwader führen Missionen §Hnachts§! aus.</t>
+    <t xml:space="preserve">Die meisten Geschwader führen Missionen §H§H nachts §!§!  aus.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_MIXED_MISSION_DAY_NIGHT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Die meisten Geschwader führen Missionen sowohl §Htagsüber§! als auch §Hnachts§! aus.</t>
+    <t xml:space="preserve">Die meisten Geschwader führen Missionen sowohl §H§H tagsüber §!§!  als auch §H§H nachts §!§!  aus.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_STACK_INFO:</t>
@@ -1813,7 +1813,7 @@
     <t xml:space="preserve"> AIRWING_MAP_STACK_HEADER:</t>
   </si>
   <si>
-    <t xml:space="preserve">$COUNT|H$ $TYPE|H$ §HGeschwader§!</t>
+    <t xml:space="preserve">$COUNT|H$ $TYPE|H$ §H§H Geschwader §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_STACK_INFO_MAP_ICON:</t>
@@ -1861,7 +1861,7 @@
     <t xml:space="preserve"> AIRWING_ATTACHED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HZugewiesene Luftgeschwader:§!</t>
+    <t xml:space="preserve">§H§H Zugewiesene Luftgeschwader: §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_DISBAND:</t>
@@ -1870,31 +1870,31 @@
     <t xml:space="preserve"> ATTACH_AIR_WING_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um die gewählten Luftgeschwader der Armee zuzuweisen</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um die gewählten Luftgeschwader der Armee zuzuweisen</t>
   </si>
   <si>
     <t xml:space="preserve"> CANNOT_ATTACH_AIR_WING_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDie ausgewählten Luftgeschwader können keiner Armee zugewiesen werden§!</t>
+    <t xml:space="preserve">§R§R Die ausgewählten Luftgeschwader können keiner Armee zugewiesen werden §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ATTACH_AIR_WING_SELECT_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GRechtsklicken§!, um die gewählten Luftgeschwader abzutrennen</t>
+    <t xml:space="preserve">§G§G Rechtsklicken §!§! , um die gewählten Luftgeschwader abzutrennen</t>
   </si>
   <si>
     <t xml:space="preserve"> ATTACH_AIR_WING_SELECT_SOME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWählen Sie die Luftgeschwader, die der Armee zugewiesen werden sollen!§!</t>
+    <t xml:space="preserve">§R§R Wählen Sie die Luftgeschwader, die der Armee zugewiesen werden sollen! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SELECT_ATTACHED_AIRWINGS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um der Armee zugewiesene Luftgeschwader auszuwählen</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um der Armee zugewiesene Luftgeschwader auszuwählen</t>
   </si>
   <si>
     <t xml:space="preserve"> WING_COUNTS:</t>
@@ -1906,13 +1906,13 @@
     <t xml:space="preserve"> AIRWING_NEED_ONE_SELECTED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs muss mindestens §H1§! Luftgeschwader ausgewählt sein§!</t>
+    <t xml:space="preserve">§R§R Es muss mindestens §H§H 1 §!§!  Luftgeschwader ausgewählt sein §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_NEED_ONE_GROUPED_SELECTED:</t>
   </si>
   <si>
-    <t xml:space="preserve">§REs muss mindestens §H1§! gruppiertes Luftgeschwader ausgewählt sein§!</t>
+    <t xml:space="preserve">§R§R Es muss mindestens §H§H 1 §!§!  gruppiertes Luftgeschwader ausgewählt sein §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REINFORCEMENT_LOW_PRIORITY:</t>
@@ -1924,13 +1924,13 @@
     <t xml:space="preserve"> ATTACHED_AIR_WING_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HZugewiesenes Luftgeschwader§!</t>
+    <t xml:space="preserve">§H§H Zugewiesenes Luftgeschwader §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ATTACHED_AIR_WING_DELAYED_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GLinksklicken§! um die zugewiesene Armee zu wählen\n§GRechtsklicken§!, um Zuweisung aufzuheben</t>
+    <t xml:space="preserve">§G§G Linksklicken §!§!  um die zugewiesene Armee zu wählen\n§G§G Rechtsklicken §!§! , um Zuweisung aufzuheben</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REINFORCEMENT_MEDIUM_PRIORITY:</t>
@@ -1948,169 +1948,169 @@
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Gebäude bombardiert§!</t>
+    <t xml:space="preserve">§H§H Feindliche Gebäude bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Gebäude bombardiert§!</t>
+    <t xml:space="preserve">§H§H Befreundete Gebäude bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_SHIPS_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Schiffe bombardiert§!</t>
+    <t xml:space="preserve">§H§H Feindliche Schiffe bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_SHIPS_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Schiffe bombardiert§!</t>
+    <t xml:space="preserve">§H§H Befreundete Schiffe bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSchaden an feindlichen Divisionen verursacht§!</t>
+    <t xml:space="preserve">§H§H Schaden an feindlichen Divisionen verursacht §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSchaden durch befreundete Divisionen erlitten§!</t>
+    <t xml:space="preserve">§H§H Schaden durch befreundete Divisionen erlitten §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Flugzeuge gestört§!\nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt.</t>
+    <t xml:space="preserve">§H§H Feindliche Flugzeuge gestört §!§! \nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Flugzeuge gestört§!\nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt.</t>
+    <t xml:space="preserve">§H§H Befreundete Flugzeuge gestört §!§! \nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_FROM_PLANES_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Flugzeuge abgeschossen§!</t>
+    <t xml:space="preserve">§H§H Feindliche Flugzeuge abgeschossen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_FROM_PLANES_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Flugzeuge verloren§!</t>
+    <t xml:space="preserve">§H§H Befreundete Flugzeuge verloren §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_US_COUNT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Flugzeuge auf dem Weg zum Ziel abgeschossen:§! $COUNT$</t>
+    <t xml:space="preserve">§H§H Feindliche Flugzeuge auf dem Weg zum Ziel abgeschossen: §!§!  $COUNT$</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RBefreundete Flugzeuge auf dem Weg zum Ziel abgeschossen!§!</t>
+    <t xml:space="preserve">§R§R Befreundete Flugzeuge auf dem Weg zum Ziel abgeschossen! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY_COUNT:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Flugzeuge auf dem Weg zum Ziel abgeschossen:§! $COUNT$</t>
+    <t xml:space="preserve">§H§H Befreundete Flugzeuge auf dem Weg zum Ziel abgeschossen: §!§!  $COUNT$</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_FROM_AA_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Flugzeuge durch Flugabwehr abgeschossen§!</t>
+    <t xml:space="preserve">§H§H Feindliche Flugzeuge durch Flugabwehr abgeschossen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_FROM_AA_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFlugzeuge an Flugabwehr verloren§!</t>
+    <t xml:space="preserve">§H§H Flugzeuge an Flugabwehr verloren §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Logistik bombardiert§!</t>
+    <t xml:space="preserve">§H§H Feindliche Logistik bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Logistik bombardiert§!</t>
+    <t xml:space="preserve">§H§H Befreundete Logistik bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Eisenbahngeschütze bombardiert§!</t>
+    <t xml:space="preserve">§H§H Feindliche Eisenbahngeschütze bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HBefreundete Eisenbahngeschütze bombardiert§!</t>
+    <t xml:space="preserve">§H§H Befreundete Eisenbahngeschütze bombardiert §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_US:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Flugzeuge durch Panzerzüge abgeschossen§!</t>
+    <t xml:space="preserve">§H§H Feindliche Flugzeuge durch Panzerzüge abgeschossen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HDurch feindliche Panzerzüge verlorene Flugzeuge§!</t>
+    <t xml:space="preserve">§H§H Durch feindliche Panzerzüge verlorene Flugzeuge §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_SHOW_OUR_MISSIONS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HUnsere Missionen§!\nErgebnisse der Missionen unserer Luftgeschwader anzeigen.</t>
+    <t xml:space="preserve">§H§H Unsere Missionen §!§! \nErgebnisse der Missionen unserer Luftgeschwader anzeigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_SHOW_ENEMY_MISSIONS:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Missionen§!\nErgebnisse der Missionen feindlicher Luftgeschwader anzeigen.</t>
+    <t xml:space="preserve">§H§H Feindliche Missionen §!§! \nErgebnisse der Missionen feindlicher Luftgeschwader anzeigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_SHOW_LAST_SORTIE:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HLetzter Einsatz§!\nErgebnisse des letzten Einsatzes anzeigen.</t>
+    <t xml:space="preserve">§H§H Letzter Einsatz §!§! \nErgebnisse des letzten Einsatzes anzeigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_SHOW_LAST_DAY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HLetzter Tag§!\nErgebnisse der letzten 24 Stunden anzeigen.</t>
+    <t xml:space="preserve">§H§H Letzter Tag §!§! \nErgebnisse der letzten 24 Stunden anzeigen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_FRIEND:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HUnsere durchschnittliche Missionseffizienz§!\nEffizienz: $VAL_HIGH|G%$$VAL_MID|H%$$VAL_LOW|R%$</t>
+    <t xml:space="preserve">§H§H Unsere durchschnittliche Missionseffizienz §!§! \nEffizienz: $VAL_HIGH|G%$$VAL_MID|H%$$VAL_LOW|R%$</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HDurchschnittliche Missionseffizienz des Feindes§!\nEffizienz: $VAL|H%$</t>
+    <t xml:space="preserve">§H§H Durchschnittliche Missionseffizienz des Feindes §!§! \nEffizienz: $VAL|H%$</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AVERAGE_COVERAGE_CAPACITY_SUPPLY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HGeschwaderspezifischer Durchschnitt§!: $VAL|H%$\n(Abdeckung, Luftwaffenstützpunkt-Kapazität und Nachschub)</t>
+    <t xml:space="preserve">§H§H Geschwaderspezifischer Durchschnitt §!§! : $VAL|H%$\n(Abdeckung, Luftwaffenstützpunkt-Kapazität und Nachschub)</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_GROUND_MISSION:</t>
@@ -2122,79 +2122,79 @@
     <t xml:space="preserve"> AIR_VIEW_AIR_ATTACK_HIGHER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unser durchschnittlicher §HLuftangriff§! ist §Ghöher§! als ihre §HLuftverteidigung§!</t>
+    <t xml:space="preserve">Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G höher §!§!  als ihre §H§H Luftverteidigung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_ATTACK_LOWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unser durchschnittlicher §HLuftangriff§! ist §Gniedriger§! als ihre §HLuftverteidigung§!</t>
+    <t xml:space="preserve">Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G niedriger §!§!  als ihre §H§H Luftverteidigung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_ATTACK_EQUAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unser durchschnittlicher §HLuftangriff§! ist §Ggleich hoch§! wie ihre §HLuftverteidigung§!</t>
+    <t xml:space="preserve">Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G gleich hoch §!§!  wie ihre §H§H Luftverteidigung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_DEFENSE_HIGHER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HLuftverteidigung§! ist §Ghöher§! als ihr §HLuftangriff§!</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G höher §!§!  als ihr §H§H Luftangriff §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_DEFENSE_LOWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HLuftverteidigung§! ist §Gniedriger§! als ihr §HLuftangriff§!</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G niedriger §!§!  als ihr §H§H Luftangriff §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_DEFENSE_EQUAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HLuftverteidigung§! ist §Ggleich hoch§! wie ihr §HLuftangriff§!</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G gleich hoch §!§!  wie ihr §H§H Luftangriff §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_AGILITY_HIGHER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HMobilität§! ist §Ghöher§! als ihre</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G höher §!§!  als ihre</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_AGILITY_LOWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HMobilität§! ist §Gniedriger§! als ihre</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G niedriger §!§!  als ihre</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_AGILITY_EQUAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HMobilität§! ist §Ggleich hoch§! wie ihre</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G gleich hoch §!§!  wie ihre</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_SPEED_HIGHER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HGeschwindigkeit§! ist §Ghöher§! als ihre</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G höher §!§!  als ihre</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_SPEED_LOWER:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HGeschwindigkeit§! ist §Gniedriger§! als ihre</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G niedriger §!§!  als ihre</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIR_SPEED_EQUAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsere durchschnittliche §HGeschwindigkeit§! ist §Ggleich hoch§! wie ihre</t>
+    <t xml:space="preserve">Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G gleich hoch §!§!  wie ihre</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_FILTER_CLICK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um die Ansicht dieser Mission ein- / auszuschalten.\n§GUmschalt+klicken§!, um nur diese Mission zu sehen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um die Ansicht dieser Mission ein- / auszuschalten.\n§G§G Umschalt+klicken §!§! , um nur diese Mission zu sehen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DETECTION:</t>
@@ -2203,37 +2203,37 @@
     <t xml:space="preserve"> SELECT_BOMBING_PRIORITIES:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HStrategische Luftprioritäten auswählen§!</t>
+    <t xml:space="preserve">§H§H Strategische Luftprioritäten auswählen §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DETECTION_HEADER_OUR:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HUnsere Luftortung§!</t>
+    <t xml:space="preserve">§H§H Unsere Luftortung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DETECTION_HEADER_ENEMY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HFeindliche Luftortung§!</t>
+    <t xml:space="preserve">§H§H Feindliche Luftortung §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_DETECTION_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Je höher die §YLuftortung§! in einem Gebiet ist, desto einfacher ist es, feindliche Flugzeuge aufzuspüren und anzugreifen. Wirkt sich auf die Anzahl der aktiven Flugzeuge aus, die am Kampf teilnehmen.</t>
+    <t xml:space="preserve">Je höher die §Y§Y Luftortung §!§!  in einem Gebiet ist, desto einfacher ist es, feindliche Flugzeuge aufzuspüren und anzugreifen. Wirkt sich auf die Anzahl der aktiven Flugzeuge aus, die am Kampf teilnehmen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIRPLANES_IN_COMBAT_FIGHTERS:</t>
   </si>
   <si>
-    <t xml:space="preserve">Anzahl der Flugzeuge, die in der letzten Phase am Kampf beteiligt waren.\nDie Anzahl der aktiven Flugzeuge, die am Kampf teilnehmen, wird duch die §HLuftortung§! beeinflusst.</t>
+    <t xml:space="preserve">Anzahl der Flugzeuge, die in der letzten Phase am Kampf beteiligt waren.\nDie Anzahl der aktiven Flugzeuge, die am Kampf teilnehmen, wird duch die §H§H Luftortung §!§!  beeinflusst.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VIEW_AIRPLANES_IN_COMBAT:</t>
   </si>
   <si>
-    <t xml:space="preserve">Anzahl der Flugzeuge, die in der letzten Phase §HBodenmissionen§! ausgeführt haben.\n\nEine Zahl in (§HKlammern§!) zeigt Flugzeuge an, die durch diese Region hindurchfliegen, um weiter entfernte Einsätze zu erreichen.</t>
+    <t xml:space="preserve">Anzahl der Flugzeuge, die in der letzten Phase §H§H Bodenmissionen §!§!  ausgeführt haben.\n\nEine Zahl in (§H§H Klammern §!§! ) zeigt Flugzeuge an, die durch diese Region hindurchfliegen, um weiter entfernte Einsätze zu erreichen.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_VOLUNTEERS_LIMIT:</t>
@@ -2257,7 +2257,7 @@
     <t xml:space="preserve"> AIR_SUPPLY_VERY_LOW_SUPPLY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RWir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region!§!</t>
+    <t xml:space="preserve">§R§R Wir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region! §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_SUPPLY_LOW_SUPPLY:</t>
@@ -2266,7 +2266,7 @@
     <t xml:space="preserve"> AIR_SUPPLY_NORMAL_SUPPLY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GLuftversorgung unterstützt $VAL|H1$/$MAX|H1$ Nachschubdefizit in dieser strategischen Region§!</t>
+    <t xml:space="preserve">§G§G Luftversorgung unterstützt $VAL|H1$/$MAX|H1$ Nachschubdefizit in dieser strategischen Region §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_MORE_GROUND_CREWS:</t>
@@ -2278,7 +2278,7 @@
     <t xml:space="preserve"> AIR_MORE_GROUND_CREWS_CANCEL_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Den Effizienzboost für $NAME|H$ §Raufheben§!</t>
+    <t xml:space="preserve">Den Effizienzboost für $NAME|H$ §R§R aufheben §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_MORE_GROUND_CREWS_DESC:</t>
@@ -2290,7 +2290,7 @@
     <t xml:space="preserve"> AIR_MORE_GROUND_CREWS_NOT_ENOUGH:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RNicht genügend Befehlsmacht.§!</t>
+    <t xml:space="preserve">§R§R Nicht genügend Befehlsmacht. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> ADD_MINES_EFFECT:</t>
@@ -2308,31 +2308,31 @@
     <t xml:space="preserve"> AIR_REINFORCE_OBSOLETE_ONLY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HReserve-Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt nur durch veraltete Flugzeuge.</t>
+    <t xml:space="preserve">§H§H Reserve-Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt nur durch veraltete Flugzeuge.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REINFORCE_ANY:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HNormales Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt durch aktuelle und veraltete Flugzeuge.</t>
+    <t xml:space="preserve">§H§H Normales Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt durch aktuelle und veraltete Flugzeuge.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REINFORCE_ONLY_NEW:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HElite-Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt nur durch aktuelle Flugzeuge.</t>
+    <t xml:space="preserve">§H§H Elite-Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt nur durch aktuelle Flugzeuge.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REINFORCE_ONLY_SAME:</t>
   </si>
   <si>
-    <t xml:space="preserve">§HSpezialisiertes Luftgeschwader§!\nVerstärkung erfolgt nur durch Flugzeugmodelle, die bereits im  §HLuftgeschwader§! enthalten sind.</t>
+    <t xml:space="preserve">§H§H Spezialisiertes Luftgeschwader §!§! \nVerstärkung erfolgt nur durch Flugzeugmodelle, die bereits im  §H§H Luftgeschwader §!§!  enthalten sind.</t>
   </si>
   <si>
     <t xml:space="preserve"> AIR_REINFORCE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Um die Verstärkungsregeln zu ändern, müssen Sie das Luftgeschwader §Hreorganisieren§!.</t>
+    <t xml:space="preserve">Um die Verstärkungsregeln zu ändern, müssen Sie das Luftgeschwader §H§H reorganisieren §!§! .</t>
   </si>
   <si>
     <t xml:space="preserve"> DUPLICATE_SELECTED_WINGS:</t>
@@ -2344,13 +2344,13 @@
     <t xml:space="preserve"> DUPLICATE_WINGS_BLOCK:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RUm Luftgeschwader zu duplizieren, müssen Sie mindestens ein Luftgeschwader auswählen, das Flugzeugtypen enthält, welche auch in Ihrem Lager enthalten sind.§!</t>
+    <t xml:space="preserve">§R§R Um Luftgeschwader zu duplizieren, müssen Sie mindestens ein Luftgeschwader auswählen, das Flugzeugtypen enthält, welche auch in Ihrem Lager enthalten sind. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> AIRWING_SET_REINF_LIMIT_WARNING_DISBAND:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDieses Geschwader wird aufgelöst und alle seine Flugzeuge kehren zurück in die Reserve.§!</t>
+    <t xml:space="preserve">§R§R Dieses Geschwader wird aufgelöst und alle seine Flugzeuge kehren zurück in die Reserve. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> adjuster_mission_air_superiority:</t>
@@ -2434,7 +2434,7 @@
     <t xml:space="preserve"> QUICK_DEPLOY_WING_ENABLE_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Luftgeschwader vom Typ $PLANE_TYPE|H$ hinzufügen.\nDerzeit befinden sich $COUNT|H$ $PLANE_TYPE$-Flugzeuge im Lager.\n\n§GKlicken§!, um §H1§! hinzuzufügen\n§GStrg+Klick§!, um §H5§! hinzuzufügen\n§GUmschalt+Klick§!, um §H10§! hinzuzufügen</t>
+    <t xml:space="preserve">Luftgeschwader vom Typ $PLANE_TYPE|H$ hinzufügen.\nDerzeit befinden sich $COUNT|H$ $PLANE_TYPE$-Flugzeuge im Lager.\n\n§G§G Klicken §!§! , um §H§H 1 §!§!  hinzuzufügen\n§G§G Strg+Klick §!§! , um §H§H 5 §!§!  hinzuzufügen\n§G§G Umschalt+Klick §!§! , um §H§H 10 §!§!  hinzuzufügen</t>
   </si>
   <si>
     <t xml:space="preserve"> QUICK_DEPLOY_WING_DISABLE_NO_EQUIP_DESC:</t>
@@ -2452,49 +2452,49 @@
     <t xml:space="preserve"> QUICK_DEPLOY_SELECTED_CHECKBOX_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um die Schaltfläche für den §HSchnelleinsatz§! zu entfernen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um die Schaltfläche für den §H§H Schnelleinsatz §!§!  zu entfernen.</t>
   </si>
   <si>
     <t xml:space="preserve"> QUICK_DEPLOY_DESELECTED_AND_SELECTABLE_CHECKBOX_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um die Schaltfläche für den §HSchnelleinsatz§! hinzuzufügen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um die Schaltfläche für den §H§H Schnelleinsatz §!§!  hinzuzufügen.</t>
   </si>
   <si>
     <t xml:space="preserve"> QUICK_DEPLOY_DESELECTED_AND_NOT_SELECTABLE_CHECKBOX_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Sie haben die maximale Anzahl an §HSchnelleinsatz§!-Schaltflächen hinzugefügt. Entfernen Sie eine, um eine neue hinzufügen zu können.</t>
+    <t xml:space="preserve">Sie haben die maximale Anzahl an §H§H Schnelleinsatz §!§! -Schaltflächen hinzugefügt. Entfernen Sie eine, um eine neue hinzufügen zu können.</t>
   </si>
   <si>
     <t xml:space="preserve"> QUICK_DEPLOY_SELECTION_WINDOW_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um dem Schnelleinsatz Flugzeugtypen hinzuzufügen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um dem Schnelleinsatz Flugzeugtypen hinzuzufügen.</t>
   </si>
   <si>
     <t xml:space="preserve"> QUICK_DEPLOY_SELECTION_WINDOW_OPEN_DESC:</t>
   </si>
   <si>
-    <t xml:space="preserve">Schnelleinsatz\n\nFügt dem Einsatz von §HLuftgeschwadern§! eines bestimmten Typs Tastenkürzel hinzu.</t>
+    <t xml:space="preserve">Schnelleinsatz\n\nFügt dem Einsatz von §H§H Luftgeschwadern §!§!  eines bestimmten Typs Tastenkürzel hinzu.</t>
   </si>
   <si>
     <t xml:space="preserve"> NOT_ENOUGH_PLANES_FOR_MISION:</t>
   </si>
   <si>
-    <t xml:space="preserve">§RDas Luftgeschwader benötigt mindestens $NUM$ Flugzeuge, um diese Mission durchführen zu können.§!</t>
+    <t xml:space="preserve">§R§R Das Luftgeschwader benötigt mindestens $NUM$ Flugzeuge, um diese Mission durchführen zu können. §!§! </t>
   </si>
   <si>
     <t xml:space="preserve"> SETUP_AIR_WING_MOVE_INFO:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um bis zu §H100§! Flugzeuge dieses Typs zu verlegen.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um bis zu §H§H 100 §!§!  Flugzeuge dieses Typs zu verlegen.</t>
   </si>
   <si>
     <t xml:space="preserve"> OPEN_DESIGNER_VIEW_NOT_FOREIGN:</t>
   </si>
   <si>
-    <t xml:space="preserve">§GKlicken§!, um diese Variante im Ausrüstungskonstrukteur zu öffnen. Fremde Varianten können nicht bearbeitet werden.</t>
+    <t xml:space="preserve">§G§G Klicken §!§! , um diese Variante im Ausrüstungskonstrukteur zu öffnen. Fremde Varianten können nicht bearbeitet werden.</t>
   </si>
 </sst>
 </file>
@@ -2718,8 +2718,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D420" activeCellId="0" sqref="D1:D420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2831,11 +2831,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">A7 &amp;" " &amp;"""" &amp;B7 &amp;""""</f>
-        <v> AIRWING_MISSION_EFFICIENCY: "§TAuftragseffizienz: $AMOUNT|H1%$§!"</v>
+        <v> AIRWING_MISSION_EFFICIENCY: "§T§T Auftragseffizienz: $AMOUNT|H1%$ §!§! "</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">IF(ISBLANK(A7),"",C7)</f>
-        <v> AIRWING_MISSION_EFFICIENCY: "§TAuftragseffizienz: $AMOUNT|H1%$§!"</v>
+        <v> AIRWING_MISSION_EFFICIENCY: "§T§T Auftragseffizienz: $AMOUNT|H1%$ §!§! "</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2847,11 +2847,11 @@
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">A8 &amp;" " &amp;"""" &amp;B8 &amp;""""</f>
-        <v> AIRWING_MISSION_EFFICIENCY_TOT: "§TAuftragseffizienz: $AMOUNT|H1%$§!\n"</v>
+        <v> AIRWING_MISSION_EFFICIENCY_TOT: "§T§T Auftragseffizienz: $AMOUNT|H1%$ §!§! \n"</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">IF(ISBLANK(A8),"",C8)</f>
-        <v> AIRWING_MISSION_EFFICIENCY_TOT: "§TAuftragseffizienz: $AMOUNT|H1%$§!\n"</v>
+        <v> AIRWING_MISSION_EFFICIENCY_TOT: "§T§T Auftragseffizienz: $AMOUNT|H1%$ §!§! \n"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,11 +3199,11 @@
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">A30 &amp;" " &amp;"""" &amp;B30 &amp;""""</f>
-        <v> AIRWING_MISSION_TYPE_TRAINING_DESC: "Sammeln Sie Erfahrung für dieses §HLuftgeschwader§! sowie §HLuftwaffenerfahrung§!.\nDurch Luftübungen wird §HTreibstoff§! verbraucht und das Risiko von §HLuftunfällen§!.\n§RWenn diese Option aktiviert wird, werden alle Missionen deaktiviert.§!"</v>
+        <v> AIRWING_MISSION_TYPE_TRAINING_DESC: "Sammeln Sie Erfahrung für dieses §H§H Luftgeschwader §!§!  sowie §H§H Luftwaffenerfahrung §!§! .\nDurch Luftübungen wird §H§H Treibstoff §!§!  verbraucht und das Risiko von §H§H Luftunfällen §!§! .\n§R§R Wenn diese Option aktiviert wird, werden alle Missionen deaktiviert. §!§! "</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">IF(ISBLANK(A30),"",C30)</f>
-        <v> AIRWING_MISSION_TYPE_TRAINING_DESC: "Sammeln Sie Erfahrung für dieses §HLuftgeschwader§! sowie §HLuftwaffenerfahrung§!.\nDurch Luftübungen wird §HTreibstoff§! verbraucht und das Risiko von §HLuftunfällen§!.\n§RWenn diese Option aktiviert wird, werden alle Missionen deaktiviert.§!"</v>
+        <v> AIRWING_MISSION_TYPE_TRAINING_DESC: "Sammeln Sie Erfahrung für dieses §H§H Luftgeschwader §!§!  sowie §H§H Luftwaffenerfahrung §!§! .\nDurch Luftübungen wird §H§H Treibstoff §!§!  verbraucht und das Risiko von §H§H Luftunfällen §!§! .\n§R§R Wenn diese Option aktiviert wird, werden alle Missionen deaktiviert. §!§! "</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3215,11 +3215,11 @@
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">A31 &amp;" " &amp;"""" &amp;B31 &amp;""""</f>
-        <v> AIRWING_MISSION_TYPE_TRAINING_DESC_SHIFT_CLICK: "Halten Sie §HUmschalt§! und klicken Sie, um §HPilotenübungen§! abzuhalten, bis das §HLuftgeschwader§! voll ausgebildet ist."</v>
+        <v> AIRWING_MISSION_TYPE_TRAINING_DESC_SHIFT_CLICK: "Halten Sie §H§H Umschalt §!§!  und klicken Sie, um §H§H Pilotenübungen §!§!  abzuhalten, bis das §H§H Luftgeschwader §!§!  voll ausgebildet ist."</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">IF(ISBLANK(A31),"",C31)</f>
-        <v> AIRWING_MISSION_TYPE_TRAINING_DESC_SHIFT_CLICK: "Halten Sie §HUmschalt§! und klicken Sie, um §HPilotenübungen§! abzuhalten, bis das §HLuftgeschwader§! voll ausgebildet ist."</v>
+        <v> AIRWING_MISSION_TYPE_TRAINING_DESC_SHIFT_CLICK: "Halten Sie §H§H Umschalt §!§!  und klicken Sie, um §H§H Pilotenübungen §!§!  abzuhalten, bis das §H§H Luftgeschwader §!§!  voll ausgebildet ist."</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3327,11 +3327,11 @@
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">A38 &amp;" " &amp;"""" &amp;B38 &amp;""""</f>
-        <v> AIRWING_MISSION_TYPE_DROP_NUKE_DISABLED_DESC: "§RNicht genug§! Atomraketen für nuklearen Schlag vorhanden!"</v>
+        <v> AIRWING_MISSION_TYPE_DROP_NUKE_DISABLED_DESC: "§R§R Nicht genug §!§!  Atomraketen für nuklearen Schlag vorhanden!"</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">IF(ISBLANK(A38),"",C38)</f>
-        <v> AIRWING_MISSION_TYPE_DROP_NUKE_DISABLED_DESC: "§RNicht genug§! Atomraketen für nuklearen Schlag vorhanden!"</v>
+        <v> AIRWING_MISSION_TYPE_DROP_NUKE_DISABLED_DESC: "§R§R Nicht genug §!§!  Atomraketen für nuklearen Schlag vorhanden!"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,11 +3487,11 @@
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">A48 &amp;" " &amp;"""" &amp;B48 &amp;""""</f>
-        <v> AIRWING_MISSION_WING_STATUS_2: "§T$NUM|H$ $NAME|H$ $STATUS|H$.§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_2: "§T§T $NUM|H$ $NAME|H$ $STATUS|H$. §!§! "</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">IF(ISBLANK(A48),"",C48)</f>
-        <v> AIRWING_MISSION_WING_STATUS_2: "§T$NUM|H$ $NAME|H$ $STATUS|H$.§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_2: "§T§T $NUM|H$ $NAME|H$ $STATUS|H$. §!§! "</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,11 +3535,11 @@
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">A51 &amp;" " &amp;"""" &amp;B51 &amp;""""</f>
-        <v> AIRWING_MISSION_TRAINING_WILL_STOP_AT_MAX: "§HPilotenübungen§! werden automatisch gestoppt, wenn das §HLuftgeschwader§! die maximale Ausbildungserfahrung erreicht."</v>
+        <v> AIRWING_MISSION_TRAINING_WILL_STOP_AT_MAX: "§H§H Pilotenübungen §!§!  werden automatisch gestoppt, wenn das §H§H Luftgeschwader §!§!  die maximale Ausbildungserfahrung erreicht."</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">IF(ISBLANK(A51),"",C51)</f>
-        <v> AIRWING_MISSION_TRAINING_WILL_STOP_AT_MAX: "§HPilotenübungen§! werden automatisch gestoppt, wenn das §HLuftgeschwader§! die maximale Ausbildungserfahrung erreicht."</v>
+        <v> AIRWING_MISSION_TRAINING_WILL_STOP_AT_MAX: "§H§H Pilotenübungen §!§!  werden automatisch gestoppt, wenn das §H§H Luftgeschwader §!§!  die maximale Ausbildungserfahrung erreicht."</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3551,11 +3551,11 @@
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">A52 &amp;" " &amp;"""" &amp;B52 &amp;""""</f>
-        <v> AIRWING_MISSION_CARRIER_IN_PORT: "§REs können keine Aufträge ausgeführt werden, wenn der Träger in einem Hafen vor Anker liegt.§!"</v>
+        <v> AIRWING_MISSION_CARRIER_IN_PORT: "§R§R Es können keine Aufträge ausgeführt werden, wenn der Träger in einem Hafen vor Anker liegt. §!§! "</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">IF(ISBLANK(A52),"",C52)</f>
-        <v> AIRWING_MISSION_CARRIER_IN_PORT: "§REs können keine Aufträge ausgeführt werden, wenn der Träger in einem Hafen vor Anker liegt.§!"</v>
+        <v> AIRWING_MISSION_CARRIER_IN_PORT: "§R§R Es können keine Aufträge ausgeführt werden, wenn der Träger in einem Hafen vor Anker liegt. §!§! "</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3567,11 +3567,11 @@
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">A53 &amp;" " &amp;"""" &amp;B53 &amp;""""</f>
-        <v> AIRWING_COUNTRY_HIDDEN: "§T$COUNTRY|UH$ hat etwa $AMOUNT|H$ Flugzeuge auf diesem Luftwaffenstützpunkt.§!"</v>
+        <v> AIRWING_COUNTRY_HIDDEN: "§T§T $COUNTRY|UH$ hat etwa $AMOUNT|H$ Flugzeuge auf diesem Luftwaffenstützpunkt. §!§! "</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">IF(ISBLANK(A53),"",C53)</f>
-        <v> AIRWING_COUNTRY_HIDDEN: "§T$COUNTRY|UH$ hat etwa $AMOUNT|H$ Flugzeuge auf diesem Luftwaffenstützpunkt.§!"</v>
+        <v> AIRWING_COUNTRY_HIDDEN: "§T§T $COUNTRY|UH$ hat etwa $AMOUNT|H$ Flugzeuge auf diesem Luftwaffenstützpunkt. §!§! "</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,11 +3583,11 @@
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">A54 &amp;" " &amp;"""" &amp;B54 &amp;""""</f>
-        <v> AIRWING_MISSION_WING_STATUS_IDLE: "§Terwarten Befehle§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_IDLE: "§T§T erwarten Befehle §!§! "</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">IF(ISBLANK(A54),"",C54)</f>
-        <v> AIRWING_MISSION_WING_STATUS_IDLE: "§Terwarten Befehle§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_IDLE: "§T§T erwarten Befehle §!§! "</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,11 +3599,11 @@
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">A55 &amp;" " &amp;"""" &amp;B55 &amp;""""</f>
-        <v> AIRWING_MISSION_WING_STATUS_CARRIER_MISSION: "§Tauf einer Trägermission§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_CARRIER_MISSION: "§T§T auf einer Trägermission §!§! "</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">IF(ISBLANK(A55),"",C55)</f>
-        <v> AIRWING_MISSION_WING_STATUS_CARRIER_MISSION: "§Tauf einer Trägermission§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_CARRIER_MISSION: "§T§T auf einer Trägermission §!§! "</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3615,11 +3615,11 @@
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">A56 &amp;" " &amp;"""" &amp;B56 &amp;""""</f>
-        <v> AIRWING_MISSION_WING_STATUS_MISSION: "§Thaben folgenden Befehl: $MIS$§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_MISSION: "§T§T haben folgenden Befehl: $MIS$ §!§! "</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">IF(ISBLANK(A56),"",C56)</f>
-        <v> AIRWING_MISSION_WING_STATUS_MISSION: "§Thaben folgenden Befehl: $MIS$§!"</v>
+        <v> AIRWING_MISSION_WING_STATUS_MISSION: "§T§T haben folgenden Befehl: $MIS$ §!§! "</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">A60 &amp;" " &amp;"""" &amp;B60 &amp;""""</f>
-        <v> AIRWING_MISSION_SET_REINF_LIMIT_RCLICK: "§GRechtsklicken, um die aktuelle Anzahl an Flugzeugen als Grenze festzusetzen§!"</v>
+        <v> AIRWING_MISSION_SET_REINF_LIMIT_RCLICK: "§G§G Rechtsklicken, um die aktuelle Anzahl an Flugzeugen als Grenze festzusetzen §!§! "</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">IF(ISBLANK(A60),"",C60)</f>
-        <v> AIRWING_MISSION_SET_REINF_LIMIT_RCLICK: "§GRechtsklicken, um die aktuelle Anzahl an Flugzeugen als Grenze festzusetzen§!"</v>
+        <v> AIRWING_MISSION_SET_REINF_LIMIT_RCLICK: "§G§G Rechtsklicken, um die aktuelle Anzahl an Flugzeugen als Grenze festzusetzen §!§! "</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3711,11 +3711,11 @@
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">A62 &amp;" " &amp;"""" &amp;B62 &amp;""""</f>
-        <v> AIRWING_MISSION_DAY: "Aufträge werden nur am §HTag§! geflogen."</v>
+        <v> AIRWING_MISSION_DAY: "Aufträge werden nur am §H§H Tag §!§!  geflogen."</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">IF(ISBLANK(A62),"",C62)</f>
-        <v> AIRWING_MISSION_DAY: "Aufträge werden nur am §HTag§! geflogen."</v>
+        <v> AIRWING_MISSION_DAY: "Aufträge werden nur am §H§H Tag §!§!  geflogen."</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">A63 &amp;" " &amp;"""" &amp;B63 &amp;""""</f>
-        <v> AIRWING_MISSION_NIGHT: "Aufträge werden nur bei §HNacht§! geflogen."</v>
+        <v> AIRWING_MISSION_NIGHT: "Aufträge werden nur bei §H§H Nacht §!§!  geflogen."</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">IF(ISBLANK(A63),"",C63)</f>
-        <v> AIRWING_MISSION_NIGHT: "Aufträge werden nur bei §HNacht§! geflogen."</v>
+        <v> AIRWING_MISSION_NIGHT: "Aufträge werden nur bei §H§H Nacht §!§!  geflogen."</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,11 +3743,11 @@
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">A64 &amp;" " &amp;"""" &amp;B64 &amp;""""</f>
-        <v> AIRWING_MISSION_DAY_NIGHT: "Aufträge werden bei §HTag§! und §HNacht§! geflogen."</v>
+        <v> AIRWING_MISSION_DAY_NIGHT: "Aufträge werden bei §H§H Tag §!§!  und §H§H Nacht §!§!  geflogen."</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">IF(ISBLANK(A64),"",C64)</f>
-        <v> AIRWING_MISSION_DAY_NIGHT: "Aufträge werden bei §HTag§! und §HNacht§! geflogen."</v>
+        <v> AIRWING_MISSION_DAY_NIGHT: "Aufträge werden bei §H§H Tag §!§!  und §H§H Nacht §!§!  geflogen."</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,11 +3839,11 @@
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">A70 &amp;" " &amp;"""" &amp;B70 &amp;""""</f>
-        <v> AIRBASE_CAPACITY_LIMITED_BY_DAMAGE: "§RKapazität durch Schaden eingeschränkt!§!"</v>
+        <v> AIRBASE_CAPACITY_LIMITED_BY_DAMAGE: "§R§R Kapazität durch Schaden eingeschränkt! §!§! "</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">IF(ISBLANK(A70),"",C70)</f>
-        <v> AIRBASE_CAPACITY_LIMITED_BY_DAMAGE: "§RKapazität durch Schaden eingeschränkt!§!"</v>
+        <v> AIRBASE_CAPACITY_LIMITED_BY_DAMAGE: "§R§R Kapazität durch Schaden eingeschränkt! §!§! "</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3855,11 +3855,11 @@
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">A71 &amp;" " &amp;"""" &amp;B71 &amp;""""</f>
-        <v> AIRBASE_AIRPLANES_ESTIMATED: "§HLuftstützpunkt§! in $BASE|H$: etwa $VALUE|H$ Flugzeuge"</v>
+        <v> AIRBASE_AIRPLANES_ESTIMATED: "§H§H Luftstützpunkt §!§!  in $BASE|H$: etwa $VALUE|H$ Flugzeuge"</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">IF(ISBLANK(A71),"",C71)</f>
-        <v> AIRBASE_AIRPLANES_ESTIMATED: "§HLuftstützpunkt§! in $BASE|H$: etwa $VALUE|H$ Flugzeuge"</v>
+        <v> AIRBASE_AIRPLANES_ESTIMATED: "§H§H Luftstützpunkt §!§!  in $BASE|H$: etwa $VALUE|H$ Flugzeuge"</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,11 +3903,11 @@
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">A74 &amp;" " &amp;"""" &amp;B74 &amp;""""</f>
-        <v> AIRWING_CREATE_EMPTY: "§REs kann kein leeres Luftgeschwader erstellt werden!§!"</v>
+        <v> AIRWING_CREATE_EMPTY: "§R§R Es kann kein leeres Luftgeschwader erstellt werden! §!§! "</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">IF(ISBLANK(A74),"",C74)</f>
-        <v> AIRWING_CREATE_EMPTY: "§REs kann kein leeres Luftgeschwader erstellt werden!§!"</v>
+        <v> AIRWING_CREATE_EMPTY: "§R§R Es kann kein leeres Luftgeschwader erstellt werden! §!§! "</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3919,11 +3919,11 @@
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">A75 &amp;" " &amp;"""" &amp;B75 &amp;""""</f>
-        <v> AIRWING_CREATE_NO_MANPOWER: "§RLuftgeschwader kann nicht erstellt werden! Nicht genügend Mannstärke.§!"</v>
+        <v> AIRWING_CREATE_NO_MANPOWER: "§R§R Luftgeschwader kann nicht erstellt werden! Nicht genügend Mannstärke. §!§! "</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">IF(ISBLANK(A75),"",C75)</f>
-        <v> AIRWING_CREATE_NO_MANPOWER: "§RLuftgeschwader kann nicht erstellt werden! Nicht genügend Mannstärke.§!"</v>
+        <v> AIRWING_CREATE_NO_MANPOWER: "§R§R Luftgeschwader kann nicht erstellt werden! Nicht genügend Mannstärke. §!§! "</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">A79 &amp;" " &amp;"""" &amp;B79 &amp;""""</f>
-        <v> AIRWING_MERGE_BLOCKED: "§RWählen Sie zum Zusammenlegen zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören, keine Freiwilligen sind und sich nicht im Transfer befinden.§!"</v>
+        <v> AIRWING_MERGE_BLOCKED: "§R§R Wählen Sie zum Zusammenlegen zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören, keine Freiwilligen sind und sich nicht im Transfer befinden. §!§! "</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">IF(ISBLANK(A79),"",C79)</f>
-        <v> AIRWING_MERGE_BLOCKED: "§RWählen Sie zum Zusammenlegen zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören, keine Freiwilligen sind und sich nicht im Transfer befinden.§!"</v>
+        <v> AIRWING_MERGE_BLOCKED: "§R§R Wählen Sie zum Zusammenlegen zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören, keine Freiwilligen sind und sich nicht im Transfer befinden. §!§! "</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,11 +3999,11 @@
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">A80 &amp;" " &amp;"""" &amp;B80 &amp;""""</f>
-        <v> AIRWING_MERGE_GROUPS_BLOCKED: "§RZum Zusammenlegen müssen zwei oder mehr Luftgruppen ausgewählt werden.§!"</v>
+        <v> AIRWING_MERGE_GROUPS_BLOCKED: "§R§R Zum Zusammenlegen müssen zwei oder mehr Luftgruppen ausgewählt werden. §!§! "</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">IF(ISBLANK(A80),"",C80)</f>
-        <v> AIRWING_MERGE_GROUPS_BLOCKED: "§RZum Zusammenlegen müssen zwei oder mehr Luftgruppen ausgewählt werden.§!"</v>
+        <v> AIRWING_MERGE_GROUPS_BLOCKED: "§R§R Zum Zusammenlegen müssen zwei oder mehr Luftgruppen ausgewählt werden. §!§! "</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,11 +4015,11 @@
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">A81 &amp;" " &amp;"""" &amp;B81 &amp;""""</f>
-        <v> AIRWING_REORG_BLOCKED: "§RWählen Sie zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören und sich nicht im Transfer befinden.§!"</v>
+        <v> AIRWING_REORG_BLOCKED: "§R§R Wählen Sie zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören und sich nicht im Transfer befinden. §!§! "</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">IF(ISBLANK(A81),"",C81)</f>
-        <v> AIRWING_REORG_BLOCKED: "§RWählen Sie zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören und sich nicht im Transfer befinden.§!"</v>
+        <v> AIRWING_REORG_BLOCKED: "§R§R Wählen Sie zwei oder mehr Luftgeschwader desselben Typs vom selben Luftwaffenstützpunkt aus, die keine Exilgeschwader sind bzw. derselben Exilregierung angehören und sich nicht im Transfer befinden. §!§! "</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4031,11 +4031,11 @@
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">A82 &amp;" " &amp;"""" &amp;B82 &amp;""""</f>
-        <v> AIRWING_SPLIT_BLOCKED: "§RWählen Sie ein Luftgeschwader aus, das sich nicht im Transfer befindet, nicht aus Freiwilligen besteht und aus mindestens §H2§! Flugzeugen besteht.§!"</v>
+        <v> AIRWING_SPLIT_BLOCKED: "§R§R Wählen Sie ein Luftgeschwader aus, das sich nicht im Transfer befindet, nicht aus Freiwilligen besteht und aus mindestens §H§H 2 §!§!  Flugzeugen besteht. §!§! "</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">IF(ISBLANK(A82),"",C82)</f>
-        <v> AIRWING_SPLIT_BLOCKED: "§RWählen Sie ein Luftgeschwader aus, das sich nicht im Transfer befindet, nicht aus Freiwilligen besteht und aus mindestens §H2§! Flugzeugen besteht.§!"</v>
+        <v> AIRWING_SPLIT_BLOCKED: "§R§R Wählen Sie ein Luftgeschwader aus, das sich nicht im Transfer befindet, nicht aus Freiwilligen besteht und aus mindestens §H§H 2 §!§!  Flugzeugen besteht. §!§! "</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4095,11 +4095,11 @@
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">A86 &amp;" " &amp;"""" &amp;B86 &amp;""""</f>
-        <v> AIRWING_NEW_BLOCKED: "§RLuftgeschwader kann nicht erstellt werden. Es befinden sich keine Flugzeuge in der Reserve.§!"</v>
+        <v> AIRWING_NEW_BLOCKED: "§R§R Luftgeschwader kann nicht erstellt werden. Es befinden sich keine Flugzeuge in der Reserve. §!§! "</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">IF(ISBLANK(A86),"",C86)</f>
-        <v> AIRWING_NEW_BLOCKED: "§RLuftgeschwader kann nicht erstellt werden. Es befinden sich keine Flugzeuge in der Reserve.§!"</v>
+        <v> AIRWING_NEW_BLOCKED: "§R§R Luftgeschwader kann nicht erstellt werden. Es befinden sich keine Flugzeuge in der Reserve. §!§! "</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,11 +4271,11 @@
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">A97 &amp;" " &amp;"""" &amp;B97 &amp;""""</f>
-        <v> AIRWING_SET_REINF_LIMIT_WARNING_EXISTING: "§REinige Flugzeuge werden wieder in die Reserve verschoben.§!"</v>
+        <v> AIRWING_SET_REINF_LIMIT_WARNING_EXISTING: "§R§R Einige Flugzeuge werden wieder in die Reserve verschoben. §!§! "</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">IF(ISBLANK(A97),"",C97)</f>
-        <v> AIRWING_SET_REINF_LIMIT_WARNING_EXISTING: "§REinige Flugzeuge werden wieder in die Reserve verschoben.§!"</v>
+        <v> AIRWING_SET_REINF_LIMIT_WARNING_EXISTING: "§R§R Einige Flugzeuge werden wieder in die Reserve verschoben. §!§! "</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,11 +4287,11 @@
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">A98 &amp;" " &amp;"""" &amp;B98 &amp;""""</f>
-        <v> AIRWING_SET_REINF_LIMIT_WARNING_NEW: "§RSie können das Limit nicht niedriger ansetzen als die Anzahl von Flugzeugen.§!"</v>
+        <v> AIRWING_SET_REINF_LIMIT_WARNING_NEW: "§R§R Sie können das Limit nicht niedriger ansetzen als die Anzahl von Flugzeugen. §!§! "</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">IF(ISBLANK(A98),"",C98)</f>
-        <v> AIRWING_SET_REINF_LIMIT_WARNING_NEW: "§RSie können das Limit nicht niedriger ansetzen als die Anzahl von Flugzeugen.§!"</v>
+        <v> AIRWING_SET_REINF_LIMIT_WARNING_NEW: "§R§R Sie können das Limit nicht niedriger ansetzen als die Anzahl von Flugzeugen. §!§! "</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">A102 &amp;" " &amp;"""" &amp;B102 &amp;""""</f>
-        <v> AIRBASE_DISTANCE_SOME: "§Y$VALUE$ km§!"</v>
+        <v> AIRBASE_DISTANCE_SOME: "§Y§Y $VALUE$ km §!§! "</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">IF(ISBLANK(A102),"",C102)</f>
-        <v> AIRBASE_DISTANCE_SOME: "§Y$VALUE$ km§!"</v>
+        <v> AIRBASE_DISTANCE_SOME: "§Y§Y $VALUE$ km §!§! "</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,11 +4367,11 @@
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">A103 &amp;" " &amp;"""" &amp;B103 &amp;""""</f>
-        <v> AIRBASE_DISTANCE_NONE: "§R$VALUE$ km§!"</v>
+        <v> AIRBASE_DISTANCE_NONE: "§R§R $VALUE$ km §!§! "</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">IF(ISBLANK(A103),"",C103)</f>
-        <v> AIRBASE_DISTANCE_NONE: "§R$VALUE$ km§!"</v>
+        <v> AIRBASE_DISTANCE_NONE: "§R§R $VALUE$ km §!§! "</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4383,11 +4383,11 @@
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">A104 &amp;" " &amp;"""" &amp;B104 &amp;""""</f>
-        <v> AIRBASE_DISTANCE_DESC: "§TEntfernung von $REGION|H$ bis $AIRBASE|H$.§!"</v>
+        <v> AIRBASE_DISTANCE_DESC: "§T§T Entfernung von $REGION|H$ bis $AIRBASE|H$. §!§! "</v>
       </c>
       <c r="D104" s="1" t="str">
         <f aca="false">IF(ISBLANK(A104),"",C104)</f>
-        <v> AIRBASE_DISTANCE_DESC: "§TEntfernung von $REGION|H$ bis $AIRBASE|H$.§!"</v>
+        <v> AIRBASE_DISTANCE_DESC: "§T§T Entfernung von $REGION|H$ bis $AIRBASE|H$. §!§! "</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4447,11 +4447,11 @@
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">A108 &amp;" " &amp;"""" &amp;B108 &amp;""""</f>
-        <v> ROCKETSITE_CAN_PRODUCE: "\n§gDurch die Überschreitung der Kapazität wird die Effizienz der Raketen eingeschränkt und die Produktion neuer Raketen an diesem Standort unterbrochen.§!"</v>
+        <v> ROCKETSITE_CAN_PRODUCE: "\n§g§g Durch die Überschreitung der Kapazität wird die Effizienz der Raketen eingeschränkt und die Produktion neuer Raketen an diesem Standort unterbrochen. §!§! "</v>
       </c>
       <c r="D108" s="1" t="str">
         <f aca="false">IF(ISBLANK(A108),"",C108)</f>
-        <v> ROCKETSITE_CAN_PRODUCE: "\n§gDurch die Überschreitung der Kapazität wird die Effizienz der Raketen eingeschränkt und die Produktion neuer Raketen an diesem Standort unterbrochen.§!"</v>
+        <v> ROCKETSITE_CAN_PRODUCE: "\n§g§g Durch die Überschreitung der Kapazität wird die Effizienz der Raketen eingeschränkt und die Produktion neuer Raketen an diesem Standort unterbrochen. §!§! "</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4479,11 +4479,11 @@
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">A110 &amp;" " &amp;"""" &amp;B110 &amp;""""</f>
-        <v> ROCKETSITE_STOPPED_PRODUCTION: "\n§REs werden keine weiteren Raketen mehr produziert, solange die Kapazität ausgeschöpft ist.§!"</v>
+        <v> ROCKETSITE_STOPPED_PRODUCTION: "\n§R§R Es werden keine weiteren Raketen mehr produziert, solange die Kapazität ausgeschöpft ist. §!§! "</v>
       </c>
       <c r="D110" s="1" t="str">
         <f aca="false">IF(ISBLANK(A110),"",C110)</f>
-        <v> ROCKETSITE_STOPPED_PRODUCTION: "\n§REs werden keine weiteren Raketen mehr produziert, solange die Kapazität ausgeschöpft ist.§!"</v>
+        <v> ROCKETSITE_STOPPED_PRODUCTION: "\n§R§R Es werden keine weiteren Raketen mehr produziert, solange die Kapazität ausgeschöpft ist. §!§! "</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4495,11 +4495,11 @@
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">A111 &amp;" " &amp;"""" &amp;B111 &amp;""""</f>
-        <v> AIRBASE_CAPACITY_OK: "Luftstützpunkt ist voll einsatzfähig.\n§gDurch die Überschreitung des Operationslimits kann die Verarbeitungsmenge an Flugzeugen beeinträchtigt und somit die Auftragseffizienz verringert werden.§!"</v>
+        <v> AIRBASE_CAPACITY_OK: "Luftstützpunkt ist voll einsatzfähig.\n§g§g Durch die Überschreitung des Operationslimits kann die Verarbeitungsmenge an Flugzeugen beeinträchtigt und somit die Auftragseffizienz verringert werden. §!§! "</v>
       </c>
       <c r="D111" s="1" t="str">
         <f aca="false">IF(ISBLANK(A111),"",C111)</f>
-        <v> AIRBASE_CAPACITY_OK: "Luftstützpunkt ist voll einsatzfähig.\n§gDurch die Überschreitung des Operationslimits kann die Verarbeitungsmenge an Flugzeugen beeinträchtigt und somit die Auftragseffizienz verringert werden.§!"</v>
+        <v> AIRBASE_CAPACITY_OK: "Luftstützpunkt ist voll einsatzfähig.\n§g§g Durch die Überschreitung des Operationslimits kann die Verarbeitungsmenge an Flugzeugen beeinträchtigt und somit die Auftragseffizienz verringert werden. §!§! "</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,11 +4511,11 @@
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">A112 &amp;" " &amp;"""" &amp;B112 &amp;""""</f>
-        <v> AIRBASE_CAPACITY_NEXT_LEVEL: "Mit der nächsten Ausbaustufe des Luftstützpunkts wird §Ydas Operationslimit erhöht§! auf: $VAL|G$"</v>
+        <v> AIRBASE_CAPACITY_NEXT_LEVEL: "Mit der nächsten Ausbaustufe des Luftstützpunkts wird §Y§Y das Operationslimit erhöht §!§!  auf: $VAL|G$"</v>
       </c>
       <c r="D112" s="1" t="str">
         <f aca="false">IF(ISBLANK(A112),"",C112)</f>
-        <v> AIRBASE_CAPACITY_NEXT_LEVEL: "Mit der nächsten Ausbaustufe des Luftstützpunkts wird §Ydas Operationslimit erhöht§! auf: $VAL|G$"</v>
+        <v> AIRBASE_CAPACITY_NEXT_LEVEL: "Mit der nächsten Ausbaustufe des Luftstützpunkts wird §Y§Y das Operationslimit erhöht §!§!  auf: $VAL|G$"</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4527,11 +4527,11 @@
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">A113 &amp;" " &amp;"""" &amp;B113 &amp;""""</f>
-        <v> AIRBASE_CAPACITY_PENALTY: "§RLuftstützpunkt ist überlastet.§!\nDie Auftragseffizienz liegt bei $PERC|%R$.\nErwägen Sie die Verlegung Ihrer Flugzeuge an einen anderen Luftstützpunkt oder den Ausbau dieses Luftstützpunkts."</v>
+        <v> AIRBASE_CAPACITY_PENALTY: "§R§R Luftstützpunkt ist überlastet. §!§! \nDie Auftragseffizienz liegt bei $PERC|%R$.\nErwägen Sie die Verlegung Ihrer Flugzeuge an einen anderen Luftstützpunkt oder den Ausbau dieses Luftstützpunkts."</v>
       </c>
       <c r="D113" s="1" t="str">
         <f aca="false">IF(ISBLANK(A113),"",C113)</f>
-        <v> AIRBASE_CAPACITY_PENALTY: "§RLuftstützpunkt ist überlastet.§!\nDie Auftragseffizienz liegt bei $PERC|%R$.\nErwägen Sie die Verlegung Ihrer Flugzeuge an einen anderen Luftstützpunkt oder den Ausbau dieses Luftstützpunkts."</v>
+        <v> AIRBASE_CAPACITY_PENALTY: "§R§R Luftstützpunkt ist überlastet. §!§! \nDie Auftragseffizienz liegt bei $PERC|%R$.\nErwägen Sie die Verlegung Ihrer Flugzeuge an einen anderen Luftstützpunkt oder den Ausbau dieses Luftstützpunkts."</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,11 +4655,11 @@
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">A121 &amp;" " &amp;"""" &amp;B121 &amp;""""</f>
-        <v> AIRWING_RECENTLY_ASSIGNED_WARNING: "§RSie erhalten Effizienz nur zurück, während Ihre Luftgeschwader einer aktiven Mission zugewiesen sind.§!"</v>
+        <v> AIRWING_RECENTLY_ASSIGNED_WARNING: "§R§R Sie erhalten Effizienz nur zurück, während Ihre Luftgeschwader einer aktiven Mission zugewiesen sind. §!§! "</v>
       </c>
       <c r="D121" s="1" t="str">
         <f aca="false">IF(ISBLANK(A121),"",C121)</f>
-        <v> AIRWING_RECENTLY_ASSIGNED_WARNING: "§RSie erhalten Effizienz nur zurück, während Ihre Luftgeschwader einer aktiven Mission zugewiesen sind.§!"</v>
+        <v> AIRWING_RECENTLY_ASSIGNED_WARNING: "§R§R Sie erhalten Effizienz nur zurück, während Ihre Luftgeschwader einer aktiven Mission zugewiesen sind. §!§! "</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">A124 &amp;" " &amp;"""" &amp;B124 &amp;""""</f>
-        <v> AIRBASE_LACKS_FUEL_PENALTY_DETAIL: "Treibstoffmangel: §R$PERC|%1-$§!"</v>
+        <v> AIRBASE_LACKS_FUEL_PENALTY_DETAIL: "Treibstoffmangel: §R§R $PERC|%1-$ §!§! "</v>
       </c>
       <c r="D124" s="1" t="str">
         <f aca="false">IF(ISBLANK(A124),"",C124)</f>
-        <v> AIRBASE_LACKS_FUEL_PENALTY_DETAIL: "Treibstoffmangel: §R$PERC|%1-$§!"</v>
+        <v> AIRBASE_LACKS_FUEL_PENALTY_DETAIL: "Treibstoffmangel: §R§R $PERC|%1-$ §!§! "</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,11 +4831,11 @@
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">A132 &amp;" " &amp;"""" &amp;B132 &amp;""""</f>
-        <v> AIRBASE_REINFORCEMENT_PRIORITY_DESC: "§TPriorität des Luftwaffenstützpunkts legt Ankunftsreihenfolge für Ersatzflugzeuge fest.§!"</v>
+        <v> AIRBASE_REINFORCEMENT_PRIORITY_DESC: "§T§T Priorität des Luftwaffenstützpunkts legt Ankunftsreihenfolge für Ersatzflugzeuge fest. §!§! "</v>
       </c>
       <c r="D132" s="1" t="str">
         <f aca="false">IF(ISBLANK(A132),"",C132)</f>
-        <v> AIRBASE_REINFORCEMENT_PRIORITY_DESC: "§TPriorität des Luftwaffenstützpunkts legt Ankunftsreihenfolge für Ersatzflugzeuge fest.§!"</v>
+        <v> AIRBASE_REINFORCEMENT_PRIORITY_DESC: "§T§T Priorität des Luftwaffenstützpunkts legt Ankunftsreihenfolge für Ersatzflugzeuge fest. §!§! "</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,11 +4927,11 @@
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">A138 &amp;" " &amp;"""" &amp;B138 &amp;""""</f>
-        <v> ADD_AIR_MISSION_INSTANT: "§GLufteinheiten hierher ziehen, um sie zu dieser Flugzone zuzuweisen.\nAuf die Lufteinheit rechtsklicken, um sie dieser Flugzone zuzuweisen.§!"</v>
+        <v> ADD_AIR_MISSION_INSTANT: "§G§G Lufteinheiten hierher ziehen, um sie zu dieser Flugzone zuzuweisen.\nAuf die Lufteinheit rechtsklicken, um sie dieser Flugzone zuzuweisen. §!§! "</v>
       </c>
       <c r="D138" s="1" t="str">
         <f aca="false">IF(ISBLANK(A138),"",C138)</f>
-        <v> ADD_AIR_MISSION_INSTANT: "§GLufteinheiten hierher ziehen, um sie zu dieser Flugzone zuzuweisen.\nAuf die Lufteinheit rechtsklicken, um sie dieser Flugzone zuzuweisen.§!"</v>
+        <v> ADD_AIR_MISSION_INSTANT: "§G§G Lufteinheiten hierher ziehen, um sie zu dieser Flugzone zuzuweisen.\nAuf die Lufteinheit rechtsklicken, um sie dieser Flugzone zuzuweisen. §!§! "</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,11 +5311,11 @@
       </c>
       <c r="C162" s="1" t="str">
         <f aca="false">A162 &amp;" " &amp;"""" &amp;B162 &amp;""""</f>
-        <v> AIR_ASSIGN_ALL_INSTANT: "§GKlicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT: "§G§G Klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen. §!§! "</v>
       </c>
       <c r="D162" s="1" t="str">
         <f aca="false">IF(ISBLANK(A162),"",C162)</f>
-        <v> AIR_ASSIGN_ALL_INSTANT: "§GKlicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT: "§G§G Klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen. §!§! "</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5327,11 +5327,11 @@
       </c>
       <c r="C163" s="1" t="str">
         <f aca="false">A163 &amp;" " &amp;"""" &amp;B163 &amp;""""</f>
-        <v> AIR_ASSIGN_ALL_INSTANT_DISABLED: "§REs gibt keine nicht zugewiesenen Luftgeschwader in Reichweite.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT_DISABLED: "§R§R Es gibt keine nicht zugewiesenen Luftgeschwader in Reichweite. §!§! "</v>
       </c>
       <c r="D163" s="1" t="str">
         <f aca="false">IF(ISBLANK(A163),"",C163)</f>
-        <v> AIR_ASSIGN_ALL_INSTANT_DISABLED: "§REs gibt keine nicht zugewiesenen Luftgeschwader in Reichweite.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT_DISABLED: "§R§R Es gibt keine nicht zugewiesenen Luftgeschwader in Reichweite. §!§! "</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5343,11 +5343,11 @@
       </c>
       <c r="C164" s="1" t="str">
         <f aca="false">A164 &amp;" " &amp;"""" &amp;B164 &amp;""""</f>
-        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT: "§GUmschalt+klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT: "§G§G Umschalt+klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen. §!§! "</v>
       </c>
       <c r="D164" s="1" t="str">
         <f aca="false">IF(ISBLANK(A164),"",C164)</f>
-        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT: "§GUmschalt+klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT: "§G§G Umschalt+klicken, um alle nicht zugewiesenen Luftgeschwader in Reichweite dieser Region zuzuweisen. §!§! "</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,11 +5359,11 @@
       </c>
       <c r="C165" s="1" t="str">
         <f aca="false">A165 &amp;" " &amp;"""" &amp;B165 &amp;""""</f>
-        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT_DISABLED: "§RAlle Luftgeschwader in Reichweite sind bereits dieser Region zugewiesen.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT_DISABLED: "§R§R Alle Luftgeschwader in Reichweite sind bereits dieser Region zugewiesen. §!§! "</v>
       </c>
       <c r="D165" s="1" t="str">
         <f aca="false">IF(ISBLANK(A165),"",C165)</f>
-        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT_DISABLED: "§RAlle Luftgeschwader in Reichweite sind bereits dieser Region zugewiesen.§!"</v>
+        <v> AIR_ASSIGN_ALL_INSTANT_SHIFT_DISABLED: "§R§R Alle Luftgeschwader in Reichweite sind bereits dieser Region zugewiesen. §!§! "</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,11 +5423,11 @@
       </c>
       <c r="C169" s="1" t="str">
         <f aca="false">A169 &amp;" " &amp;"""" &amp;B169 &amp;""""</f>
-        <v> AIR_REASSIGN_ALL_RIGHT_CLICK: "§GRechtsklicken, um Luftgeschwader diesem Gebiet neu zuzuweisen§!"</v>
+        <v> AIR_REASSIGN_ALL_RIGHT_CLICK: "§G§G Rechtsklicken, um Luftgeschwader diesem Gebiet neu zuzuweisen §!§! "</v>
       </c>
       <c r="D169" s="1" t="str">
         <f aca="false">IF(ISBLANK(A169),"",C169)</f>
-        <v> AIR_REASSIGN_ALL_RIGHT_CLICK: "§GRechtsklicken, um Luftgeschwader diesem Gebiet neu zuzuweisen§!"</v>
+        <v> AIR_REASSIGN_ALL_RIGHT_CLICK: "§G§G Rechtsklicken, um Luftgeschwader diesem Gebiet neu zuzuweisen §!§! "</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5439,11 +5439,11 @@
       </c>
       <c r="C170" s="1" t="str">
         <f aca="false">A170 &amp;" " &amp;"""" &amp;B170 &amp;""""</f>
-        <v> AIR_REBASE_ALL_DESC: "§GKlicken, um alle aktiven Luftgeschwader zu den nächstgelegenen Stützpunkten zu verlegen, um die optimale Leistung zu erreichen.§!"</v>
+        <v> AIR_REBASE_ALL_DESC: "§G§G Klicken, um alle aktiven Luftgeschwader zu den nächstgelegenen Stützpunkten zu verlegen, um die optimale Leistung zu erreichen. §!§! "</v>
       </c>
       <c r="D170" s="1" t="str">
         <f aca="false">IF(ISBLANK(A170),"",C170)</f>
-        <v> AIR_REBASE_ALL_DESC: "§GKlicken, um alle aktiven Luftgeschwader zu den nächstgelegenen Stützpunkten zu verlegen, um die optimale Leistung zu erreichen.§!"</v>
+        <v> AIR_REBASE_ALL_DESC: "§G§G Klicken, um alle aktiven Luftgeschwader zu den nächstgelegenen Stützpunkten zu verlegen, um die optimale Leistung zu erreichen. §!§! "</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,11 +5519,11 @@
       </c>
       <c r="C175" s="1" t="str">
         <f aca="false">A175 &amp;" " &amp;"""" &amp;B175 &amp;""""</f>
-        <v> AIR_REASSIGN_NO_WING_IN_REGION: "§TIn dieser Region sind keine Luftgeschwader zugewiesen.§!"</v>
+        <v> AIR_REASSIGN_NO_WING_IN_REGION: "§T§T In dieser Region sind keine Luftgeschwader zugewiesen. §!§! "</v>
       </c>
       <c r="D175" s="1" t="str">
         <f aca="false">IF(ISBLANK(A175),"",C175)</f>
-        <v> AIR_REASSIGN_NO_WING_IN_REGION: "§TIn dieser Region sind keine Luftgeschwader zugewiesen.§!"</v>
+        <v> AIR_REASSIGN_NO_WING_IN_REGION: "§T§T In dieser Region sind keine Luftgeschwader zugewiesen. §!§! "</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5535,11 +5535,11 @@
       </c>
       <c r="C176" s="1" t="str">
         <f aca="false">A176 &amp;" " &amp;"""" &amp;B176 &amp;""""</f>
-        <v> AIR_REASSIGN_WING_IN_REGION: "§GKlicken und rechtsklicken Sie auf eine Zielregion, um Luftgeschwader neu zuzuweisen.§!"</v>
+        <v> AIR_REASSIGN_WING_IN_REGION: "§G§G Klicken und rechtsklicken Sie auf eine Zielregion, um Luftgeschwader neu zuzuweisen. §!§! "</v>
       </c>
       <c r="D176" s="1" t="str">
         <f aca="false">IF(ISBLANK(A176),"",C176)</f>
-        <v> AIR_REASSIGN_WING_IN_REGION: "§GKlicken und rechtsklicken Sie auf eine Zielregion, um Luftgeschwader neu zuzuweisen.§!"</v>
+        <v> AIR_REASSIGN_WING_IN_REGION: "§G§G Klicken und rechtsklicken Sie auf eine Zielregion, um Luftgeschwader neu zuzuweisen. §!§! "</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5631,11 +5631,11 @@
       </c>
       <c r="C182" s="1" t="str">
         <f aca="false">A182 &amp;" " &amp;"""" &amp;B182 &amp;""""</f>
-        <v> AIR_DEPLOYMENT_TOOLTIP: "§RSie können dieses Luftgeschwader nicht auswählen, bevor es eingesetzt wurde.§!"</v>
+        <v> AIR_DEPLOYMENT_TOOLTIP: "§R§R Sie können dieses Luftgeschwader nicht auswählen, bevor es eingesetzt wurde. §!§! "</v>
       </c>
       <c r="D182" s="1" t="str">
         <f aca="false">IF(ISBLANK(A182),"",C182)</f>
-        <v> AIR_DEPLOYMENT_TOOLTIP: "§RSie können dieses Luftgeschwader nicht auswählen, bevor es eingesetzt wurde.§!"</v>
+        <v> AIR_DEPLOYMENT_TOOLTIP: "§R§R Sie können dieses Luftgeschwader nicht auswählen, bevor es eingesetzt wurde. §!§! "</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5679,11 +5679,11 @@
       </c>
       <c r="C185" s="1" t="str">
         <f aca="false">A185 &amp;" " &amp;"""" &amp;B185 &amp;""""</f>
-        <v> AIRBASE_EXPAND: "§GKlicken, um Inhalte zu erweitern§!"</v>
+        <v> AIRBASE_EXPAND: "§G§G Klicken, um Inhalte zu erweitern §!§! "</v>
       </c>
       <c r="D185" s="1" t="str">
         <f aca="false">IF(ISBLANK(A185),"",C185)</f>
-        <v> AIRBASE_EXPAND: "§GKlicken, um Inhalte zu erweitern§!"</v>
+        <v> AIRBASE_EXPAND: "§G§G Klicken, um Inhalte zu erweitern §!§! "</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,11 +5695,11 @@
       </c>
       <c r="C186" s="1" t="str">
         <f aca="false">A186 &amp;" " &amp;"""" &amp;B186 &amp;""""</f>
-        <v> AIRBASE_DROP_PLANE: "§GAusgewählte Flugzeuge hier ablegen, um mit der Verlegung der Flugzeuge nach $AIRBASE|H$ zu beginnen.§!"</v>
+        <v> AIRBASE_DROP_PLANE: "§G§G Ausgewählte Flugzeuge hier ablegen, um mit der Verlegung der Flugzeuge nach $AIRBASE|H$ zu beginnen. §!§! "</v>
       </c>
       <c r="D186" s="1" t="str">
         <f aca="false">IF(ISBLANK(A186),"",C186)</f>
-        <v> AIRBASE_DROP_PLANE: "§GAusgewählte Flugzeuge hier ablegen, um mit der Verlegung der Flugzeuge nach $AIRBASE|H$ zu beginnen.§!"</v>
+        <v> AIRBASE_DROP_PLANE: "§G§G Ausgewählte Flugzeuge hier ablegen, um mit der Verlegung der Flugzeuge nach $AIRBASE|H$ zu beginnen. §!§! "</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5711,11 +5711,11 @@
       </c>
       <c r="C187" s="1" t="str">
         <f aca="false">A187 &amp;" " &amp;"""" &amp;B187 &amp;""""</f>
-        <v> AIRBASE_PLANE_NOT_CARRIER: "§REs können nur flugzeugträgertaugliche Flugzeuge auf einen Flugzeugträger verlegt werden.§!"</v>
+        <v> AIRBASE_PLANE_NOT_CARRIER: "§R§R Es können nur flugzeugträgertaugliche Flugzeuge auf einen Flugzeugträger verlegt werden. §!§! "</v>
       </c>
       <c r="D187" s="1" t="str">
         <f aca="false">IF(ISBLANK(A187),"",C187)</f>
-        <v> AIRBASE_PLANE_NOT_CARRIER: "§REs können nur flugzeugträgertaugliche Flugzeuge auf einen Flugzeugträger verlegt werden.§!"</v>
+        <v> AIRBASE_PLANE_NOT_CARRIER: "§R§R Es können nur flugzeugträgertaugliche Flugzeuge auf einen Flugzeugträger verlegt werden. §!§! "</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,11 +5727,11 @@
       </c>
       <c r="C188" s="1" t="str">
         <f aca="false">A188 &amp;" " &amp;"""" &amp;B188 &amp;""""</f>
-        <v> AIRBASE_NOT_AVALIABLE: "§RStützpunkt ist für die Verlegung nicht verfügbar§!"</v>
+        <v> AIRBASE_NOT_AVALIABLE: "§R§R Stützpunkt ist für die Verlegung nicht verfügbar §!§! "</v>
       </c>
       <c r="D188" s="1" t="str">
         <f aca="false">IF(ISBLANK(A188),"",C188)</f>
-        <v> AIRBASE_NOT_AVALIABLE: "§RStützpunkt ist für die Verlegung nicht verfügbar§!"</v>
+        <v> AIRBASE_NOT_AVALIABLE: "§R§R Stützpunkt ist für die Verlegung nicht verfügbar §!§! "</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,11 +5743,11 @@
       </c>
       <c r="C189" s="1" t="str">
         <f aca="false">A189 &amp;" " &amp;"""" &amp;B189 &amp;""""</f>
-        <v> AIRWING_MISSION_OUT_OF_RANGE: "§RAußerhalb der Reichweite dieser Flugzone!§!"</v>
+        <v> AIRWING_MISSION_OUT_OF_RANGE: "§R§R Außerhalb der Reichweite dieser Flugzone! §!§! "</v>
       </c>
       <c r="D189" s="1" t="str">
         <f aca="false">IF(ISBLANK(A189),"",C189)</f>
-        <v> AIRWING_MISSION_OUT_OF_RANGE: "§RAußerhalb der Reichweite dieser Flugzone!§!"</v>
+        <v> AIRWING_MISSION_OUT_OF_RANGE: "§R§R Außerhalb der Reichweite dieser Flugzone! §!§! "</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5791,11 +5791,11 @@
       </c>
       <c r="C192" s="1" t="str">
         <f aca="false">A192 &amp;" " &amp;"""" &amp;B192 &amp;""""</f>
-        <v> TRANSFER_AIR_DRAG_NO_COVERAGE: "§RKeine Reichweite in $REGION$§!"</v>
+        <v> TRANSFER_AIR_DRAG_NO_COVERAGE: "§R§R Keine Reichweite in $REGION$ §!§! "</v>
       </c>
       <c r="D192" s="1" t="str">
         <f aca="false">IF(ISBLANK(A192),"",C192)</f>
-        <v> TRANSFER_AIR_DRAG_NO_COVERAGE: "§RKeine Reichweite in $REGION$§!"</v>
+        <v> TRANSFER_AIR_DRAG_NO_COVERAGE: "§R§R Keine Reichweite in $REGION$ §!§! "</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,11 +5823,11 @@
       </c>
       <c r="C194" s="1" t="str">
         <f aca="false">A194 &amp;" " &amp;"""" &amp;B194 &amp;""""</f>
-        <v> TRANSFER_AIR_DRAG_BASE_NO_ACCESS: "§RKein Zugang zum Luftwaffenstützpunkt in $BASE$§!"</v>
+        <v> TRANSFER_AIR_DRAG_BASE_NO_ACCESS: "§R§R Kein Zugang zum Luftwaffenstützpunkt in $BASE$ §!§! "</v>
       </c>
       <c r="D194" s="1" t="str">
         <f aca="false">IF(ISBLANK(A194),"",C194)</f>
-        <v> TRANSFER_AIR_DRAG_BASE_NO_ACCESS: "§RKein Zugang zum Luftwaffenstützpunkt in $BASE$§!"</v>
+        <v> TRANSFER_AIR_DRAG_BASE_NO_ACCESS: "§R§R Kein Zugang zum Luftwaffenstützpunkt in $BASE$ §!§! "</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,11 +5839,11 @@
       </c>
       <c r="C195" s="1" t="str">
         <f aca="false">A195 &amp;" " &amp;"""" &amp;B195 &amp;""""</f>
-        <v> TRANSFER_AIR_DRAG_BASE_NOT_ALLOWED: "§RDarf nicht nach $BASE$ verlegt werden§!"</v>
+        <v> TRANSFER_AIR_DRAG_BASE_NOT_ALLOWED: "§R§R Darf nicht nach $BASE$ verlegt werden §!§! "</v>
       </c>
       <c r="D195" s="1" t="str">
         <f aca="false">IF(ISBLANK(A195),"",C195)</f>
-        <v> TRANSFER_AIR_DRAG_BASE_NOT_ALLOWED: "§RDarf nicht nach $BASE$ verlegt werden§!"</v>
+        <v> TRANSFER_AIR_DRAG_BASE_NOT_ALLOWED: "§R§R Darf nicht nach $BASE$ verlegt werden §!§! "</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5855,11 +5855,11 @@
       </c>
       <c r="C196" s="1" t="str">
         <f aca="false">A196 &amp;" " &amp;"""" &amp;B196 &amp;""""</f>
-        <v> AIR_BASE_NO_ACCESS: "§RSie haben keinen Zugang zu diesem Luftstützpunkt§!"</v>
+        <v> AIR_BASE_NO_ACCESS: "§R§R Sie haben keinen Zugang zu diesem Luftstützpunkt §!§! "</v>
       </c>
       <c r="D196" s="1" t="str">
         <f aca="false">IF(ISBLANK(A196),"",C196)</f>
-        <v> AIR_BASE_NO_ACCESS: "§RSie haben keinen Zugang zu diesem Luftstützpunkt§!"</v>
+        <v> AIR_BASE_NO_ACCESS: "§R§R Sie haben keinen Zugang zu diesem Luftstützpunkt §!§! "</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5887,11 +5887,11 @@
       </c>
       <c r="C198" s="1" t="str">
         <f aca="false">A198 &amp;" " &amp;"""" &amp;B198 &amp;""""</f>
-        <v> TRANSFER_AIR_DRAG_SOME_COVERAGE: "§Y$COVERED$/$TOTAL$§! Luftgeschwader in Reichweite von $REGION|Y$ zuweisen"</v>
+        <v> TRANSFER_AIR_DRAG_SOME_COVERAGE: "§Y§Y $COVERED$/$TOTAL$ §!§!  Luftgeschwader in Reichweite von $REGION|Y$ zuweisen"</v>
       </c>
       <c r="D198" s="1" t="str">
         <f aca="false">IF(ISBLANK(A198),"",C198)</f>
-        <v> TRANSFER_AIR_DRAG_SOME_COVERAGE: "§Y$COVERED$/$TOTAL$§! Luftgeschwader in Reichweite von $REGION|Y$ zuweisen"</v>
+        <v> TRANSFER_AIR_DRAG_SOME_COVERAGE: "§Y§Y $COVERED$/$TOTAL$ §!§!  Luftgeschwader in Reichweite von $REGION|Y$ zuweisen"</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5903,11 +5903,11 @@
       </c>
       <c r="C199" s="1" t="str">
         <f aca="false">A199 &amp;" " &amp;"""" &amp;B199 &amp;""""</f>
-        <v> TRANSFER_AIR_DRAG_DEPLOY_FIRST: "§RMuss erst zum Stützpunkt verlegt werden§!"</v>
+        <v> TRANSFER_AIR_DRAG_DEPLOY_FIRST: "§R§R Muss erst zum Stützpunkt verlegt werden §!§! "</v>
       </c>
       <c r="D199" s="1" t="str">
         <f aca="false">IF(ISBLANK(A199),"",C199)</f>
-        <v> TRANSFER_AIR_DRAG_DEPLOY_FIRST: "§RMuss erst zum Stützpunkt verlegt werden§!"</v>
+        <v> TRANSFER_AIR_DRAG_DEPLOY_FIRST: "§R§R Muss erst zum Stützpunkt verlegt werden §!§! "</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6015,11 +6015,11 @@
       </c>
       <c r="C206" s="1" t="str">
         <f aca="false">A206 &amp;" " &amp;"""" &amp;B206 &amp;""""</f>
-        <v> AIRBASE_NON_OPERATIONAL_STATUS: "Dieser Luftwaffenstützpunkt ist §Rnicht in Betrieb!§!, weil wir den Flughafen nicht kontrollieren."</v>
+        <v> AIRBASE_NON_OPERATIONAL_STATUS: "Dieser Luftwaffenstützpunkt ist §R§R nicht in Betrieb! §!§! , weil wir den Flughafen nicht kontrollieren."</v>
       </c>
       <c r="D206" s="1" t="str">
         <f aca="false">IF(ISBLANK(A206),"",C206)</f>
-        <v> AIRBASE_NON_OPERATIONAL_STATUS: "Dieser Luftwaffenstützpunkt ist §Rnicht in Betrieb!§!, weil wir den Flughafen nicht kontrollieren."</v>
+        <v> AIRBASE_NON_OPERATIONAL_STATUS: "Dieser Luftwaffenstützpunkt ist §R§R nicht in Betrieb! §!§! , weil wir den Flughafen nicht kontrollieren."</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6031,11 +6031,11 @@
       </c>
       <c r="C207" s="1" t="str">
         <f aca="false">A207 &amp;" " &amp;"""" &amp;B207 &amp;""""</f>
-        <v> AIRBASE_NON_OPERATIONAL_DMZ: "Dieser Luftwaffenstützpunkt ist §Rnicht in Betrieb!§!, weil wir in entmilitarisierten Zonen keinen Zugang zu Flughäfen haben."</v>
+        <v> AIRBASE_NON_OPERATIONAL_DMZ: "Dieser Luftwaffenstützpunkt ist §R§R nicht in Betrieb! §!§! , weil wir in entmilitarisierten Zonen keinen Zugang zu Flughäfen haben."</v>
       </c>
       <c r="D207" s="1" t="str">
         <f aca="false">IF(ISBLANK(A207),"",C207)</f>
-        <v> AIRBASE_NON_OPERATIONAL_DMZ: "Dieser Luftwaffenstützpunkt ist §Rnicht in Betrieb!§!, weil wir in entmilitarisierten Zonen keinen Zugang zu Flughäfen haben."</v>
+        <v> AIRBASE_NON_OPERATIONAL_DMZ: "Dieser Luftwaffenstützpunkt ist §R§R nicht in Betrieb! §!§! , weil wir in entmilitarisierten Zonen keinen Zugang zu Flughäfen haben."</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,11 +6079,11 @@
       </c>
       <c r="C210" s="1" t="str">
         <f aca="false">A210 &amp;" " &amp;"""" &amp;B210 &amp;""""</f>
-        <v> STRAT_RADAR_EFFICIENCY_DESC: "§HAlliierte Radareffizienz§!\nJe höher die §YRadareffizienz§! in diesem Gebiet, desto leichter werden Gegner durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
+        <v> STRAT_RADAR_EFFICIENCY_DESC: "§H§H Alliierte Radareffizienz §!§! \nJe höher die §Y§Y Radareffizienz §!§!  in diesem Gebiet, desto leichter werden Gegner durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
       </c>
       <c r="D210" s="1" t="str">
         <f aca="false">IF(ISBLANK(A210),"",C210)</f>
-        <v> STRAT_RADAR_EFFICIENCY_DESC: "§HAlliierte Radareffizienz§!\nJe höher die §YRadareffizienz§! in diesem Gebiet, desto leichter werden Gegner durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
+        <v> STRAT_RADAR_EFFICIENCY_DESC: "§H§H Alliierte Radareffizienz §!§! \nJe höher die §Y§Y Radareffizienz §!§!  in diesem Gebiet, desto leichter werden Gegner durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6095,11 +6095,11 @@
       </c>
       <c r="C211" s="1" t="str">
         <f aca="false">A211 &amp;" " &amp;"""" &amp;B211 &amp;""""</f>
-        <v> STRAT_RADAR_EFFICIENCY_ENEMY_DESC: "§HFeindliche Radareffizienz§!\nJe höher die §YRadareffizienz§! in diesem Gebiet, desto leichter werden Feinde durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
+        <v> STRAT_RADAR_EFFICIENCY_ENEMY_DESC: "§H§H Feindliche Radareffizienz §!§! \nJe höher die §Y§Y Radareffizienz §!§!  in diesem Gebiet, desto leichter werden Feinde durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
       </c>
       <c r="D211" s="1" t="str">
         <f aca="false">IF(ISBLANK(A211),"",C211)</f>
-        <v> STRAT_RADAR_EFFICIENCY_ENEMY_DESC: "§HFeindliche Radareffizienz§!\nJe höher die §YRadareffizienz§! in diesem Gebiet, desto leichter werden Feinde durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
+        <v> STRAT_RADAR_EFFICIENCY_ENEMY_DESC: "§H§H Feindliche Radareffizienz §!§! \nJe höher die §Y§Y Radareffizienz §!§!  in diesem Gebiet, desto leichter werden Feinde durch Abfangjäger und andere Flugzeuge durch Patrouillen entdeckt. Steigern Sie die Effizienz, indem Sie höherstufige Radarstationen bauen."</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6111,11 +6111,11 @@
       </c>
       <c r="C212" s="1" t="str">
         <f aca="false">A212 &amp;" " &amp;"""" &amp;B212 &amp;""""</f>
-        <v> AGGRESSIVE_HIGH: "§HKein Rückzug§!"</v>
+        <v> AGGRESSIVE_HIGH: "§H§H Kein Rückzug §!§! "</v>
       </c>
       <c r="D212" s="1" t="str">
         <f aca="false">IF(ISBLANK(A212),"",C212)</f>
-        <v> AGGRESSIVE_HIGH: "§HKein Rückzug§!"</v>
+        <v> AGGRESSIVE_HIGH: "§H§H Kein Rückzug §!§! "</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6127,11 +6127,11 @@
       </c>
       <c r="C213" s="1" t="str">
         <f aca="false">A213 &amp;" " &amp;"""" &amp;B213 &amp;""""</f>
-        <v> AGGRESSIVE_MIXED_HIGH: "Die meisten Geschwader: §HKein Rückzug§!"</v>
+        <v> AGGRESSIVE_MIXED_HIGH: "Die meisten Geschwader: §H§H Kein Rückzug §!§! "</v>
       </c>
       <c r="D213" s="1" t="str">
         <f aca="false">IF(ISBLANK(A213),"",C213)</f>
-        <v> AGGRESSIVE_MIXED_HIGH: "Die meisten Geschwader: §HKein Rückzug§!"</v>
+        <v> AGGRESSIVE_MIXED_HIGH: "Die meisten Geschwader: §H§H Kein Rückzug §!§! "</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6159,11 +6159,11 @@
       </c>
       <c r="C215" s="1" t="str">
         <f aca="false">A215 &amp;" " &amp;"""" &amp;B215 &amp;""""</f>
-        <v> AGGRESSIVE_MED: "§HNormale Operationen§!"</v>
+        <v> AGGRESSIVE_MED: "§H§H Normale Operationen §!§! "</v>
       </c>
       <c r="D215" s="1" t="str">
         <f aca="false">IF(ISBLANK(A215),"",C215)</f>
-        <v> AGGRESSIVE_MED: "§HNormale Operationen§!"</v>
+        <v> AGGRESSIVE_MED: "§H§H Normale Operationen §!§! "</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,11 +6175,11 @@
       </c>
       <c r="C216" s="1" t="str">
         <f aca="false">A216 &amp;" " &amp;"""" &amp;B216 &amp;""""</f>
-        <v> AGGRESSIVE_MIXED_MED: "Die meisten Geschwader: §HNormaler Betrieb§!"</v>
+        <v> AGGRESSIVE_MIXED_MED: "Die meisten Geschwader: §H§H Normaler Betrieb §!§! "</v>
       </c>
       <c r="D216" s="1" t="str">
         <f aca="false">IF(ISBLANK(A216),"",C216)</f>
-        <v> AGGRESSIVE_MIXED_MED: "Die meisten Geschwader: §HNormaler Betrieb§!"</v>
+        <v> AGGRESSIVE_MIXED_MED: "Die meisten Geschwader: §H§H Normaler Betrieb §!§! "</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,11 +6207,11 @@
       </c>
       <c r="C218" s="1" t="str">
         <f aca="false">A218 &amp;" " &amp;"""" &amp;B218 &amp;""""</f>
-        <v> AGGRESSIVE_LOW: "§HNiedrige Intensität§!"</v>
+        <v> AGGRESSIVE_LOW: "§H§H Niedrige Intensität §!§! "</v>
       </c>
       <c r="D218" s="1" t="str">
         <f aca="false">IF(ISBLANK(A218),"",C218)</f>
-        <v> AGGRESSIVE_LOW: "§HNiedrige Intensität§!"</v>
+        <v> AGGRESSIVE_LOW: "§H§H Niedrige Intensität §!§! "</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6223,11 +6223,11 @@
       </c>
       <c r="C219" s="1" t="str">
         <f aca="false">A219 &amp;" " &amp;"""" &amp;B219 &amp;""""</f>
-        <v> AGGRESSIVE_MIXED_LOW: "Die meisten Geschwader: §HNiedrige Intensität§!"</v>
+        <v> AGGRESSIVE_MIXED_LOW: "Die meisten Geschwader: §H§H Niedrige Intensität §!§! "</v>
       </c>
       <c r="D219" s="1" t="str">
         <f aca="false">IF(ISBLANK(A219),"",C219)</f>
-        <v> AGGRESSIVE_MIXED_LOW: "Die meisten Geschwader: §HNiedrige Intensität§!"</v>
+        <v> AGGRESSIVE_MIXED_LOW: "Die meisten Geschwader: §H§H Niedrige Intensität §!§! "</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,11 +6319,11 @@
       </c>
       <c r="C225" s="1" t="str">
         <f aca="false">A225 &amp;" " &amp;"""" &amp;B225 &amp;""""</f>
-        <v> AIRWING_DEPLOYING: "§HAus Reserve beziehen§!"</v>
+        <v> AIRWING_DEPLOYING: "§H§H Aus Reserve beziehen §!§! "</v>
       </c>
       <c r="D225" s="1" t="str">
         <f aca="false">IF(ISBLANK(A225),"",C225)</f>
-        <v> AIRWING_DEPLOYING: "§HAus Reserve beziehen§!"</v>
+        <v> AIRWING_DEPLOYING: "§H§H Aus Reserve beziehen §!§! "</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,11 +6335,11 @@
       </c>
       <c r="C226" s="1" t="str">
         <f aca="false">A226 &amp;" " &amp;"""" &amp;B226 &amp;""""</f>
-        <v> AIRWING_DEPLOYMENT_CANCELING: "§HAbbruch§!"</v>
+        <v> AIRWING_DEPLOYMENT_CANCELING: "§H§H Abbruch §!§! "</v>
       </c>
       <c r="D226" s="1" t="str">
         <f aca="false">IF(ISBLANK(A226),"",C226)</f>
-        <v> AIRWING_DEPLOYMENT_CANCELING: "§HAbbruch§!"</v>
+        <v> AIRWING_DEPLOYMENT_CANCELING: "§H§H Abbruch §!§! "</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,11 +6367,11 @@
       </c>
       <c r="C228" s="1" t="str">
         <f aca="false">A228 &amp;" " &amp;"""" &amp;B228 &amp;""""</f>
-        <v> NOT_ENOUGH_COMMAND_POWER: "§RNicht genügend Befehlsmacht für Mission§!"</v>
+        <v> NOT_ENOUGH_COMMAND_POWER: "§R§R Nicht genügend Befehlsmacht für Mission §!§! "</v>
       </c>
       <c r="D228" s="1" t="str">
         <f aca="false">IF(ISBLANK(A228),"",C228)</f>
-        <v> NOT_ENOUGH_COMMAND_POWER: "§RNicht genügend Befehlsmacht für Mission§!"</v>
+        <v> NOT_ENOUGH_COMMAND_POWER: "§R§R Nicht genügend Befehlsmacht für Mission §!§! "</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,11 +6399,11 @@
       </c>
       <c r="C230" s="1" t="str">
         <f aca="false">A230 &amp;" " &amp;"""" &amp;B230 &amp;""""</f>
-        <v> AIR_CANNOT_SELECT_ALL: "§RNichts auszuwählen§!"</v>
+        <v> AIR_CANNOT_SELECT_ALL: "§R§R Nichts auszuwählen §!§! "</v>
       </c>
       <c r="D230" s="1" t="str">
         <f aca="false">IF(ISBLANK(A230),"",C230)</f>
-        <v> AIR_CANNOT_SELECT_ALL: "§RNichts auszuwählen§!"</v>
+        <v> AIR_CANNOT_SELECT_ALL: "§R§R Nichts auszuwählen §!§! "</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6431,11 +6431,11 @@
       </c>
       <c r="C232" s="1" t="str">
         <f aca="false">A232 &amp;" " &amp;"""" &amp;B232 &amp;""""</f>
-        <v> AIR_WING_REBASE_FULL_DESC: "§RWir können nicht alle Flugzeuge auf den umliegenden Stützpunkten unterbringen ... Möchten Sie sie dennoch verlegen?§!"</v>
+        <v> AIR_WING_REBASE_FULL_DESC: "§R§R Wir können nicht alle Flugzeuge auf den umliegenden Stützpunkten unterbringen ... Möchten Sie sie dennoch verlegen? §!§! "</v>
       </c>
       <c r="D232" s="1" t="str">
         <f aca="false">IF(ISBLANK(A232),"",C232)</f>
-        <v> AIR_WING_REBASE_FULL_DESC: "§RWir können nicht alle Flugzeuge auf den umliegenden Stützpunkten unterbringen ... Möchten Sie sie dennoch verlegen?§!"</v>
+        <v> AIR_WING_REBASE_FULL_DESC: "§R§R Wir können nicht alle Flugzeuge auf den umliegenden Stützpunkten unterbringen ... Möchten Sie sie dennoch verlegen? §!§! "</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,11 +6447,11 @@
       </c>
       <c r="C233" s="1" t="str">
         <f aca="false">A233 &amp;" " &amp;"""" &amp;B233 &amp;""""</f>
-        <v> AIR_REBASING_ALREADY_BEST: "§RAlle Flugzeuge befinden sich bereits in den umliegenden Stützpunkten§!"</v>
+        <v> AIR_REBASING_ALREADY_BEST: "§R§R Alle Flugzeuge befinden sich bereits in den umliegenden Stützpunkten §!§! "</v>
       </c>
       <c r="D233" s="1" t="str">
         <f aca="false">IF(ISBLANK(A233),"",C233)</f>
-        <v> AIR_REBASING_ALREADY_BEST: "§RAlle Flugzeuge befinden sich bereits in den umliegenden Stützpunkten§!"</v>
+        <v> AIR_REBASING_ALREADY_BEST: "§R§R Alle Flugzeuge befinden sich bereits in den umliegenden Stützpunkten §!§! "</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6479,11 +6479,11 @@
       </c>
       <c r="C235" s="1" t="str">
         <f aca="false">A235 &amp;" " &amp;"""" &amp;B235 &amp;""""</f>
-        <v> AIR_REBASE_ENTRY_CROWDED: "§R$COUNT$ $WING$ wird nach $BASE$ verlegt§!\n"</v>
+        <v> AIR_REBASE_ENTRY_CROWDED: "§R§R $COUNT$ $WING$ wird nach $BASE$ verlegt §!§! \n"</v>
       </c>
       <c r="D235" s="1" t="str">
         <f aca="false">IF(ISBLANK(A235),"",C235)</f>
-        <v> AIR_REBASE_ENTRY_CROWDED: "§R$COUNT$ $WING$ wird nach $BASE$ verlegt§!\n"</v>
+        <v> AIR_REBASE_ENTRY_CROWDED: "§R§R $COUNT$ $WING$ wird nach $BASE$ verlegt §!§! \n"</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6495,11 +6495,11 @@
       </c>
       <c r="C236" s="1" t="str">
         <f aca="false">A236 &amp;" " &amp;"""" &amp;B236 &amp;""""</f>
-        <v> AIR_REBASING_SOME_OVERCROWDED: "\n§Wenn wir dies tun, werden einige Stützpunkte überbelastet§!"</v>
+        <v> AIR_REBASING_SOME_OVERCROWDED: "\n§W§W enn wir dies tun, werden einige Stützpunkte überbelastet §!§! "</v>
       </c>
       <c r="D236" s="1" t="str">
         <f aca="false">IF(ISBLANK(A236),"",C236)</f>
-        <v> AIR_REBASING_SOME_OVERCROWDED: "\n§Wenn wir dies tun, werden einige Stützpunkte überbelastet§!"</v>
+        <v> AIR_REBASING_SOME_OVERCROWDED: "\n§W§W enn wir dies tun, werden einige Stützpunkte überbelastet §!§! "</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,11 +6511,11 @@
       </c>
       <c r="C237" s="1" t="str">
         <f aca="false">A237 &amp;" " &amp;"""" &amp;B237 &amp;""""</f>
-        <v> AIRWING_MOVE_EQUIPMENT_DESC: "§H1§! Ausrüstung verschieben\n§GStrg+Maustaste§!, um §H10§! zu verschieben\n§GUmschalt+Maustaste§!, um §H100§! zu verschieben"</v>
+        <v> AIRWING_MOVE_EQUIPMENT_DESC: "§H§H 1 §!§!  Ausrüstung verschieben\n§G§G Strg+Maustaste §!§! , um §H§H 10 §!§!  zu verschieben\n§G§G Umschalt+Maustaste §!§! , um §H§H 100 §!§!  zu verschieben"</v>
       </c>
       <c r="D237" s="1" t="str">
         <f aca="false">IF(ISBLANK(A237),"",C237)</f>
-        <v> AIRWING_MOVE_EQUIPMENT_DESC: "§H1§! Ausrüstung verschieben\n§GStrg+Maustaste§!, um §H10§! zu verschieben\n§GUmschalt+Maustaste§!, um §H100§! zu verschieben"</v>
+        <v> AIRWING_MOVE_EQUIPMENT_DESC: "§H§H 1 §!§!  Ausrüstung verschieben\n§G§G Strg+Maustaste §!§! , um §H§H 10 §!§!  zu verschieben\n§G§G Umschalt+Maustaste §!§! , um §H§H 100 §!§!  zu verschieben"</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6543,11 +6543,11 @@
       </c>
       <c r="C239" s="1" t="str">
         <f aca="false">A239 &amp;" " &amp;"""" &amp;B239 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK: "§GRechtsklicken, um ausgewählte Luftgeschwader zu diesem Luftwaffenstützpunkt zu bewegen§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK: "§G§G Rechtsklicken, um ausgewählte Luftgeschwader zu diesem Luftwaffenstützpunkt zu bewegen §!§! "</v>
       </c>
       <c r="D239" s="1" t="str">
         <f aca="false">IF(ISBLANK(A239),"",C239)</f>
-        <v> AIR_BASE_RIGHT_CLICK: "§GRechtsklicken, um ausgewählte Luftgeschwader zu diesem Luftwaffenstützpunkt zu bewegen§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK: "§G§G Rechtsklicken, um ausgewählte Luftgeschwader zu diesem Luftwaffenstützpunkt zu bewegen §!§! "</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6559,11 +6559,11 @@
       </c>
       <c r="C240" s="1" t="str">
         <f aca="false">A240 &amp;" " &amp;"""" &amp;B240 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_NOT_ALL: "§RNicht alle ausgewählten Luftgeschwader können hierhin verlegt werden:§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_NOT_ALL: "§R§R Nicht alle ausgewählten Luftgeschwader können hierhin verlegt werden: §!§! "</v>
       </c>
       <c r="D240" s="1" t="str">
         <f aca="false">IF(ISBLANK(A240),"",C240)</f>
-        <v> AIR_BASE_RIGHT_CLICK_NOT_ALL: "§RNicht alle ausgewählten Luftgeschwader können hierhin verlegt werden:§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_NOT_ALL: "§R§R Nicht alle ausgewählten Luftgeschwader können hierhin verlegt werden: §!§! "</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6575,11 +6575,11 @@
       </c>
       <c r="C241" s="1" t="str">
         <f aca="false">A241 &amp;" " &amp;"""" &amp;B241 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_NONE: "§RKeines der ausgewählten Luftgeschwader kann hierhin verlegt werden:§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_NONE: "§R§R Keines der ausgewählten Luftgeschwader kann hierhin verlegt werden: §!§! "</v>
       </c>
       <c r="D241" s="1" t="str">
         <f aca="false">IF(ISBLANK(A241),"",C241)</f>
-        <v> AIR_BASE_RIGHT_CLICK_NONE: "§RKeines der ausgewählten Luftgeschwader kann hierhin verlegt werden:§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_NONE: "§R§R Keines der ausgewählten Luftgeschwader kann hierhin verlegt werden: §!§! "</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,11 +6591,11 @@
       </c>
       <c r="C242" s="1" t="str">
         <f aca="false">A242 &amp;" " &amp;"""" &amp;B242 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_NONE_ROCKETS: "§RKeine der ausgewählten Raketen kann hierher transferiert werden:§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_NONE_ROCKETS: "§R§R Keine der ausgewählten Raketen kann hierher transferiert werden: §!§! "</v>
       </c>
       <c r="D242" s="1" t="str">
         <f aca="false">IF(ISBLANK(A242),"",C242)</f>
-        <v> AIR_BASE_RIGHT_CLICK_NONE_ROCKETS: "§RKeine der ausgewählten Raketen kann hierher transferiert werden:§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_NONE_ROCKETS: "§R§R Keine der ausgewählten Raketen kann hierher transferiert werden: §!§! "</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,11 +6607,11 @@
       </c>
       <c r="C243" s="1" t="str">
         <f aca="false">A243 &amp;" " &amp;"""" &amp;B243 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_NOT_CARRIER_CAPABLE: "§R$COUNT|H$ Luftgeschwader können nicht auf einem Träger stationiert werden.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_NOT_CARRIER_CAPABLE: "§R§R $COUNT|H$ Luftgeschwader können nicht auf einem Träger stationiert werden. §!§! "</v>
       </c>
       <c r="D243" s="1" t="str">
         <f aca="false">IF(ISBLANK(A243),"",C243)</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_NOT_CARRIER_CAPABLE: "§R$COUNT|H$ Luftgeschwader können nicht auf einem Träger stationiert werden.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_NOT_CARRIER_CAPABLE: "§R§R $COUNT|H$ Luftgeschwader können nicht auf einem Träger stationiert werden. §!§! "</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,11 +6623,11 @@
       </c>
       <c r="C244" s="1" t="str">
         <f aca="false">A244 &amp;" " &amp;"""" &amp;B244 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE: "§R$COUNT|H$ Luftgeschwader können nicht zwischen Raketenbasen transferiert werden.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE: "§R§R $COUNT|H$ Luftgeschwader können nicht zwischen Raketenbasen transferiert werden. §!§! "</v>
       </c>
       <c r="D244" s="1" t="str">
         <f aca="false">IF(ISBLANK(A244),"",C244)</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE: "§R$COUNT|H$ Luftgeschwader können nicht zwischen Raketenbasen transferiert werden.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE: "§R§R $COUNT|H$ Luftgeschwader können nicht zwischen Raketenbasen transferiert werden. §!§! "</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,11 +6639,11 @@
       </c>
       <c r="C245" s="1" t="str">
         <f aca="false">A245 &amp;" " &amp;"""" &amp;B245 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE_ROCKET: "§R$COUNT|H$ Raketen können nicht zwischen Raketenbasen transferiert werden.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE_ROCKET: "§R§R $COUNT|H$ Raketen können nicht zwischen Raketenbasen transferiert werden. §!§! "</v>
       </c>
       <c r="D245" s="1" t="str">
         <f aca="false">IF(ISBLANK(A245),"",C245)</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE_ROCKET: "§R$COUNT|H$ Raketen können nicht zwischen Raketenbasen transferiert werden.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_ROCKET_SITE_ROCKET: "§R§R $COUNT|H$ Raketen können nicht zwischen Raketenbasen transferiert werden. §!§! "</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6655,11 +6655,11 @@
       </c>
       <c r="C246" s="1" t="str">
         <f aca="false">A246 &amp;" " &amp;"""" &amp;B246 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE: "§R$COUNT|H$ Luftgeschwader sind bereits auf dem Luftstützpunkt stationiert.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE: "§R§R $COUNT|H$ Luftgeschwader sind bereits auf dem Luftstützpunkt stationiert. §!§! "</v>
       </c>
       <c r="D246" s="1" t="str">
         <f aca="false">IF(ISBLANK(A246),"",C246)</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE: "§R$COUNT|H$ Luftgeschwader sind bereits auf dem Luftstützpunkt stationiert.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE: "§R§R $COUNT|H$ Luftgeschwader sind bereits auf dem Luftstützpunkt stationiert. §!§! "</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6671,11 +6671,11 @@
       </c>
       <c r="C247" s="1" t="str">
         <f aca="false">A247 &amp;" " &amp;"""" &amp;B247 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE_ROCKET: "§R$COUNT|H$ Raketen sind bereits auf dem Luftstützpunkt stationiert.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE_ROCKET: "§R§R $COUNT|H$ Raketen sind bereits auf dem Luftstützpunkt stationiert. §!§! "</v>
       </c>
       <c r="D247" s="1" t="str">
         <f aca="false">IF(ISBLANK(A247),"",C247)</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE_ROCKET: "§R$COUNT|H$ Raketen sind bereits auf dem Luftstützpunkt stationiert.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_SAME_BASE_ROCKET: "§R§R $COUNT|H$ Raketen sind bereits auf dem Luftstützpunkt stationiert. §!§! "</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,11 +6687,11 @@
       </c>
       <c r="C248" s="1" t="str">
         <f aca="false">A248 &amp;" " &amp;"""" &amp;B248 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_NO_ACCESS: "§R$COUNT|H$ Luftgeschwader haben keinen Zugang zu dem Luftstützpunkt.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_NO_ACCESS: "§R§R $COUNT|H$ Luftgeschwader haben keinen Zugang zu dem Luftstützpunkt. §!§! "</v>
       </c>
       <c r="D248" s="1" t="str">
         <f aca="false">IF(ISBLANK(A248),"",C248)</f>
-        <v> AIR_BASE_RIGHT_CLICK_REASON_NO_ACCESS: "§R$COUNT|H$ Luftgeschwader haben keinen Zugang zu dem Luftstützpunkt.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_REASON_NO_ACCESS: "§R§R $COUNT|H$ Luftgeschwader haben keinen Zugang zu dem Luftstützpunkt. §!§! "</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6703,11 +6703,11 @@
       </c>
       <c r="C249" s="1" t="str">
         <f aca="false">A249 &amp;" " &amp;"""" &amp;B249 &amp;""""</f>
-        <v> AIR_REGION_RIGHT_CLICK_NOT_ALL: "§RNicht alle ausgewählten Luftgeschwader können diesem Ziel zugewiesen werden:§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_NOT_ALL: "§R§R Nicht alle ausgewählten Luftgeschwader können diesem Ziel zugewiesen werden: §!§! "</v>
       </c>
       <c r="D249" s="1" t="str">
         <f aca="false">IF(ISBLANK(A249),"",C249)</f>
-        <v> AIR_REGION_RIGHT_CLICK_NOT_ALL: "§RNicht alle ausgewählten Luftgeschwader können diesem Ziel zugewiesen werden:§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_NOT_ALL: "§R§R Nicht alle ausgewählten Luftgeschwader können diesem Ziel zugewiesen werden: §!§! "</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6719,11 +6719,11 @@
       </c>
       <c r="C250" s="1" t="str">
         <f aca="false">A250 &amp;" " &amp;"""" &amp;B250 &amp;""""</f>
-        <v> AIR_REGION_RIGHT_CLICK_NONE: "§RKeines der ausgewählten Luftgeschwader kann diesem Ziel zugewiesen werden:§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_NONE: "§R§R Keines der ausgewählten Luftgeschwader kann diesem Ziel zugewiesen werden: §!§! "</v>
       </c>
       <c r="D250" s="1" t="str">
         <f aca="false">IF(ISBLANK(A250),"",C250)</f>
-        <v> AIR_REGION_RIGHT_CLICK_NONE: "§RKeines der ausgewählten Luftgeschwader kann diesem Ziel zugewiesen werden:§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_NONE: "§R§R Keines der ausgewählten Luftgeschwader kann diesem Ziel zugewiesen werden: §!§! "</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6735,11 +6735,11 @@
       </c>
       <c r="C251" s="1" t="str">
         <f aca="false">A251 &amp;" " &amp;"""" &amp;B251 &amp;""""</f>
-        <v> AIR_REGION_RIGHT_CLICK_REASON_CARRIER_ON_MISSION: "§R$COUNT|H$ Luftgeschwader sind auf einem Träger stationiert und auf einer Mission.§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_REASON_CARRIER_ON_MISSION: "§R§R $COUNT|H$ Luftgeschwader sind auf einem Träger stationiert und auf einer Mission. §!§! "</v>
       </c>
       <c r="D251" s="1" t="str">
         <f aca="false">IF(ISBLANK(A251),"",C251)</f>
-        <v> AIR_REGION_RIGHT_CLICK_REASON_CARRIER_ON_MISSION: "§R$COUNT|H$ Luftgeschwader sind auf einem Träger stationiert und auf einer Mission.§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_REASON_CARRIER_ON_MISSION: "§R§R $COUNT|H$ Luftgeschwader sind auf einem Träger stationiert und auf einer Mission. §!§! "</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6751,11 +6751,11 @@
       </c>
       <c r="C252" s="1" t="str">
         <f aca="false">A252 &amp;" " &amp;"""" &amp;B252 &amp;""""</f>
-        <v> AIR_REGION_RIGHT_CLICK_REASON_TRAINING_MISSION: "§R$COUNT|H$ Luftgeschwader führen §HPilotenübungen§! durch§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_REASON_TRAINING_MISSION: "§R§R $COUNT|H$ Luftgeschwader führen §H§H Pilotenübungen §!§!  durch §!§! "</v>
       </c>
       <c r="D252" s="1" t="str">
         <f aca="false">IF(ISBLANK(A252),"",C252)</f>
-        <v> AIR_REGION_RIGHT_CLICK_REASON_TRAINING_MISSION: "§R$COUNT|H$ Luftgeschwader führen §HPilotenübungen§! durch§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_REASON_TRAINING_MISSION: "§R§R $COUNT|H$ Luftgeschwader führen §H§H Pilotenübungen §!§!  durch §!§! "</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,11 +6767,11 @@
       </c>
       <c r="C253" s="1" t="str">
         <f aca="false">A253 &amp;" " &amp;"""" &amp;B253 &amp;""""</f>
-        <v> AIR_REGION_RIGHT_CLICK_REASON_NO_COVERAGE: "§R$COUNT|H$ Luftgeschwader haben keine Reichweite.§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_REASON_NO_COVERAGE: "§R§R $COUNT|H$ Luftgeschwader haben keine Reichweite. §!§! "</v>
       </c>
       <c r="D253" s="1" t="str">
         <f aca="false">IF(ISBLANK(A253),"",C253)</f>
-        <v> AIR_REGION_RIGHT_CLICK_REASON_NO_COVERAGE: "§R$COUNT|H$ Luftgeschwader haben keine Reichweite.§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK_REASON_NO_COVERAGE: "§R§R $COUNT|H$ Luftgeschwader haben keine Reichweite. §!§! "</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,11 +6783,11 @@
       </c>
       <c r="C254" s="1" t="str">
         <f aca="false">A254 &amp;" " &amp;"""" &amp;B254 &amp;""""</f>
-        <v> AIR_BASE_RIGHT_CLICK_CARRIER: "§GDie Geschwader werden nach $NAME|H$ verlegt, da dort die größte Kapazität verfügbar ist.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_CARRIER: "§G§G Die Geschwader werden nach $NAME|H$ verlegt, da dort die größte Kapazität verfügbar ist. §!§! "</v>
       </c>
       <c r="D254" s="1" t="str">
         <f aca="false">IF(ISBLANK(A254),"",C254)</f>
-        <v> AIR_BASE_RIGHT_CLICK_CARRIER: "§GDie Geschwader werden nach $NAME|H$ verlegt, da dort die größte Kapazität verfügbar ist.§!"</v>
+        <v> AIR_BASE_RIGHT_CLICK_CARRIER: "§G§G Die Geschwader werden nach $NAME|H$ verlegt, da dort die größte Kapazität verfügbar ist. §!§! "</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,11 +6799,11 @@
       </c>
       <c r="C255" s="1" t="str">
         <f aca="false">A255 &amp;" " &amp;"""" &amp;B255 &amp;""""</f>
-        <v> AIR_REGION_RIGHT_CLICK: "§GRechtsklicken, um die ausgewählten Luftgeschwader diesem Gebiet zuzuweisen§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK: "§G§G Rechtsklicken, um die ausgewählten Luftgeschwader diesem Gebiet zuzuweisen §!§! "</v>
       </c>
       <c r="D255" s="1" t="str">
         <f aca="false">IF(ISBLANK(A255),"",C255)</f>
-        <v> AIR_REGION_RIGHT_CLICK: "§GRechtsklicken, um die ausgewählten Luftgeschwader diesem Gebiet zuzuweisen§!"</v>
+        <v> AIR_REGION_RIGHT_CLICK: "§G§G Rechtsklicken, um die ausgewählten Luftgeschwader diesem Gebiet zuzuweisen §!§! "</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6815,11 +6815,11 @@
       </c>
       <c r="C256" s="1" t="str">
         <f aca="false">A256 &amp;" " &amp;"""" &amp;B256 &amp;""""</f>
-        <v> AIR_BASE_GOTO_RIGHT_CLICK: "§GRechtsklicken, um zum Luftstützpunkt zu wechseln§!"</v>
+        <v> AIR_BASE_GOTO_RIGHT_CLICK: "§G§G Rechtsklicken, um zum Luftstützpunkt zu wechseln §!§! "</v>
       </c>
       <c r="D256" s="1" t="str">
         <f aca="false">IF(ISBLANK(A256),"",C256)</f>
-        <v> AIR_BASE_GOTO_RIGHT_CLICK: "§GRechtsklicken, um zum Luftstützpunkt zu wechseln§!"</v>
+        <v> AIR_BASE_GOTO_RIGHT_CLICK: "§G§G Rechtsklicken, um zum Luftstützpunkt zu wechseln §!§! "</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6831,11 +6831,11 @@
       </c>
       <c r="C257" s="1" t="str">
         <f aca="false">A257 &amp;" " &amp;"""" &amp;B257 &amp;""""</f>
-        <v> AIR_BASE_GOTO_CTRL_CLICK: "§GStrg+Maustaste, um zum Luftstützpunkt zu wechseln§!"</v>
+        <v> AIR_BASE_GOTO_CTRL_CLICK: "§G§G Strg+Maustaste, um zum Luftstützpunkt zu wechseln §!§! "</v>
       </c>
       <c r="D257" s="1" t="str">
         <f aca="false">IF(ISBLANK(A257),"",C257)</f>
-        <v> AIR_BASE_GOTO_CTRL_CLICK: "§GStrg+Maustaste, um zum Luftstützpunkt zu wechseln§!"</v>
+        <v> AIR_BASE_GOTO_CTRL_CLICK: "§G§G Strg+Maustaste, um zum Luftstützpunkt zu wechseln §!§! "</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6847,11 +6847,11 @@
       </c>
       <c r="C258" s="1" t="str">
         <f aca="false">A258 &amp;" " &amp;"""" &amp;B258 &amp;""""</f>
-        <v> AIR_BASE_OPEN: "§GKlicken, um das Luftstützpunkt-Fenster zu öffnen§!"</v>
+        <v> AIR_BASE_OPEN: "§G§G Klicken, um das Luftstützpunkt-Fenster zu öffnen §!§! "</v>
       </c>
       <c r="D258" s="1" t="str">
         <f aca="false">IF(ISBLANK(A258),"",C258)</f>
-        <v> AIR_BASE_OPEN: "§GKlicken, um das Luftstützpunkt-Fenster zu öffnen§!"</v>
+        <v> AIR_BASE_OPEN: "§G§G Klicken, um das Luftstützpunkt-Fenster zu öffnen §!§! "</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,11 +6863,11 @@
       </c>
       <c r="C259" s="1" t="str">
         <f aca="false">A259 &amp;" " &amp;"""" &amp;B259 &amp;""""</f>
-        <v> AIR_BASE_CLOSE: "§GKlicken, um das Luftstützpunkt-Fenster zu schließen§!"</v>
+        <v> AIR_BASE_CLOSE: "§G§G Klicken, um das Luftstützpunkt-Fenster zu schließen §!§! "</v>
       </c>
       <c r="D259" s="1" t="str">
         <f aca="false">IF(ISBLANK(A259),"",C259)</f>
-        <v> AIR_BASE_CLOSE: "§GKlicken, um das Luftstützpunkt-Fenster zu schließen§!"</v>
+        <v> AIR_BASE_CLOSE: "§G§G Klicken, um das Luftstützpunkt-Fenster zu schließen §!§! "</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6879,11 +6879,11 @@
       </c>
       <c r="C260" s="1" t="str">
         <f aca="false">A260 &amp;" " &amp;"""" &amp;B260 &amp;""""</f>
-        <v> AIRWING_ITEM_DESC: "§GKlicken§!, um dieses Luftgeschwader auszuwählen."</v>
+        <v> AIRWING_ITEM_DESC: "§G§G Klicken §!§! , um dieses Luftgeschwader auszuwählen."</v>
       </c>
       <c r="D260" s="1" t="str">
         <f aca="false">IF(ISBLANK(A260),"",C260)</f>
-        <v> AIRWING_ITEM_DESC: "§GKlicken§!, um dieses Luftgeschwader auszuwählen."</v>
+        <v> AIRWING_ITEM_DESC: "§G§G Klicken §!§! , um dieses Luftgeschwader auszuwählen."</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6895,11 +6895,11 @@
       </c>
       <c r="C261" s="1" t="str">
         <f aca="false">A261 &amp;" " &amp;"""" &amp;B261 &amp;""""</f>
-        <v> ROCKET_ITEM_DESC: "§GKlicken§!, um diese Rakete auszuwählen."</v>
+        <v> ROCKET_ITEM_DESC: "§G§G Klicken §!§! , um diese Rakete auszuwählen."</v>
       </c>
       <c r="D261" s="1" t="str">
         <f aca="false">IF(ISBLANK(A261),"",C261)</f>
-        <v> ROCKET_ITEM_DESC: "§GKlicken§!, um diese Rakete auszuwählen."</v>
+        <v> ROCKET_ITEM_DESC: "§G§G Klicken §!§! , um diese Rakete auszuwählen."</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,11 +6911,11 @@
       </c>
       <c r="C262" s="1" t="str">
         <f aca="false">A262 &amp;" " &amp;"""" &amp;B262 &amp;""""</f>
-        <v> SELECT_HALF_WINGS: "§THälfte der aktuellen Luftgeschwader auswählen§!"</v>
+        <v> SELECT_HALF_WINGS: "§T§T Hälfte der aktuellen Luftgeschwader auswählen §!§! "</v>
       </c>
       <c r="D262" s="1" t="str">
         <f aca="false">IF(ISBLANK(A262),"",C262)</f>
-        <v> SELECT_HALF_WINGS: "§THälfte der aktuellen Luftgeschwader auswählen§!"</v>
+        <v> SELECT_HALF_WINGS: "§T§T Hälfte der aktuellen Luftgeschwader auswählen §!§! "</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,11 +6927,11 @@
       </c>
       <c r="C263" s="1" t="str">
         <f aca="false">A263 &amp;" " &amp;"""" &amp;B263 &amp;""""</f>
-        <v> SELECT_HALF_WINGS_BLOCKED: "§REs müssen mindestens §H2§! Luftgeschwader ausgewählt sein§!"</v>
+        <v> SELECT_HALF_WINGS_BLOCKED: "§R§R Es müssen mindestens §H§H 2 §!§!  Luftgeschwader ausgewählt sein §!§! "</v>
       </c>
       <c r="D263" s="1" t="str">
         <f aca="false">IF(ISBLANK(A263),"",C263)</f>
-        <v> SELECT_HALF_WINGS_BLOCKED: "§REs müssen mindestens §H2§! Luftgeschwader ausgewählt sein§!"</v>
+        <v> SELECT_HALF_WINGS_BLOCKED: "§R§R Es müssen mindestens §H§H 2 §!§!  Luftgeschwader ausgewählt sein §!§! "</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6943,11 +6943,11 @@
       </c>
       <c r="C264" s="1" t="str">
         <f aca="false">A264 &amp;" " &amp;"""" &amp;B264 &amp;""""</f>
-        <v> HOLD_WINGS: "§TLuftgeschwader halten.§!"</v>
+        <v> HOLD_WINGS: "§T§T Luftgeschwader halten. §!§! "</v>
       </c>
       <c r="D264" s="1" t="str">
         <f aca="false">IF(ISBLANK(A264),"",C264)</f>
-        <v> HOLD_WINGS: "§TLuftgeschwader halten.§!"</v>
+        <v> HOLD_WINGS: "§T§T Luftgeschwader halten. §!§! "</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6991,11 +6991,11 @@
       </c>
       <c r="C267" s="1" t="str">
         <f aca="false">A267 &amp;" " &amp;"""" &amp;B267 &amp;""""</f>
-        <v> AIR_BASE_ITEM_TOGGLE_SELECTION: "§GUmschalt+klicken§!, um Auswahl umzukehren."</v>
+        <v> AIR_BASE_ITEM_TOGGLE_SELECTION: "§G§G Umschalt+klicken §!§! , um Auswahl umzukehren."</v>
       </c>
       <c r="D267" s="1" t="str">
         <f aca="false">IF(ISBLANK(A267),"",C267)</f>
-        <v> AIR_BASE_ITEM_TOGGLE_SELECTION: "§GUmschalt+klicken§!, um Auswahl umzukehren."</v>
+        <v> AIR_BASE_ITEM_TOGGLE_SELECTION: "§G§G Umschalt+klicken §!§! , um Auswahl umzukehren."</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7007,11 +7007,11 @@
       </c>
       <c r="C268" s="1" t="str">
         <f aca="false">A268 &amp;" " &amp;"""" &amp;B268 &amp;""""</f>
-        <v> AIR_BASE_CARRIER_SEPARATOR_SELECT: "§GRechtsklicken, um hier stationierte Luftgeschwader der Auswahl hinzuzufügen.§!"</v>
+        <v> AIR_BASE_CARRIER_SEPARATOR_SELECT: "§G§G Rechtsklicken, um hier stationierte Luftgeschwader der Auswahl hinzuzufügen. §!§! "</v>
       </c>
       <c r="D268" s="1" t="str">
         <f aca="false">IF(ISBLANK(A268),"",C268)</f>
-        <v> AIR_BASE_CARRIER_SEPARATOR_SELECT: "§GRechtsklicken, um hier stationierte Luftgeschwader der Auswahl hinzuzufügen.§!"</v>
+        <v> AIR_BASE_CARRIER_SEPARATOR_SELECT: "§G§G Rechtsklicken, um hier stationierte Luftgeschwader der Auswahl hinzuzufügen. §!§! "</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,11 +7023,11 @@
       </c>
       <c r="C269" s="1" t="str">
         <f aca="false">A269 &amp;" " &amp;"""" &amp;B269 &amp;""""</f>
-        <v> AIR_BASE_CARRIER_SEPARATOR_DESELECT: "§GKlicken, um hier stationierte Luftgeschwader aus der Auswahl zu entfernen.§!"</v>
+        <v> AIR_BASE_CARRIER_SEPARATOR_DESELECT: "§G§G Klicken, um hier stationierte Luftgeschwader aus der Auswahl zu entfernen. §!§! "</v>
       </c>
       <c r="D269" s="1" t="str">
         <f aca="false">IF(ISBLANK(A269),"",C269)</f>
-        <v> AIR_BASE_CARRIER_SEPARATOR_DESELECT: "§GKlicken, um hier stationierte Luftgeschwader aus der Auswahl zu entfernen.§!"</v>
+        <v> AIR_BASE_CARRIER_SEPARATOR_DESELECT: "§G§G Klicken, um hier stationierte Luftgeschwader aus der Auswahl zu entfernen. §!§! "</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,11 +7055,11 @@
       </c>
       <c r="C271" s="1" t="str">
         <f aca="false">A271 &amp;" " &amp;"""" &amp;B271 &amp;""""</f>
-        <v> CLICK_AIR_WING_SEE_DETAILS: "§GKlicken, um Details anzuzeigen.§!"</v>
+        <v> CLICK_AIR_WING_SEE_DETAILS: "§G§G Klicken, um Details anzuzeigen. §!§! "</v>
       </c>
       <c r="D271" s="1" t="str">
         <f aca="false">IF(ISBLANK(A271),"",C271)</f>
-        <v> CLICK_AIR_WING_SEE_DETAILS: "§GKlicken, um Details anzuzeigen.§!"</v>
+        <v> CLICK_AIR_WING_SEE_DETAILS: "§G§G Klicken, um Details anzuzeigen. §!§! "</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7103,11 +7103,11 @@
       </c>
       <c r="C274" s="1" t="str">
         <f aca="false">A274 &amp;" " &amp;"""" &amp;B274 &amp;""""</f>
-        <v> AIR_CAN_NOT_PERFORM_PORT_STRIKE: "§RMission wird nicht ausgeführt§!\nFeindliche §YLuftüberlegenheit§! steht bei $CURRENT|H2%$.\nDie Mission erlaubt höchstens $REQUIRED|H2%$."</v>
+        <v> AIR_CAN_NOT_PERFORM_PORT_STRIKE: "§R§R Mission wird nicht ausgeführt §!§! \nFeindliche §Y§Y Luftüberlegenheit §!§!  steht bei $CURRENT|H2%$.\nDie Mission erlaubt höchstens $REQUIRED|H2%$."</v>
       </c>
       <c r="D274" s="1" t="str">
         <f aca="false">IF(ISBLANK(A274),"",C274)</f>
-        <v> AIR_CAN_NOT_PERFORM_PORT_STRIKE: "§RMission wird nicht ausgeführt§!\nFeindliche §YLuftüberlegenheit§! steht bei $CURRENT|H2%$.\nDie Mission erlaubt höchstens $REQUIRED|H2%$."</v>
+        <v> AIR_CAN_NOT_PERFORM_PORT_STRIKE: "§R§R Mission wird nicht ausgeführt §!§! \nFeindliche §Y§Y Luftüberlegenheit §!§!  steht bei $CURRENT|H2%$.\nDie Mission erlaubt höchstens $REQUIRED|H2%$."</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7135,11 +7135,11 @@
       </c>
       <c r="C276" s="1" t="str">
         <f aca="false">A276 &amp;" " &amp;"""" &amp;B276 &amp;""""</f>
-        <v> AIR_NO_RESERVES: "§RSie haben keine Flugzeuge, die hier als Reserve stationiert werden können.§!"</v>
+        <v> AIR_NO_RESERVES: "§R§R Sie haben keine Flugzeuge, die hier als Reserve stationiert werden können. §!§! "</v>
       </c>
       <c r="D276" s="1" t="str">
         <f aca="false">IF(ISBLANK(A276),"",C276)</f>
-        <v> AIR_NO_RESERVES: "§RSie haben keine Flugzeuge, die hier als Reserve stationiert werden können.§!"</v>
+        <v> AIR_NO_RESERVES: "§R§R Sie haben keine Flugzeuge, die hier als Reserve stationiert werden können. §!§! "</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7391,11 +7391,11 @@
       </c>
       <c r="C292" s="1" t="str">
         <f aca="false">A292 &amp;" " &amp;"""" &amp;B292 &amp;""""</f>
-        <v> AIR_SELECT_ALL_NO_WINGS_IN_REGION: "§TDieser Region sind keine Luftgeschwader zugewiesen.§!"</v>
+        <v> AIR_SELECT_ALL_NO_WINGS_IN_REGION: "§T§T Dieser Region sind keine Luftgeschwader zugewiesen. §!§! "</v>
       </c>
       <c r="D292" s="1" t="str">
         <f aca="false">IF(ISBLANK(A292),"",C292)</f>
-        <v> AIR_SELECT_ALL_NO_WINGS_IN_REGION: "§TDieser Region sind keine Luftgeschwader zugewiesen.§!"</v>
+        <v> AIR_SELECT_ALL_NO_WINGS_IN_REGION: "§T§T Dieser Region sind keine Luftgeschwader zugewiesen. §!§! "</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,11 +7455,11 @@
       </c>
       <c r="C296" s="1" t="str">
         <f aca="false">A296 &amp;" " &amp;"""" &amp;B296 &amp;""""</f>
-        <v> AIR_WING_NO_MISSION: "§RLuftgeschwader ohne zugewiesene Mission§!"</v>
+        <v> AIR_WING_NO_MISSION: "§R§R Luftgeschwader ohne zugewiesene Mission §!§! "</v>
       </c>
       <c r="D296" s="1" t="str">
         <f aca="false">IF(ISBLANK(A296),"",C296)</f>
-        <v> AIR_WING_NO_MISSION: "§RLuftgeschwader ohne zugewiesene Mission§!"</v>
+        <v> AIR_WING_NO_MISSION: "§R§R Luftgeschwader ohne zugewiesene Mission §!§! "</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7471,11 +7471,11 @@
       </c>
       <c r="C297" s="1" t="str">
         <f aca="false">A297 &amp;" " &amp;"""" &amp;B297 &amp;""""</f>
-        <v> AIR_WING_NO_REGION: "§RLuftgeschwader ohne zugewiesene Region§!"</v>
+        <v> AIR_WING_NO_REGION: "§R§R Luftgeschwader ohne zugewiesene Region §!§! "</v>
       </c>
       <c r="D297" s="1" t="str">
         <f aca="false">IF(ISBLANK(A297),"",C297)</f>
-        <v> AIR_WING_NO_REGION: "§RLuftgeschwader ohne zugewiesene Region§!"</v>
+        <v> AIR_WING_NO_REGION: "§R§R Luftgeschwader ohne zugewiesene Region §!§! "</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7487,11 +7487,11 @@
       </c>
       <c r="C298" s="1" t="str">
         <f aca="false">A298 &amp;" " &amp;"""" &amp;B298 &amp;""""</f>
-        <v> AIR_WING_TRAINING: "Luftgeschwader führt §HPilotenübungen§! durch"</v>
+        <v> AIR_WING_TRAINING: "Luftgeschwader führt §H§H Pilotenübungen §!§!  durch"</v>
       </c>
       <c r="D298" s="1" t="str">
         <f aca="false">IF(ISBLANK(A298),"",C298)</f>
-        <v> AIR_WING_TRAINING: "Luftgeschwader führt §HPilotenübungen§! durch"</v>
+        <v> AIR_WING_TRAINING: "Luftgeschwader führt §H§H Pilotenübungen §!§!  durch"</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,11 +7519,11 @@
       </c>
       <c r="C300" s="1" t="str">
         <f aca="false">A300 &amp;" " &amp;"""" &amp;B300 &amp;""""</f>
-        <v> AIR_WING_NO_COVERAGE: "§RLuftgeschwader kann Armee nicht abdecken§!"</v>
+        <v> AIR_WING_NO_COVERAGE: "§R§R Luftgeschwader kann Armee nicht abdecken §!§! "</v>
       </c>
       <c r="D300" s="1" t="str">
         <f aca="false">IF(ISBLANK(A300),"",C300)</f>
-        <v> AIR_WING_NO_COVERAGE: "§RLuftgeschwader kann Armee nicht abdecken§!"</v>
+        <v> AIR_WING_NO_COVERAGE: "§R§R Luftgeschwader kann Armee nicht abdecken §!§! "</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7535,11 +7535,11 @@
       </c>
       <c r="C301" s="1" t="str">
         <f aca="false">A301 &amp;" " &amp;"""" &amp;B301 &amp;""""</f>
-        <v> AIRWING_MIXED_MISSION_DAY: "Die meisten Geschwader führen Missionen §Htagsüber§! aus."</v>
+        <v> AIRWING_MIXED_MISSION_DAY: "Die meisten Geschwader führen Missionen §H§H tagsüber §!§!  aus."</v>
       </c>
       <c r="D301" s="1" t="str">
         <f aca="false">IF(ISBLANK(A301),"",C301)</f>
-        <v> AIRWING_MIXED_MISSION_DAY: "Die meisten Geschwader führen Missionen §Htagsüber§! aus."</v>
+        <v> AIRWING_MIXED_MISSION_DAY: "Die meisten Geschwader führen Missionen §H§H tagsüber §!§!  aus."</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7551,11 +7551,11 @@
       </c>
       <c r="C302" s="1" t="str">
         <f aca="false">A302 &amp;" " &amp;"""" &amp;B302 &amp;""""</f>
-        <v> AIRWING_MIXED_MISSION_NIGHT: "Die meisten Geschwader führen Missionen §Hnachts§! aus."</v>
+        <v> AIRWING_MIXED_MISSION_NIGHT: "Die meisten Geschwader führen Missionen §H§H nachts §!§!  aus."</v>
       </c>
       <c r="D302" s="1" t="str">
         <f aca="false">IF(ISBLANK(A302),"",C302)</f>
-        <v> AIRWING_MIXED_MISSION_NIGHT: "Die meisten Geschwader führen Missionen §Hnachts§! aus."</v>
+        <v> AIRWING_MIXED_MISSION_NIGHT: "Die meisten Geschwader führen Missionen §H§H nachts §!§!  aus."</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,11 +7567,11 @@
       </c>
       <c r="C303" s="1" t="str">
         <f aca="false">A303 &amp;" " &amp;"""" &amp;B303 &amp;""""</f>
-        <v> AIRWING_MIXED_MISSION_DAY_NIGHT: "Die meisten Geschwader führen Missionen sowohl §Htagsüber§! als auch §Hnachts§! aus."</v>
+        <v> AIRWING_MIXED_MISSION_DAY_NIGHT: "Die meisten Geschwader führen Missionen sowohl §H§H tagsüber §!§!  als auch §H§H nachts §!§!  aus."</v>
       </c>
       <c r="D303" s="1" t="str">
         <f aca="false">IF(ISBLANK(A303),"",C303)</f>
-        <v> AIRWING_MIXED_MISSION_DAY_NIGHT: "Die meisten Geschwader führen Missionen sowohl §Htagsüber§! als auch §Hnachts§! aus."</v>
+        <v> AIRWING_MIXED_MISSION_DAY_NIGHT: "Die meisten Geschwader führen Missionen sowohl §H§H tagsüber §!§!  als auch §H§H nachts §!§!  aus."</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7599,11 +7599,11 @@
       </c>
       <c r="C305" s="1" t="str">
         <f aca="false">A305 &amp;" " &amp;"""" &amp;B305 &amp;""""</f>
-        <v> AIRWING_MAP_STACK_HEADER: "$COUNT|H$ $TYPE|H$ §HGeschwader§!"</v>
+        <v> AIRWING_MAP_STACK_HEADER: "$COUNT|H$ $TYPE|H$ §H§H Geschwader §!§! "</v>
       </c>
       <c r="D305" s="1" t="str">
         <f aca="false">IF(ISBLANK(A305),"",C305)</f>
-        <v> AIRWING_MAP_STACK_HEADER: "$COUNT|H$ $TYPE|H$ §HGeschwader§!"</v>
+        <v> AIRWING_MAP_STACK_HEADER: "$COUNT|H$ $TYPE|H$ §H§H Geschwader §!§! "</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7727,11 +7727,11 @@
       </c>
       <c r="C313" s="1" t="str">
         <f aca="false">A313 &amp;" " &amp;"""" &amp;B313 &amp;""""</f>
-        <v> AIRWING_ATTACHED: "§HZugewiesene Luftgeschwader:§!"</v>
+        <v> AIRWING_ATTACHED: "§H§H Zugewiesene Luftgeschwader: §!§! "</v>
       </c>
       <c r="D313" s="1" t="str">
         <f aca="false">IF(ISBLANK(A313),"",C313)</f>
-        <v> AIRWING_ATTACHED: "§HZugewiesene Luftgeschwader:§!"</v>
+        <v> AIRWING_ATTACHED: "§H§H Zugewiesene Luftgeschwader: §!§! "</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7759,11 +7759,11 @@
       </c>
       <c r="C315" s="1" t="str">
         <f aca="false">A315 &amp;" " &amp;"""" &amp;B315 &amp;""""</f>
-        <v> ATTACH_AIR_WING_DESC: "§GKlicken§!, um die gewählten Luftgeschwader der Armee zuzuweisen"</v>
+        <v> ATTACH_AIR_WING_DESC: "§G§G Klicken §!§! , um die gewählten Luftgeschwader der Armee zuzuweisen"</v>
       </c>
       <c r="D315" s="1" t="str">
         <f aca="false">IF(ISBLANK(A315),"",C315)</f>
-        <v> ATTACH_AIR_WING_DESC: "§GKlicken§!, um die gewählten Luftgeschwader der Armee zuzuweisen"</v>
+        <v> ATTACH_AIR_WING_DESC: "§G§G Klicken §!§! , um die gewählten Luftgeschwader der Armee zuzuweisen"</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7775,11 +7775,11 @@
       </c>
       <c r="C316" s="1" t="str">
         <f aca="false">A316 &amp;" " &amp;"""" &amp;B316 &amp;""""</f>
-        <v> CANNOT_ATTACH_AIR_WING_DESC: "§RDie ausgewählten Luftgeschwader können keiner Armee zugewiesen werden§!"</v>
+        <v> CANNOT_ATTACH_AIR_WING_DESC: "§R§R Die ausgewählten Luftgeschwader können keiner Armee zugewiesen werden §!§! "</v>
       </c>
       <c r="D316" s="1" t="str">
         <f aca="false">IF(ISBLANK(A316),"",C316)</f>
-        <v> CANNOT_ATTACH_AIR_WING_DESC: "§RDie ausgewählten Luftgeschwader können keiner Armee zugewiesen werden§!"</v>
+        <v> CANNOT_ATTACH_AIR_WING_DESC: "§R§R Die ausgewählten Luftgeschwader können keiner Armee zugewiesen werden §!§! "</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7791,11 +7791,11 @@
       </c>
       <c r="C317" s="1" t="str">
         <f aca="false">A317 &amp;" " &amp;"""" &amp;B317 &amp;""""</f>
-        <v> ATTACH_AIR_WING_SELECT_DESC: "§GRechtsklicken§!, um die gewählten Luftgeschwader abzutrennen"</v>
+        <v> ATTACH_AIR_WING_SELECT_DESC: "§G§G Rechtsklicken §!§! , um die gewählten Luftgeschwader abzutrennen"</v>
       </c>
       <c r="D317" s="1" t="str">
         <f aca="false">IF(ISBLANK(A317),"",C317)</f>
-        <v> ATTACH_AIR_WING_SELECT_DESC: "§GRechtsklicken§!, um die gewählten Luftgeschwader abzutrennen"</v>
+        <v> ATTACH_AIR_WING_SELECT_DESC: "§G§G Rechtsklicken §!§! , um die gewählten Luftgeschwader abzutrennen"</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="C318" s="1" t="str">
         <f aca="false">A318 &amp;" " &amp;"""" &amp;B318 &amp;""""</f>
-        <v> ATTACH_AIR_WING_SELECT_SOME: "§RWählen Sie die Luftgeschwader, die der Armee zugewiesen werden sollen!§!"</v>
+        <v> ATTACH_AIR_WING_SELECT_SOME: "§R§R Wählen Sie die Luftgeschwader, die der Armee zugewiesen werden sollen! §!§! "</v>
       </c>
       <c r="D318" s="1" t="str">
         <f aca="false">IF(ISBLANK(A318),"",C318)</f>
-        <v> ATTACH_AIR_WING_SELECT_SOME: "§RWählen Sie die Luftgeschwader, die der Armee zugewiesen werden sollen!§!"</v>
+        <v> ATTACH_AIR_WING_SELECT_SOME: "§R§R Wählen Sie die Luftgeschwader, die der Armee zugewiesen werden sollen! §!§! "</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7823,11 +7823,11 @@
       </c>
       <c r="C319" s="1" t="str">
         <f aca="false">A319 &amp;" " &amp;"""" &amp;B319 &amp;""""</f>
-        <v> SELECT_ATTACHED_AIRWINGS: "§GKlicken§!, um der Armee zugewiesene Luftgeschwader auszuwählen"</v>
+        <v> SELECT_ATTACHED_AIRWINGS: "§G§G Klicken §!§! , um der Armee zugewiesene Luftgeschwader auszuwählen"</v>
       </c>
       <c r="D319" s="1" t="str">
         <f aca="false">IF(ISBLANK(A319),"",C319)</f>
-        <v> SELECT_ATTACHED_AIRWINGS: "§GKlicken§!, um der Armee zugewiesene Luftgeschwader auszuwählen"</v>
+        <v> SELECT_ATTACHED_AIRWINGS: "§G§G Klicken §!§! , um der Armee zugewiesene Luftgeschwader auszuwählen"</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7855,11 +7855,11 @@
       </c>
       <c r="C321" s="1" t="str">
         <f aca="false">A321 &amp;" " &amp;"""" &amp;B321 &amp;""""</f>
-        <v> AIRWING_NEED_ONE_SELECTED: "§REs muss mindestens §H1§! Luftgeschwader ausgewählt sein§!"</v>
+        <v> AIRWING_NEED_ONE_SELECTED: "§R§R Es muss mindestens §H§H 1 §!§!  Luftgeschwader ausgewählt sein §!§! "</v>
       </c>
       <c r="D321" s="1" t="str">
         <f aca="false">IF(ISBLANK(A321),"",C321)</f>
-        <v> AIRWING_NEED_ONE_SELECTED: "§REs muss mindestens §H1§! Luftgeschwader ausgewählt sein§!"</v>
+        <v> AIRWING_NEED_ONE_SELECTED: "§R§R Es muss mindestens §H§H 1 §!§!  Luftgeschwader ausgewählt sein §!§! "</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7871,11 +7871,11 @@
       </c>
       <c r="C322" s="1" t="str">
         <f aca="false">A322 &amp;" " &amp;"""" &amp;B322 &amp;""""</f>
-        <v> AIRWING_NEED_ONE_GROUPED_SELECTED: "§REs muss mindestens §H1§! gruppiertes Luftgeschwader ausgewählt sein§!"</v>
+        <v> AIRWING_NEED_ONE_GROUPED_SELECTED: "§R§R Es muss mindestens §H§H 1 §!§!  gruppiertes Luftgeschwader ausgewählt sein §!§! "</v>
       </c>
       <c r="D322" s="1" t="str">
         <f aca="false">IF(ISBLANK(A322),"",C322)</f>
-        <v> AIRWING_NEED_ONE_GROUPED_SELECTED: "§REs muss mindestens §H1§! gruppiertes Luftgeschwader ausgewählt sein§!"</v>
+        <v> AIRWING_NEED_ONE_GROUPED_SELECTED: "§R§R Es muss mindestens §H§H 1 §!§!  gruppiertes Luftgeschwader ausgewählt sein §!§! "</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7903,11 +7903,11 @@
       </c>
       <c r="C324" s="1" t="str">
         <f aca="false">A324 &amp;" " &amp;"""" &amp;B324 &amp;""""</f>
-        <v> ATTACHED_AIR_WING_DESC: "§HZugewiesenes Luftgeschwader§!"</v>
+        <v> ATTACHED_AIR_WING_DESC: "§H§H Zugewiesenes Luftgeschwader §!§! "</v>
       </c>
       <c r="D324" s="1" t="str">
         <f aca="false">IF(ISBLANK(A324),"",C324)</f>
-        <v> ATTACHED_AIR_WING_DESC: "§HZugewiesenes Luftgeschwader§!"</v>
+        <v> ATTACHED_AIR_WING_DESC: "§H§H Zugewiesenes Luftgeschwader §!§! "</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7919,11 +7919,11 @@
       </c>
       <c r="C325" s="1" t="str">
         <f aca="false">A325 &amp;" " &amp;"""" &amp;B325 &amp;""""</f>
-        <v> ATTACHED_AIR_WING_DELAYED_DESC: "§GLinksklicken§! um die zugewiesene Armee zu wählen\n§GRechtsklicken§!, um Zuweisung aufzuheben"</v>
+        <v> ATTACHED_AIR_WING_DELAYED_DESC: "§G§G Linksklicken §!§!  um die zugewiesene Armee zu wählen\n§G§G Rechtsklicken §!§! , um Zuweisung aufzuheben"</v>
       </c>
       <c r="D325" s="1" t="str">
         <f aca="false">IF(ISBLANK(A325),"",C325)</f>
-        <v> ATTACHED_AIR_WING_DELAYED_DESC: "§GLinksklicken§! um die zugewiesene Armee zu wählen\n§GRechtsklicken§!, um Zuweisung aufzuheben"</v>
+        <v> ATTACHED_AIR_WING_DELAYED_DESC: "§G§G Linksklicken §!§!  um die zugewiesene Armee zu wählen\n§G§G Rechtsklicken §!§! , um Zuweisung aufzuheben"</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7967,11 +7967,11 @@
       </c>
       <c r="C328" s="1" t="str">
         <f aca="false">A328 &amp;" " &amp;"""" &amp;B328 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_US: "§HFeindliche Gebäude bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_US: "§H§H Feindliche Gebäude bombardiert §!§! "</v>
       </c>
       <c r="D328" s="1" t="str">
         <f aca="false">IF(ISBLANK(A328),"",C328)</f>
-        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_US: "§HFeindliche Gebäude bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_US: "§H§H Feindliche Gebäude bombardiert §!§! "</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7983,11 +7983,11 @@
       </c>
       <c r="C329" s="1" t="str">
         <f aca="false">A329 &amp;" " &amp;"""" &amp;B329 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_ENEMY: "§HBefreundete Gebäude bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_ENEMY: "§H§H Befreundete Gebäude bombardiert §!§! "</v>
       </c>
       <c r="D329" s="1" t="str">
         <f aca="false">IF(ISBLANK(A329),"",C329)</f>
-        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_ENEMY: "§HBefreundete Gebäude bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_BUILDINGS_BY_ENEMY: "§H§H Befreundete Gebäude bombardiert §!§! "</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7999,11 +7999,11 @@
       </c>
       <c r="C330" s="1" t="str">
         <f aca="false">A330 &amp;" " &amp;"""" &amp;B330 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_US: "§HFeindliche Schiffe bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_US: "§H§H Feindliche Schiffe bombardiert §!§! "</v>
       </c>
       <c r="D330" s="1" t="str">
         <f aca="false">IF(ISBLANK(A330),"",C330)</f>
-        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_US: "§HFeindliche Schiffe bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_US: "§H§H Feindliche Schiffe bombardiert §!§! "</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,11 +8015,11 @@
       </c>
       <c r="C331" s="1" t="str">
         <f aca="false">A331 &amp;" " &amp;"""" &amp;B331 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_ENEMY: "§HBefreundete Schiffe bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_ENEMY: "§H§H Befreundete Schiffe bombardiert §!§! "</v>
       </c>
       <c r="D331" s="1" t="str">
         <f aca="false">IF(ISBLANK(A331),"",C331)</f>
-        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_ENEMY: "§HBefreundete Schiffe bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_SHIPS_BY_ENEMY: "§H§H Befreundete Schiffe bombardiert §!§! "</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8031,11 +8031,11 @@
       </c>
       <c r="C332" s="1" t="str">
         <f aca="false">A332 &amp;" " &amp;"""" &amp;B332 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_US: "§HSchaden an feindlichen Divisionen verursacht§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_US: "§H§H Schaden an feindlichen Divisionen verursacht §!§! "</v>
       </c>
       <c r="D332" s="1" t="str">
         <f aca="false">IF(ISBLANK(A332),"",C332)</f>
-        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_US: "§HSchaden an feindlichen Divisionen verursacht§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_US: "§H§H Schaden an feindlichen Divisionen verursacht §!§! "</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8047,11 +8047,11 @@
       </c>
       <c r="C333" s="1" t="str">
         <f aca="false">A333 &amp;" " &amp;"""" &amp;B333 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_ENEMY: "§HSchaden durch befreundete Divisionen erlitten§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_ENEMY: "§H§H Schaden durch befreundete Divisionen erlitten §!§! "</v>
       </c>
       <c r="D333" s="1" t="str">
         <f aca="false">IF(ISBLANK(A333),"",C333)</f>
-        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_ENEMY: "§HSchaden durch befreundete Divisionen erlitten§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_DIVISIONS_BY_ENEMY: "§H§H Schaden durch befreundete Divisionen erlitten §!§! "</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,11 +8063,11 @@
       </c>
       <c r="C334" s="1" t="str">
         <f aca="false">A334 &amp;" " &amp;"""" &amp;B334 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_US: "§HFeindliche Flugzeuge gestört§!\nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
+        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_US: "§H§H Feindliche Flugzeuge gestört §!§! \nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
       </c>
       <c r="D334" s="1" t="str">
         <f aca="false">IF(ISBLANK(A334),"",C334)</f>
-        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_US: "§HFeindliche Flugzeuge gestört§!\nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
+        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_US: "§H§H Feindliche Flugzeuge gestört §!§! \nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8079,11 +8079,11 @@
       </c>
       <c r="C335" s="1" t="str">
         <f aca="false">A335 &amp;" " &amp;"""" &amp;B335 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_ENEMY: "§HBefreundete Flugzeuge gestört§!\nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
+        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_ENEMY: "§H§H Befreundete Flugzeuge gestört §!§! \nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
       </c>
       <c r="D335" s="1" t="str">
         <f aca="false">IF(ISBLANK(A335),"",C335)</f>
-        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_ENEMY: "§HBefreundete Flugzeuge gestört§!\nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
+        <v> AIR_VIEW_DAMAGE_DISRUPTED_PLANES_BY_ENEMY: "§H§H Befreundete Flugzeuge gestört §!§! \nDas Flugzeug wurde so schwer beschädigt, dass es nach Hause zurückkehren muss, bevor es seine Mission ausführt."</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8095,11 +8095,11 @@
       </c>
       <c r="C336" s="1" t="str">
         <f aca="false">A336 &amp;" " &amp;"""" &amp;B336 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_US: "§HFeindliche Flugzeuge abgeschossen§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_US: "§H§H Feindliche Flugzeuge abgeschossen §!§! "</v>
       </c>
       <c r="D336" s="1" t="str">
         <f aca="false">IF(ISBLANK(A336),"",C336)</f>
-        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_US: "§HFeindliche Flugzeuge abgeschossen§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_US: "§H§H Feindliche Flugzeuge abgeschossen §!§! "</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,11 +8111,11 @@
       </c>
       <c r="C337" s="1" t="str">
         <f aca="false">A337 &amp;" " &amp;"""" &amp;B337 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_ENEMY: "§HBefreundete Flugzeuge verloren§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_ENEMY: "§H§H Befreundete Flugzeuge verloren §!§! "</v>
       </c>
       <c r="D337" s="1" t="str">
         <f aca="false">IF(ISBLANK(A337),"",C337)</f>
-        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_ENEMY: "§HBefreundete Flugzeuge verloren§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_PLANES_BY_ENEMY: "§H§H Befreundete Flugzeuge verloren §!§! "</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,11 +8127,11 @@
       </c>
       <c r="C338" s="1" t="str">
         <f aca="false">A338 &amp;" " &amp;"""" &amp;B338 &amp;""""</f>
-        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_US_COUNT: "§HFeindliche Flugzeuge auf dem Weg zum Ziel abgeschossen:§! $COUNT$"</v>
+        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_US_COUNT: "§H§H Feindliche Flugzeuge auf dem Weg zum Ziel abgeschossen: §!§!  $COUNT$"</v>
       </c>
       <c r="D338" s="1" t="str">
         <f aca="false">IF(ISBLANK(A338),"",C338)</f>
-        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_US_COUNT: "§HFeindliche Flugzeuge auf dem Weg zum Ziel abgeschossen:§! $COUNT$"</v>
+        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_US_COUNT: "§H§H Feindliche Flugzeuge auf dem Weg zum Ziel abgeschossen: §!§!  $COUNT$"</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,11 +8143,11 @@
       </c>
       <c r="C339" s="1" t="str">
         <f aca="false">A339 &amp;" " &amp;"""" &amp;B339 &amp;""""</f>
-        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY: "§RBefreundete Flugzeuge auf dem Weg zum Ziel abgeschossen!§!"</v>
+        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY: "§R§R Befreundete Flugzeuge auf dem Weg zum Ziel abgeschossen! §!§! "</v>
       </c>
       <c r="D339" s="1" t="str">
         <f aca="false">IF(ISBLANK(A339),"",C339)</f>
-        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY: "§RBefreundete Flugzeuge auf dem Weg zum Ziel abgeschossen!§!"</v>
+        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY: "§R§R Befreundete Flugzeuge auf dem Weg zum Ziel abgeschossen! §!§! "</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8159,11 +8159,11 @@
       </c>
       <c r="C340" s="1" t="str">
         <f aca="false">A340 &amp;" " &amp;"""" &amp;B340 &amp;""""</f>
-        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY_COUNT: "§HBefreundete Flugzeuge auf dem Weg zum Ziel abgeschossen:§! $COUNT$"</v>
+        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY_COUNT: "§H§H Befreundete Flugzeuge auf dem Weg zum Ziel abgeschossen: §!§!  $COUNT$"</v>
       </c>
       <c r="D340" s="1" t="str">
         <f aca="false">IF(ISBLANK(A340),"",C340)</f>
-        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY_COUNT: "§HBefreundete Flugzeuge auf dem Weg zum Ziel abgeschossen:§! $COUNT$"</v>
+        <v> AIR_VIEW_INTERCEPTED_EN_ROUTE_BY_ENEMY_COUNT: "§H§H Befreundete Flugzeuge auf dem Weg zum Ziel abgeschossen: §!§!  $COUNT$"</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,11 +8175,11 @@
       </c>
       <c r="C341" s="1" t="str">
         <f aca="false">A341 &amp;" " &amp;"""" &amp;B341 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_US: "§HFeindliche Flugzeuge durch Flugabwehr abgeschossen§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_US: "§H§H Feindliche Flugzeuge durch Flugabwehr abgeschossen §!§! "</v>
       </c>
       <c r="D341" s="1" t="str">
         <f aca="false">IF(ISBLANK(A341),"",C341)</f>
-        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_US: "§HFeindliche Flugzeuge durch Flugabwehr abgeschossen§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_US: "§H§H Feindliche Flugzeuge durch Flugabwehr abgeschossen §!§! "</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,11 +8191,11 @@
       </c>
       <c r="C342" s="1" t="str">
         <f aca="false">A342 &amp;" " &amp;"""" &amp;B342 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_ENEMY: "§HFlugzeuge an Flugabwehr verloren§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_ENEMY: "§H§H Flugzeuge an Flugabwehr verloren §!§! "</v>
       </c>
       <c r="D342" s="1" t="str">
         <f aca="false">IF(ISBLANK(A342),"",C342)</f>
-        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_ENEMY: "§HFlugzeuge an Flugabwehr verloren§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_AA_BY_ENEMY: "§H§H Flugzeuge an Flugabwehr verloren §!§! "</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8207,11 +8207,11 @@
       </c>
       <c r="C343" s="1" t="str">
         <f aca="false">A343 &amp;" " &amp;"""" &amp;B343 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_US: "§HFeindliche Logistik bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_US: "§H§H Feindliche Logistik bombardiert §!§! "</v>
       </c>
       <c r="D343" s="1" t="str">
         <f aca="false">IF(ISBLANK(A343),"",C343)</f>
-        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_US: "§HFeindliche Logistik bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_US: "§H§H Feindliche Logistik bombardiert §!§! "</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8223,11 +8223,11 @@
       </c>
       <c r="C344" s="1" t="str">
         <f aca="false">A344 &amp;" " &amp;"""" &amp;B344 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_ENEMY: "§HBefreundete Logistik bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_ENEMY: "§H§H Befreundete Logistik bombardiert §!§! "</v>
       </c>
       <c r="D344" s="1" t="str">
         <f aca="false">IF(ISBLANK(A344),"",C344)</f>
-        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_ENEMY: "§HBefreundete Logistik bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_LOGISTICS_BY_ENEMY: "§H§H Befreundete Logistik bombardiert §!§! "</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8239,11 +8239,11 @@
       </c>
       <c r="C345" s="1" t="str">
         <f aca="false">A345 &amp;" " &amp;"""" &amp;B345 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_US: "§HFeindliche Eisenbahngeschütze bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_US: "§H§H Feindliche Eisenbahngeschütze bombardiert §!§! "</v>
       </c>
       <c r="D345" s="1" t="str">
         <f aca="false">IF(ISBLANK(A345),"",C345)</f>
-        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_US: "§HFeindliche Eisenbahngeschütze bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_US: "§H§H Feindliche Eisenbahngeschütze bombardiert §!§! "</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8255,11 +8255,11 @@
       </c>
       <c r="C346" s="1" t="str">
         <f aca="false">A346 &amp;" " &amp;"""" &amp;B346 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_ENEMY: "§HBefreundete Eisenbahngeschütze bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_ENEMY: "§H§H Befreundete Eisenbahngeschütze bombardiert §!§! "</v>
       </c>
       <c r="D346" s="1" t="str">
         <f aca="false">IF(ISBLANK(A346),"",C346)</f>
-        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_ENEMY: "§HBefreundete Eisenbahngeschütze bombardiert§!"</v>
+        <v> AIR_VIEW_DAMAGE_TO_RAILWAY_GUNS_BY_ENEMY: "§H§H Befreundete Eisenbahngeschütze bombardiert §!§! "</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8271,11 +8271,11 @@
       </c>
       <c r="C347" s="1" t="str">
         <f aca="false">A347 &amp;" " &amp;"""" &amp;B347 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_US: "§HFeindliche Flugzeuge durch Panzerzüge abgeschossen§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_US: "§H§H Feindliche Flugzeuge durch Panzerzüge abgeschossen §!§! "</v>
       </c>
       <c r="D347" s="1" t="str">
         <f aca="false">IF(ISBLANK(A347),"",C347)</f>
-        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_US: "§HFeindliche Flugzeuge durch Panzerzüge abgeschossen§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_US: "§H§H Feindliche Flugzeuge durch Panzerzüge abgeschossen §!§! "</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8287,11 +8287,11 @@
       </c>
       <c r="C348" s="1" t="str">
         <f aca="false">A348 &amp;" " &amp;"""" &amp;B348 &amp;""""</f>
-        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_ENEMY: "§HDurch feindliche Panzerzüge verlorene Flugzeuge§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_ENEMY: "§H§H Durch feindliche Panzerzüge verlorene Flugzeuge §!§! "</v>
       </c>
       <c r="D348" s="1" t="str">
         <f aca="false">IF(ISBLANK(A348),"",C348)</f>
-        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_ENEMY: "§HDurch feindliche Panzerzüge verlorene Flugzeuge§!"</v>
+        <v> AIR_VIEW_DAMAGE_FROM_TRAINS_BY_ENEMY: "§H§H Durch feindliche Panzerzüge verlorene Flugzeuge §!§! "</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8303,11 +8303,11 @@
       </c>
       <c r="C349" s="1" t="str">
         <f aca="false">A349 &amp;" " &amp;"""" &amp;B349 &amp;""""</f>
-        <v> AIR_VIEW_SHOW_OUR_MISSIONS: "§HUnsere Missionen§!\nErgebnisse der Missionen unserer Luftgeschwader anzeigen."</v>
+        <v> AIR_VIEW_SHOW_OUR_MISSIONS: "§H§H Unsere Missionen §!§! \nErgebnisse der Missionen unserer Luftgeschwader anzeigen."</v>
       </c>
       <c r="D349" s="1" t="str">
         <f aca="false">IF(ISBLANK(A349),"",C349)</f>
-        <v> AIR_VIEW_SHOW_OUR_MISSIONS: "§HUnsere Missionen§!\nErgebnisse der Missionen unserer Luftgeschwader anzeigen."</v>
+        <v> AIR_VIEW_SHOW_OUR_MISSIONS: "§H§H Unsere Missionen §!§! \nErgebnisse der Missionen unserer Luftgeschwader anzeigen."</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8319,11 +8319,11 @@
       </c>
       <c r="C350" s="1" t="str">
         <f aca="false">A350 &amp;" " &amp;"""" &amp;B350 &amp;""""</f>
-        <v> AIR_VIEW_SHOW_ENEMY_MISSIONS: "§HFeindliche Missionen§!\nErgebnisse der Missionen feindlicher Luftgeschwader anzeigen."</v>
+        <v> AIR_VIEW_SHOW_ENEMY_MISSIONS: "§H§H Feindliche Missionen §!§! \nErgebnisse der Missionen feindlicher Luftgeschwader anzeigen."</v>
       </c>
       <c r="D350" s="1" t="str">
         <f aca="false">IF(ISBLANK(A350),"",C350)</f>
-        <v> AIR_VIEW_SHOW_ENEMY_MISSIONS: "§HFeindliche Missionen§!\nErgebnisse der Missionen feindlicher Luftgeschwader anzeigen."</v>
+        <v> AIR_VIEW_SHOW_ENEMY_MISSIONS: "§H§H Feindliche Missionen §!§! \nErgebnisse der Missionen feindlicher Luftgeschwader anzeigen."</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8335,11 +8335,11 @@
       </c>
       <c r="C351" s="1" t="str">
         <f aca="false">A351 &amp;" " &amp;"""" &amp;B351 &amp;""""</f>
-        <v> AIR_VIEW_SHOW_LAST_SORTIE: "§HLetzter Einsatz§!\nErgebnisse des letzten Einsatzes anzeigen."</v>
+        <v> AIR_VIEW_SHOW_LAST_SORTIE: "§H§H Letzter Einsatz §!§! \nErgebnisse des letzten Einsatzes anzeigen."</v>
       </c>
       <c r="D351" s="1" t="str">
         <f aca="false">IF(ISBLANK(A351),"",C351)</f>
-        <v> AIR_VIEW_SHOW_LAST_SORTIE: "§HLetzter Einsatz§!\nErgebnisse des letzten Einsatzes anzeigen."</v>
+        <v> AIR_VIEW_SHOW_LAST_SORTIE: "§H§H Letzter Einsatz §!§! \nErgebnisse des letzten Einsatzes anzeigen."</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8351,11 +8351,11 @@
       </c>
       <c r="C352" s="1" t="str">
         <f aca="false">A352 &amp;" " &amp;"""" &amp;B352 &amp;""""</f>
-        <v> AIR_VIEW_SHOW_LAST_DAY: "§HLetzter Tag§!\nErgebnisse der letzten 24 Stunden anzeigen."</v>
+        <v> AIR_VIEW_SHOW_LAST_DAY: "§H§H Letzter Tag §!§! \nErgebnisse der letzten 24 Stunden anzeigen."</v>
       </c>
       <c r="D352" s="1" t="str">
         <f aca="false">IF(ISBLANK(A352),"",C352)</f>
-        <v> AIR_VIEW_SHOW_LAST_DAY: "§HLetzter Tag§!\nErgebnisse der letzten 24 Stunden anzeigen."</v>
+        <v> AIR_VIEW_SHOW_LAST_DAY: "§H§H Letzter Tag §!§! \nErgebnisse der letzten 24 Stunden anzeigen."</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8367,11 +8367,11 @@
       </c>
       <c r="C353" s="1" t="str">
         <f aca="false">A353 &amp;" " &amp;"""" &amp;B353 &amp;""""</f>
-        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_FRIEND: "§HUnsere durchschnittliche Missionseffizienz§!\nEffizienz: $VAL_HIGH|G%$$VAL_MID|H%$$VAL_LOW|R%$"</v>
+        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_FRIEND: "§H§H Unsere durchschnittliche Missionseffizienz §!§! \nEffizienz: $VAL_HIGH|G%$$VAL_MID|H%$$VAL_LOW|R%$"</v>
       </c>
       <c r="D353" s="1" t="str">
         <f aca="false">IF(ISBLANK(A353),"",C353)</f>
-        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_FRIEND: "§HUnsere durchschnittliche Missionseffizienz§!\nEffizienz: $VAL_HIGH|G%$$VAL_MID|H%$$VAL_LOW|R%$"</v>
+        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_FRIEND: "§H§H Unsere durchschnittliche Missionseffizienz §!§! \nEffizienz: $VAL_HIGH|G%$$VAL_MID|H%$$VAL_LOW|R%$"</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8383,11 +8383,11 @@
       </c>
       <c r="C354" s="1" t="str">
         <f aca="false">A354 &amp;" " &amp;"""" &amp;B354 &amp;""""</f>
-        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_ENEMY: "§HDurchschnittliche Missionseffizienz des Feindes§!\nEffizienz: $VAL|H%$"</v>
+        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_ENEMY: "§H§H Durchschnittliche Missionseffizienz des Feindes §!§! \nEffizienz: $VAL|H%$"</v>
       </c>
       <c r="D354" s="1" t="str">
         <f aca="false">IF(ISBLANK(A354),"",C354)</f>
-        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_ENEMY: "§HDurchschnittliche Missionseffizienz des Feindes§!\nEffizienz: $VAL|H%$"</v>
+        <v> AIR_VIEW_AVERAGE_MISSION_EFFICIENCY_ENEMY: "§H§H Durchschnittliche Missionseffizienz des Feindes §!§! \nEffizienz: $VAL|H%$"</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,11 +8399,11 @@
       </c>
       <c r="C355" s="1" t="str">
         <f aca="false">A355 &amp;" " &amp;"""" &amp;B355 &amp;""""</f>
-        <v> AIR_VIEW_AVERAGE_COVERAGE_CAPACITY_SUPPLY: "§HGeschwaderspezifischer Durchschnitt§!: $VAL|H%$\n(Abdeckung, Luftwaffenstützpunkt-Kapazität und Nachschub)"</v>
+        <v> AIR_VIEW_AVERAGE_COVERAGE_CAPACITY_SUPPLY: "§H§H Geschwaderspezifischer Durchschnitt §!§! : $VAL|H%$\n(Abdeckung, Luftwaffenstützpunkt-Kapazität und Nachschub)"</v>
       </c>
       <c r="D355" s="1" t="str">
         <f aca="false">IF(ISBLANK(A355),"",C355)</f>
-        <v> AIR_VIEW_AVERAGE_COVERAGE_CAPACITY_SUPPLY: "§HGeschwaderspezifischer Durchschnitt§!: $VAL|H%$\n(Abdeckung, Luftwaffenstützpunkt-Kapazität und Nachschub)"</v>
+        <v> AIR_VIEW_AVERAGE_COVERAGE_CAPACITY_SUPPLY: "§H§H Geschwaderspezifischer Durchschnitt §!§! : $VAL|H%$\n(Abdeckung, Luftwaffenstützpunkt-Kapazität und Nachschub)"</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8431,11 +8431,11 @@
       </c>
       <c r="C357" s="1" t="str">
         <f aca="false">A357 &amp;" " &amp;"""" &amp;B357 &amp;""""</f>
-        <v> AIR_VIEW_AIR_ATTACK_HIGHER: "Unser durchschnittlicher §HLuftangriff§! ist §Ghöher§! als ihre §HLuftverteidigung§!"</v>
+        <v> AIR_VIEW_AIR_ATTACK_HIGHER: "Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G höher §!§!  als ihre §H§H Luftverteidigung §!§! "</v>
       </c>
       <c r="D357" s="1" t="str">
         <f aca="false">IF(ISBLANK(A357),"",C357)</f>
-        <v> AIR_VIEW_AIR_ATTACK_HIGHER: "Unser durchschnittlicher §HLuftangriff§! ist §Ghöher§! als ihre §HLuftverteidigung§!"</v>
+        <v> AIR_VIEW_AIR_ATTACK_HIGHER: "Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G höher §!§!  als ihre §H§H Luftverteidigung §!§! "</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,11 +8447,11 @@
       </c>
       <c r="C358" s="1" t="str">
         <f aca="false">A358 &amp;" " &amp;"""" &amp;B358 &amp;""""</f>
-        <v> AIR_VIEW_AIR_ATTACK_LOWER: "Unser durchschnittlicher §HLuftangriff§! ist §Gniedriger§! als ihre §HLuftverteidigung§!"</v>
+        <v> AIR_VIEW_AIR_ATTACK_LOWER: "Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G niedriger §!§!  als ihre §H§H Luftverteidigung §!§! "</v>
       </c>
       <c r="D358" s="1" t="str">
         <f aca="false">IF(ISBLANK(A358),"",C358)</f>
-        <v> AIR_VIEW_AIR_ATTACK_LOWER: "Unser durchschnittlicher §HLuftangriff§! ist §Gniedriger§! als ihre §HLuftverteidigung§!"</v>
+        <v> AIR_VIEW_AIR_ATTACK_LOWER: "Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G niedriger §!§!  als ihre §H§H Luftverteidigung §!§! "</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8463,11 +8463,11 @@
       </c>
       <c r="C359" s="1" t="str">
         <f aca="false">A359 &amp;" " &amp;"""" &amp;B359 &amp;""""</f>
-        <v> AIR_VIEW_AIR_ATTACK_EQUAL: "Unser durchschnittlicher §HLuftangriff§! ist §Ggleich hoch§! wie ihre §HLuftverteidigung§!"</v>
+        <v> AIR_VIEW_AIR_ATTACK_EQUAL: "Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G gleich hoch §!§!  wie ihre §H§H Luftverteidigung §!§! "</v>
       </c>
       <c r="D359" s="1" t="str">
         <f aca="false">IF(ISBLANK(A359),"",C359)</f>
-        <v> AIR_VIEW_AIR_ATTACK_EQUAL: "Unser durchschnittlicher §HLuftangriff§! ist §Ggleich hoch§! wie ihre §HLuftverteidigung§!"</v>
+        <v> AIR_VIEW_AIR_ATTACK_EQUAL: "Unser durchschnittlicher §H§H Luftangriff §!§!  ist §G§G gleich hoch §!§!  wie ihre §H§H Luftverteidigung §!§! "</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8479,11 +8479,11 @@
       </c>
       <c r="C360" s="1" t="str">
         <f aca="false">A360 &amp;" " &amp;"""" &amp;B360 &amp;""""</f>
-        <v> AIR_VIEW_AIR_DEFENSE_HIGHER: "Unsere durchschnittliche §HLuftverteidigung§! ist §Ghöher§! als ihr §HLuftangriff§!"</v>
+        <v> AIR_VIEW_AIR_DEFENSE_HIGHER: "Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G höher §!§!  als ihr §H§H Luftangriff §!§! "</v>
       </c>
       <c r="D360" s="1" t="str">
         <f aca="false">IF(ISBLANK(A360),"",C360)</f>
-        <v> AIR_VIEW_AIR_DEFENSE_HIGHER: "Unsere durchschnittliche §HLuftverteidigung§! ist §Ghöher§! als ihr §HLuftangriff§!"</v>
+        <v> AIR_VIEW_AIR_DEFENSE_HIGHER: "Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G höher §!§!  als ihr §H§H Luftangriff §!§! "</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8495,11 +8495,11 @@
       </c>
       <c r="C361" s="1" t="str">
         <f aca="false">A361 &amp;" " &amp;"""" &amp;B361 &amp;""""</f>
-        <v> AIR_VIEW_AIR_DEFENSE_LOWER: "Unsere durchschnittliche §HLuftverteidigung§! ist §Gniedriger§! als ihr §HLuftangriff§!"</v>
+        <v> AIR_VIEW_AIR_DEFENSE_LOWER: "Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G niedriger §!§!  als ihr §H§H Luftangriff §!§! "</v>
       </c>
       <c r="D361" s="1" t="str">
         <f aca="false">IF(ISBLANK(A361),"",C361)</f>
-        <v> AIR_VIEW_AIR_DEFENSE_LOWER: "Unsere durchschnittliche §HLuftverteidigung§! ist §Gniedriger§! als ihr §HLuftangriff§!"</v>
+        <v> AIR_VIEW_AIR_DEFENSE_LOWER: "Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G niedriger §!§!  als ihr §H§H Luftangriff §!§! "</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8511,11 +8511,11 @@
       </c>
       <c r="C362" s="1" t="str">
         <f aca="false">A362 &amp;" " &amp;"""" &amp;B362 &amp;""""</f>
-        <v> AIR_VIEW_AIR_DEFENSE_EQUAL: "Unsere durchschnittliche §HLuftverteidigung§! ist §Ggleich hoch§! wie ihr §HLuftangriff§!"</v>
+        <v> AIR_VIEW_AIR_DEFENSE_EQUAL: "Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G gleich hoch §!§!  wie ihr §H§H Luftangriff §!§! "</v>
       </c>
       <c r="D362" s="1" t="str">
         <f aca="false">IF(ISBLANK(A362),"",C362)</f>
-        <v> AIR_VIEW_AIR_DEFENSE_EQUAL: "Unsere durchschnittliche §HLuftverteidigung§! ist §Ggleich hoch§! wie ihr §HLuftangriff§!"</v>
+        <v> AIR_VIEW_AIR_DEFENSE_EQUAL: "Unsere durchschnittliche §H§H Luftverteidigung §!§!  ist §G§G gleich hoch §!§!  wie ihr §H§H Luftangriff §!§! "</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8527,11 +8527,11 @@
       </c>
       <c r="C363" s="1" t="str">
         <f aca="false">A363 &amp;" " &amp;"""" &amp;B363 &amp;""""</f>
-        <v> AIR_VIEW_AIR_AGILITY_HIGHER: "Unsere durchschnittliche §HMobilität§! ist §Ghöher§! als ihre"</v>
+        <v> AIR_VIEW_AIR_AGILITY_HIGHER: "Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G höher §!§!  als ihre"</v>
       </c>
       <c r="D363" s="1" t="str">
         <f aca="false">IF(ISBLANK(A363),"",C363)</f>
-        <v> AIR_VIEW_AIR_AGILITY_HIGHER: "Unsere durchschnittliche §HMobilität§! ist §Ghöher§! als ihre"</v>
+        <v> AIR_VIEW_AIR_AGILITY_HIGHER: "Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G höher §!§!  als ihre"</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8543,11 +8543,11 @@
       </c>
       <c r="C364" s="1" t="str">
         <f aca="false">A364 &amp;" " &amp;"""" &amp;B364 &amp;""""</f>
-        <v> AIR_VIEW_AIR_AGILITY_LOWER: "Unsere durchschnittliche §HMobilität§! ist §Gniedriger§! als ihre"</v>
+        <v> AIR_VIEW_AIR_AGILITY_LOWER: "Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G niedriger §!§!  als ihre"</v>
       </c>
       <c r="D364" s="1" t="str">
         <f aca="false">IF(ISBLANK(A364),"",C364)</f>
-        <v> AIR_VIEW_AIR_AGILITY_LOWER: "Unsere durchschnittliche §HMobilität§! ist §Gniedriger§! als ihre"</v>
+        <v> AIR_VIEW_AIR_AGILITY_LOWER: "Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G niedriger §!§!  als ihre"</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8559,11 +8559,11 @@
       </c>
       <c r="C365" s="1" t="str">
         <f aca="false">A365 &amp;" " &amp;"""" &amp;B365 &amp;""""</f>
-        <v> AIR_VIEW_AIR_AGILITY_EQUAL: "Unsere durchschnittliche §HMobilität§! ist §Ggleich hoch§! wie ihre"</v>
+        <v> AIR_VIEW_AIR_AGILITY_EQUAL: "Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G gleich hoch §!§!  wie ihre"</v>
       </c>
       <c r="D365" s="1" t="str">
         <f aca="false">IF(ISBLANK(A365),"",C365)</f>
-        <v> AIR_VIEW_AIR_AGILITY_EQUAL: "Unsere durchschnittliche §HMobilität§! ist §Ggleich hoch§! wie ihre"</v>
+        <v> AIR_VIEW_AIR_AGILITY_EQUAL: "Unsere durchschnittliche §H§H Mobilität §!§!  ist §G§G gleich hoch §!§!  wie ihre"</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8575,11 +8575,11 @@
       </c>
       <c r="C366" s="1" t="str">
         <f aca="false">A366 &amp;" " &amp;"""" &amp;B366 &amp;""""</f>
-        <v> AIR_VIEW_AIR_SPEED_HIGHER: "Unsere durchschnittliche §HGeschwindigkeit§! ist §Ghöher§! als ihre"</v>
+        <v> AIR_VIEW_AIR_SPEED_HIGHER: "Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G höher §!§!  als ihre"</v>
       </c>
       <c r="D366" s="1" t="str">
         <f aca="false">IF(ISBLANK(A366),"",C366)</f>
-        <v> AIR_VIEW_AIR_SPEED_HIGHER: "Unsere durchschnittliche §HGeschwindigkeit§! ist §Ghöher§! als ihre"</v>
+        <v> AIR_VIEW_AIR_SPEED_HIGHER: "Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G höher §!§!  als ihre"</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8591,11 +8591,11 @@
       </c>
       <c r="C367" s="1" t="str">
         <f aca="false">A367 &amp;" " &amp;"""" &amp;B367 &amp;""""</f>
-        <v> AIR_VIEW_AIR_SPEED_LOWER: "Unsere durchschnittliche §HGeschwindigkeit§! ist §Gniedriger§! als ihre"</v>
+        <v> AIR_VIEW_AIR_SPEED_LOWER: "Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G niedriger §!§!  als ihre"</v>
       </c>
       <c r="D367" s="1" t="str">
         <f aca="false">IF(ISBLANK(A367),"",C367)</f>
-        <v> AIR_VIEW_AIR_SPEED_LOWER: "Unsere durchschnittliche §HGeschwindigkeit§! ist §Gniedriger§! als ihre"</v>
+        <v> AIR_VIEW_AIR_SPEED_LOWER: "Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G niedriger §!§!  als ihre"</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8607,11 +8607,11 @@
       </c>
       <c r="C368" s="1" t="str">
         <f aca="false">A368 &amp;" " &amp;"""" &amp;B368 &amp;""""</f>
-        <v> AIR_VIEW_AIR_SPEED_EQUAL: "Unsere durchschnittliche §HGeschwindigkeit§! ist §Ggleich hoch§! wie ihre"</v>
+        <v> AIR_VIEW_AIR_SPEED_EQUAL: "Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G gleich hoch §!§!  wie ihre"</v>
       </c>
       <c r="D368" s="1" t="str">
         <f aca="false">IF(ISBLANK(A368),"",C368)</f>
-        <v> AIR_VIEW_AIR_SPEED_EQUAL: "Unsere durchschnittliche §HGeschwindigkeit§! ist §Ggleich hoch§! wie ihre"</v>
+        <v> AIR_VIEW_AIR_SPEED_EQUAL: "Unsere durchschnittliche §H§H Geschwindigkeit §!§!  ist §G§G gleich hoch §!§!  wie ihre"</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8623,11 +8623,11 @@
       </c>
       <c r="C369" s="1" t="str">
         <f aca="false">A369 &amp;" " &amp;"""" &amp;B369 &amp;""""</f>
-        <v> AIR_VIEW_FILTER_CLICK: "§GKlicken§!, um die Ansicht dieser Mission ein- / auszuschalten.\n§GUmschalt+klicken§!, um nur diese Mission zu sehen."</v>
+        <v> AIR_VIEW_FILTER_CLICK: "§G§G Klicken §!§! , um die Ansicht dieser Mission ein- / auszuschalten.\n§G§G Umschalt+klicken §!§! , um nur diese Mission zu sehen."</v>
       </c>
       <c r="D369" s="1" t="str">
         <f aca="false">IF(ISBLANK(A369),"",C369)</f>
-        <v> AIR_VIEW_FILTER_CLICK: "§GKlicken§!, um die Ansicht dieser Mission ein- / auszuschalten.\n§GUmschalt+klicken§!, um nur diese Mission zu sehen."</v>
+        <v> AIR_VIEW_FILTER_CLICK: "§G§G Klicken §!§! , um die Ansicht dieser Mission ein- / auszuschalten.\n§G§G Umschalt+klicken §!§! , um nur diese Mission zu sehen."</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8655,11 +8655,11 @@
       </c>
       <c r="C371" s="1" t="str">
         <f aca="false">A371 &amp;" " &amp;"""" &amp;B371 &amp;""""</f>
-        <v> SELECT_BOMBING_PRIORITIES: "§HStrategische Luftprioritäten auswählen§!"</v>
+        <v> SELECT_BOMBING_PRIORITIES: "§H§H Strategische Luftprioritäten auswählen §!§! "</v>
       </c>
       <c r="D371" s="1" t="str">
         <f aca="false">IF(ISBLANK(A371),"",C371)</f>
-        <v> SELECT_BOMBING_PRIORITIES: "§HStrategische Luftprioritäten auswählen§!"</v>
+        <v> SELECT_BOMBING_PRIORITIES: "§H§H Strategische Luftprioritäten auswählen §!§! "</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8671,11 +8671,11 @@
       </c>
       <c r="C372" s="1" t="str">
         <f aca="false">A372 &amp;" " &amp;"""" &amp;B372 &amp;""""</f>
-        <v> AIR_VIEW_DETECTION_HEADER_OUR: "§HUnsere Luftortung§!"</v>
+        <v> AIR_VIEW_DETECTION_HEADER_OUR: "§H§H Unsere Luftortung §!§! "</v>
       </c>
       <c r="D372" s="1" t="str">
         <f aca="false">IF(ISBLANK(A372),"",C372)</f>
-        <v> AIR_VIEW_DETECTION_HEADER_OUR: "§HUnsere Luftortung§!"</v>
+        <v> AIR_VIEW_DETECTION_HEADER_OUR: "§H§H Unsere Luftortung §!§! "</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8687,11 +8687,11 @@
       </c>
       <c r="C373" s="1" t="str">
         <f aca="false">A373 &amp;" " &amp;"""" &amp;B373 &amp;""""</f>
-        <v> AIR_VIEW_DETECTION_HEADER_ENEMY: "§HFeindliche Luftortung§!"</v>
+        <v> AIR_VIEW_DETECTION_HEADER_ENEMY: "§H§H Feindliche Luftortung §!§! "</v>
       </c>
       <c r="D373" s="1" t="str">
         <f aca="false">IF(ISBLANK(A373),"",C373)</f>
-        <v> AIR_VIEW_DETECTION_HEADER_ENEMY: "§HFeindliche Luftortung§!"</v>
+        <v> AIR_VIEW_DETECTION_HEADER_ENEMY: "§H§H Feindliche Luftortung §!§! "</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8703,11 +8703,11 @@
       </c>
       <c r="C374" s="1" t="str">
         <f aca="false">A374 &amp;" " &amp;"""" &amp;B374 &amp;""""</f>
-        <v> AIR_VIEW_DETECTION_DESC: "Je höher die §YLuftortung§! in einem Gebiet ist, desto einfacher ist es, feindliche Flugzeuge aufzuspüren und anzugreifen. Wirkt sich auf die Anzahl der aktiven Flugzeuge aus, die am Kampf teilnehmen."</v>
+        <v> AIR_VIEW_DETECTION_DESC: "Je höher die §Y§Y Luftortung §!§!  in einem Gebiet ist, desto einfacher ist es, feindliche Flugzeuge aufzuspüren und anzugreifen. Wirkt sich auf die Anzahl der aktiven Flugzeuge aus, die am Kampf teilnehmen."</v>
       </c>
       <c r="D374" s="1" t="str">
         <f aca="false">IF(ISBLANK(A374),"",C374)</f>
-        <v> AIR_VIEW_DETECTION_DESC: "Je höher die §YLuftortung§! in einem Gebiet ist, desto einfacher ist es, feindliche Flugzeuge aufzuspüren und anzugreifen. Wirkt sich auf die Anzahl der aktiven Flugzeuge aus, die am Kampf teilnehmen."</v>
+        <v> AIR_VIEW_DETECTION_DESC: "Je höher die §Y§Y Luftortung §!§!  in einem Gebiet ist, desto einfacher ist es, feindliche Flugzeuge aufzuspüren und anzugreifen. Wirkt sich auf die Anzahl der aktiven Flugzeuge aus, die am Kampf teilnehmen."</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8719,11 +8719,11 @@
       </c>
       <c r="C375" s="1" t="str">
         <f aca="false">A375 &amp;" " &amp;"""" &amp;B375 &amp;""""</f>
-        <v> AIR_VIEW_AIRPLANES_IN_COMBAT_FIGHTERS: "Anzahl der Flugzeuge, die in der letzten Phase am Kampf beteiligt waren.\nDie Anzahl der aktiven Flugzeuge, die am Kampf teilnehmen, wird duch die §HLuftortung§! beeinflusst."</v>
+        <v> AIR_VIEW_AIRPLANES_IN_COMBAT_FIGHTERS: "Anzahl der Flugzeuge, die in der letzten Phase am Kampf beteiligt waren.\nDie Anzahl der aktiven Flugzeuge, die am Kampf teilnehmen, wird duch die §H§H Luftortung §!§!  beeinflusst."</v>
       </c>
       <c r="D375" s="1" t="str">
         <f aca="false">IF(ISBLANK(A375),"",C375)</f>
-        <v> AIR_VIEW_AIRPLANES_IN_COMBAT_FIGHTERS: "Anzahl der Flugzeuge, die in der letzten Phase am Kampf beteiligt waren.\nDie Anzahl der aktiven Flugzeuge, die am Kampf teilnehmen, wird duch die §HLuftortung§! beeinflusst."</v>
+        <v> AIR_VIEW_AIRPLANES_IN_COMBAT_FIGHTERS: "Anzahl der Flugzeuge, die in der letzten Phase am Kampf beteiligt waren.\nDie Anzahl der aktiven Flugzeuge, die am Kampf teilnehmen, wird duch die §H§H Luftortung §!§!  beeinflusst."</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,11 +8735,11 @@
       </c>
       <c r="C376" s="1" t="str">
         <f aca="false">A376 &amp;" " &amp;"""" &amp;B376 &amp;""""</f>
-        <v> AIR_VIEW_AIRPLANES_IN_COMBAT: "Anzahl der Flugzeuge, die in der letzten Phase §HBodenmissionen§! ausgeführt haben.\n\nEine Zahl in (§HKlammern§!) zeigt Flugzeuge an, die durch diese Region hindurchfliegen, um weiter entfernte Einsätze zu erreichen."</v>
+        <v> AIR_VIEW_AIRPLANES_IN_COMBAT: "Anzahl der Flugzeuge, die in der letzten Phase §H§H Bodenmissionen §!§!  ausgeführt haben.\n\nEine Zahl in (§H§H Klammern §!§! ) zeigt Flugzeuge an, die durch diese Region hindurchfliegen, um weiter entfernte Einsätze zu erreichen."</v>
       </c>
       <c r="D376" s="1" t="str">
         <f aca="false">IF(ISBLANK(A376),"",C376)</f>
-        <v> AIR_VIEW_AIRPLANES_IN_COMBAT: "Anzahl der Flugzeuge, die in der letzten Phase §HBodenmissionen§! ausgeführt haben.\n\nEine Zahl in (§HKlammern§!) zeigt Flugzeuge an, die durch diese Region hindurchfliegen, um weiter entfernte Einsätze zu erreichen."</v>
+        <v> AIR_VIEW_AIRPLANES_IN_COMBAT: "Anzahl der Flugzeuge, die in der letzten Phase §H§H Bodenmissionen §!§!  ausgeführt haben.\n\nEine Zahl in (§H§H Klammern §!§! ) zeigt Flugzeuge an, die durch diese Region hindurchfliegen, um weiter entfernte Einsätze zu erreichen."</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8799,11 +8799,11 @@
       </c>
       <c r="C380" s="1" t="str">
         <f aca="false">A380 &amp;" " &amp;"""" &amp;B380 &amp;""""</f>
-        <v> AIR_SUPPLY_VERY_LOW_SUPPLY: "§RWir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region!§!"</v>
+        <v> AIR_SUPPLY_VERY_LOW_SUPPLY: "§R§R Wir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region! §!§! "</v>
       </c>
       <c r="D380" s="1" t="str">
         <f aca="false">IF(ISBLANK(A380),"",C380)</f>
-        <v> AIR_SUPPLY_VERY_LOW_SUPPLY: "§RWir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region!§!"</v>
+        <v> AIR_SUPPLY_VERY_LOW_SUPPLY: "§R§R Wir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region! §!§! "</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8815,11 +8815,11 @@
       </c>
       <c r="C381" s="1" t="str">
         <f aca="false">A381 &amp;" " &amp;"""" &amp;B381 &amp;""""</f>
-        <v> AIR_SUPPLY_LOW_SUPPLY: "§RWir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region!§!"</v>
+        <v> AIR_SUPPLY_LOW_SUPPLY: "§R§R Wir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region! §!§! "</v>
       </c>
       <c r="D381" s="1" t="str">
         <f aca="false">IF(ISBLANK(A381),"",C381)</f>
-        <v> AIR_SUPPLY_LOW_SUPPLY: "§RWir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region!§!"</v>
+        <v> AIR_SUPPLY_LOW_SUPPLY: "§R§R Wir benötigen $NEED|H1$ mehr Versorgung in der strategischen Region! §!§! "</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8831,11 +8831,11 @@
       </c>
       <c r="C382" s="1" t="str">
         <f aca="false">A382 &amp;" " &amp;"""" &amp;B382 &amp;""""</f>
-        <v> AIR_SUPPLY_NORMAL_SUPPLY: "§GLuftversorgung unterstützt $VAL|H1$/$MAX|H1$ Nachschubdefizit in dieser strategischen Region§!"</v>
+        <v> AIR_SUPPLY_NORMAL_SUPPLY: "§G§G Luftversorgung unterstützt $VAL|H1$/$MAX|H1$ Nachschubdefizit in dieser strategischen Region §!§! "</v>
       </c>
       <c r="D382" s="1" t="str">
         <f aca="false">IF(ISBLANK(A382),"",C382)</f>
-        <v> AIR_SUPPLY_NORMAL_SUPPLY: "§GLuftversorgung unterstützt $VAL|H1$/$MAX|H1$ Nachschubdefizit in dieser strategischen Region§!"</v>
+        <v> AIR_SUPPLY_NORMAL_SUPPLY: "§G§G Luftversorgung unterstützt $VAL|H1$/$MAX|H1$ Nachschubdefizit in dieser strategischen Region §!§! "</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8863,11 +8863,11 @@
       </c>
       <c r="C384" s="1" t="str">
         <f aca="false">A384 &amp;" " &amp;"""" &amp;B384 &amp;""""</f>
-        <v> AIR_MORE_GROUND_CREWS_CANCEL_DESC: "Den Effizienzboost für $NAME|H$ §Raufheben§!"</v>
+        <v> AIR_MORE_GROUND_CREWS_CANCEL_DESC: "Den Effizienzboost für $NAME|H$ §R§R aufheben §!§! "</v>
       </c>
       <c r="D384" s="1" t="str">
         <f aca="false">IF(ISBLANK(A384),"",C384)</f>
-        <v> AIR_MORE_GROUND_CREWS_CANCEL_DESC: "Den Effizienzboost für $NAME|H$ §Raufheben§!"</v>
+        <v> AIR_MORE_GROUND_CREWS_CANCEL_DESC: "Den Effizienzboost für $NAME|H$ §R§R aufheben §!§! "</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8895,11 +8895,11 @@
       </c>
       <c r="C386" s="1" t="str">
         <f aca="false">A386 &amp;" " &amp;"""" &amp;B386 &amp;""""</f>
-        <v> AIR_MORE_GROUND_CREWS_NOT_ENOUGH: "§RNicht genügend Befehlsmacht.§!"</v>
+        <v> AIR_MORE_GROUND_CREWS_NOT_ENOUGH: "§R§R Nicht genügend Befehlsmacht. §!§! "</v>
       </c>
       <c r="D386" s="1" t="str">
         <f aca="false">IF(ISBLANK(A386),"",C386)</f>
-        <v> AIR_MORE_GROUND_CREWS_NOT_ENOUGH: "§RNicht genügend Befehlsmacht.§!"</v>
+        <v> AIR_MORE_GROUND_CREWS_NOT_ENOUGH: "§R§R Nicht genügend Befehlsmacht. §!§! "</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8943,11 +8943,11 @@
       </c>
       <c r="C389" s="1" t="str">
         <f aca="false">A389 &amp;" " &amp;"""" &amp;B389 &amp;""""</f>
-        <v> AIR_REINFORCE_OBSOLETE_ONLY: "§HReserve-Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt nur durch veraltete Flugzeuge."</v>
+        <v> AIR_REINFORCE_OBSOLETE_ONLY: "§H§H Reserve-Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt nur durch veraltete Flugzeuge."</v>
       </c>
       <c r="D389" s="1" t="str">
         <f aca="false">IF(ISBLANK(A389),"",C389)</f>
-        <v> AIR_REINFORCE_OBSOLETE_ONLY: "§HReserve-Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt nur durch veraltete Flugzeuge."</v>
+        <v> AIR_REINFORCE_OBSOLETE_ONLY: "§H§H Reserve-Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt nur durch veraltete Flugzeuge."</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8959,11 +8959,11 @@
       </c>
       <c r="C390" s="1" t="str">
         <f aca="false">A390 &amp;" " &amp;"""" &amp;B390 &amp;""""</f>
-        <v> AIR_REINFORCE_ANY: "§HNormales Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt durch aktuelle und veraltete Flugzeuge."</v>
+        <v> AIR_REINFORCE_ANY: "§H§H Normales Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt durch aktuelle und veraltete Flugzeuge."</v>
       </c>
       <c r="D390" s="1" t="str">
         <f aca="false">IF(ISBLANK(A390),"",C390)</f>
-        <v> AIR_REINFORCE_ANY: "§HNormales Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt durch aktuelle und veraltete Flugzeuge."</v>
+        <v> AIR_REINFORCE_ANY: "§H§H Normales Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt durch aktuelle und veraltete Flugzeuge."</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8975,11 +8975,11 @@
       </c>
       <c r="C391" s="1" t="str">
         <f aca="false">A391 &amp;" " &amp;"""" &amp;B391 &amp;""""</f>
-        <v> AIR_REINFORCE_ONLY_NEW: "§HElite-Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt nur durch aktuelle Flugzeuge."</v>
+        <v> AIR_REINFORCE_ONLY_NEW: "§H§H Elite-Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt nur durch aktuelle Flugzeuge."</v>
       </c>
       <c r="D391" s="1" t="str">
         <f aca="false">IF(ISBLANK(A391),"",C391)</f>
-        <v> AIR_REINFORCE_ONLY_NEW: "§HElite-Luftgeschwader§!\nVerstärkung des §HLuftgeschwaders§! erfolgt nur durch aktuelle Flugzeuge."</v>
+        <v> AIR_REINFORCE_ONLY_NEW: "§H§H Elite-Luftgeschwader §!§! \nVerstärkung des §H§H Luftgeschwaders §!§!  erfolgt nur durch aktuelle Flugzeuge."</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8991,11 +8991,11 @@
       </c>
       <c r="C392" s="1" t="str">
         <f aca="false">A392 &amp;" " &amp;"""" &amp;B392 &amp;""""</f>
-        <v> AIR_REINFORCE_ONLY_SAME: "§HSpezialisiertes Luftgeschwader§!\nVerstärkung erfolgt nur durch Flugzeugmodelle, die bereits im  §HLuftgeschwader§! enthalten sind."</v>
+        <v> AIR_REINFORCE_ONLY_SAME: "§H§H Spezialisiertes Luftgeschwader §!§! \nVerstärkung erfolgt nur durch Flugzeugmodelle, die bereits im  §H§H Luftgeschwader §!§!  enthalten sind."</v>
       </c>
       <c r="D392" s="1" t="str">
         <f aca="false">IF(ISBLANK(A392),"",C392)</f>
-        <v> AIR_REINFORCE_ONLY_SAME: "§HSpezialisiertes Luftgeschwader§!\nVerstärkung erfolgt nur durch Flugzeugmodelle, die bereits im  §HLuftgeschwader§! enthalten sind."</v>
+        <v> AIR_REINFORCE_ONLY_SAME: "§H§H Spezialisiertes Luftgeschwader §!§! \nVerstärkung erfolgt nur durch Flugzeugmodelle, die bereits im  §H§H Luftgeschwader §!§!  enthalten sind."</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,11 +9007,11 @@
       </c>
       <c r="C393" s="1" t="str">
         <f aca="false">A393 &amp;" " &amp;"""" &amp;B393 &amp;""""</f>
-        <v> AIR_REINFORCE_DESC: "Um die Verstärkungsregeln zu ändern, müssen Sie das Luftgeschwader §Hreorganisieren§!."</v>
+        <v> AIR_REINFORCE_DESC: "Um die Verstärkungsregeln zu ändern, müssen Sie das Luftgeschwader §H§H reorganisieren §!§! ."</v>
       </c>
       <c r="D393" s="1" t="str">
         <f aca="false">IF(ISBLANK(A393),"",C393)</f>
-        <v> AIR_REINFORCE_DESC: "Um die Verstärkungsregeln zu ändern, müssen Sie das Luftgeschwader §Hreorganisieren§!."</v>
+        <v> AIR_REINFORCE_DESC: "Um die Verstärkungsregeln zu ändern, müssen Sie das Luftgeschwader §H§H reorganisieren §!§! ."</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,11 +9039,11 @@
       </c>
       <c r="C395" s="1" t="str">
         <f aca="false">A395 &amp;" " &amp;"""" &amp;B395 &amp;""""</f>
-        <v> DUPLICATE_WINGS_BLOCK: "§RUm Luftgeschwader zu duplizieren, müssen Sie mindestens ein Luftgeschwader auswählen, das Flugzeugtypen enthält, welche auch in Ihrem Lager enthalten sind.§!"</v>
+        <v> DUPLICATE_WINGS_BLOCK: "§R§R Um Luftgeschwader zu duplizieren, müssen Sie mindestens ein Luftgeschwader auswählen, das Flugzeugtypen enthält, welche auch in Ihrem Lager enthalten sind. §!§! "</v>
       </c>
       <c r="D395" s="1" t="str">
         <f aca="false">IF(ISBLANK(A395),"",C395)</f>
-        <v> DUPLICATE_WINGS_BLOCK: "§RUm Luftgeschwader zu duplizieren, müssen Sie mindestens ein Luftgeschwader auswählen, das Flugzeugtypen enthält, welche auch in Ihrem Lager enthalten sind.§!"</v>
+        <v> DUPLICATE_WINGS_BLOCK: "§R§R Um Luftgeschwader zu duplizieren, müssen Sie mindestens ein Luftgeschwader auswählen, das Flugzeugtypen enthält, welche auch in Ihrem Lager enthalten sind. §!§! "</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9055,11 +9055,11 @@
       </c>
       <c r="C396" s="1" t="str">
         <f aca="false">A396 &amp;" " &amp;"""" &amp;B396 &amp;""""</f>
-        <v> AIRWING_SET_REINF_LIMIT_WARNING_DISBAND: "§RDieses Geschwader wird aufgelöst und alle seine Flugzeuge kehren zurück in die Reserve.§!"</v>
+        <v> AIRWING_SET_REINF_LIMIT_WARNING_DISBAND: "§R§R Dieses Geschwader wird aufgelöst und alle seine Flugzeuge kehren zurück in die Reserve. §!§! "</v>
       </c>
       <c r="D396" s="1" t="str">
         <f aca="false">IF(ISBLANK(A396),"",C396)</f>
-        <v> AIRWING_SET_REINF_LIMIT_WARNING_DISBAND: "§RDieses Geschwader wird aufgelöst und alle seine Flugzeuge kehren zurück in die Reserve.§!"</v>
+        <v> AIRWING_SET_REINF_LIMIT_WARNING_DISBAND: "§R§R Dieses Geschwader wird aufgelöst und alle seine Flugzeuge kehren zurück in die Reserve. §!§! "</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9279,11 +9279,11 @@
       </c>
       <c r="C410" s="1" t="str">
         <f aca="false">A410 &amp;" " &amp;"""" &amp;B410 &amp;""""</f>
-        <v> QUICK_DEPLOY_WING_ENABLE_DESC: "Luftgeschwader vom Typ $PLANE_TYPE|H$ hinzufügen.\nDerzeit befinden sich $COUNT|H$ $PLANE_TYPE$-Flugzeuge im Lager.\n\n§GKlicken§!, um §H1§! hinzuzufügen\n§GStrg+Klick§!, um §H5§! hinzuzufügen\n§GUmschalt+Klick§!, um §H10§! hinzuzufügen"</v>
+        <v> QUICK_DEPLOY_WING_ENABLE_DESC: "Luftgeschwader vom Typ $PLANE_TYPE|H$ hinzufügen.\nDerzeit befinden sich $COUNT|H$ $PLANE_TYPE$-Flugzeuge im Lager.\n\n§G§G Klicken §!§! , um §H§H 1 §!§!  hinzuzufügen\n§G§G Strg+Klick §!§! , um §H§H 5 §!§!  hinzuzufügen\n§G§G Umschalt+Klick §!§! , um §H§H 10 §!§!  hinzuzufügen"</v>
       </c>
       <c r="D410" s="1" t="str">
         <f aca="false">IF(ISBLANK(A410),"",C410)</f>
-        <v> QUICK_DEPLOY_WING_ENABLE_DESC: "Luftgeschwader vom Typ $PLANE_TYPE|H$ hinzufügen.\nDerzeit befinden sich $COUNT|H$ $PLANE_TYPE$-Flugzeuge im Lager.\n\n§GKlicken§!, um §H1§! hinzuzufügen\n§GStrg+Klick§!, um §H5§! hinzuzufügen\n§GUmschalt+Klick§!, um §H10§! hinzuzufügen"</v>
+        <v> QUICK_DEPLOY_WING_ENABLE_DESC: "Luftgeschwader vom Typ $PLANE_TYPE|H$ hinzufügen.\nDerzeit befinden sich $COUNT|H$ $PLANE_TYPE$-Flugzeuge im Lager.\n\n§G§G Klicken §!§! , um §H§H 1 §!§!  hinzuzufügen\n§G§G Strg+Klick §!§! , um §H§H 5 §!§!  hinzuzufügen\n§G§G Umschalt+Klick §!§! , um §H§H 10 §!§!  hinzuzufügen"</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9327,11 +9327,11 @@
       </c>
       <c r="C413" s="1" t="str">
         <f aca="false">A413 &amp;" " &amp;"""" &amp;B413 &amp;""""</f>
-        <v> QUICK_DEPLOY_SELECTED_CHECKBOX_DESC: "§GKlicken§!, um die Schaltfläche für den §HSchnelleinsatz§! zu entfernen."</v>
+        <v> QUICK_DEPLOY_SELECTED_CHECKBOX_DESC: "§G§G Klicken §!§! , um die Schaltfläche für den §H§H Schnelleinsatz §!§!  zu entfernen."</v>
       </c>
       <c r="D413" s="1" t="str">
         <f aca="false">IF(ISBLANK(A413),"",C413)</f>
-        <v> QUICK_DEPLOY_SELECTED_CHECKBOX_DESC: "§GKlicken§!, um die Schaltfläche für den §HSchnelleinsatz§! zu entfernen."</v>
+        <v> QUICK_DEPLOY_SELECTED_CHECKBOX_DESC: "§G§G Klicken §!§! , um die Schaltfläche für den §H§H Schnelleinsatz §!§!  zu entfernen."</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9343,11 +9343,11 @@
       </c>
       <c r="C414" s="1" t="str">
         <f aca="false">A414 &amp;" " &amp;"""" &amp;B414 &amp;""""</f>
-        <v> QUICK_DEPLOY_DESELECTED_AND_SELECTABLE_CHECKBOX_DESC: "§GKlicken§!, um die Schaltfläche für den §HSchnelleinsatz§! hinzuzufügen."</v>
+        <v> QUICK_DEPLOY_DESELECTED_AND_SELECTABLE_CHECKBOX_DESC: "§G§G Klicken §!§! , um die Schaltfläche für den §H§H Schnelleinsatz §!§!  hinzuzufügen."</v>
       </c>
       <c r="D414" s="1" t="str">
         <f aca="false">IF(ISBLANK(A414),"",C414)</f>
-        <v> QUICK_DEPLOY_DESELECTED_AND_SELECTABLE_CHECKBOX_DESC: "§GKlicken§!, um die Schaltfläche für den §HSchnelleinsatz§! hinzuzufügen."</v>
+        <v> QUICK_DEPLOY_DESELECTED_AND_SELECTABLE_CHECKBOX_DESC: "§G§G Klicken §!§! , um die Schaltfläche für den §H§H Schnelleinsatz §!§!  hinzuzufügen."</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9359,11 +9359,11 @@
       </c>
       <c r="C415" s="1" t="str">
         <f aca="false">A415 &amp;" " &amp;"""" &amp;B415 &amp;""""</f>
-        <v> QUICK_DEPLOY_DESELECTED_AND_NOT_SELECTABLE_CHECKBOX_DESC: "Sie haben die maximale Anzahl an §HSchnelleinsatz§!-Schaltflächen hinzugefügt. Entfernen Sie eine, um eine neue hinzufügen zu können."</v>
+        <v> QUICK_DEPLOY_DESELECTED_AND_NOT_SELECTABLE_CHECKBOX_DESC: "Sie haben die maximale Anzahl an §H§H Schnelleinsatz §!§! -Schaltflächen hinzugefügt. Entfernen Sie eine, um eine neue hinzufügen zu können."</v>
       </c>
       <c r="D415" s="1" t="str">
         <f aca="false">IF(ISBLANK(A415),"",C415)</f>
-        <v> QUICK_DEPLOY_DESELECTED_AND_NOT_SELECTABLE_CHECKBOX_DESC: "Sie haben die maximale Anzahl an §HSchnelleinsatz§!-Schaltflächen hinzugefügt. Entfernen Sie eine, um eine neue hinzufügen zu können."</v>
+        <v> QUICK_DEPLOY_DESELECTED_AND_NOT_SELECTABLE_CHECKBOX_DESC: "Sie haben die maximale Anzahl an §H§H Schnelleinsatz §!§! -Schaltflächen hinzugefügt. Entfernen Sie eine, um eine neue hinzufügen zu können."</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9375,11 +9375,11 @@
       </c>
       <c r="C416" s="1" t="str">
         <f aca="false">A416 &amp;" " &amp;"""" &amp;B416 &amp;""""</f>
-        <v> QUICK_DEPLOY_SELECTION_WINDOW_DESC: "§GKlicken§!, um dem Schnelleinsatz Flugzeugtypen hinzuzufügen."</v>
+        <v> QUICK_DEPLOY_SELECTION_WINDOW_DESC: "§G§G Klicken §!§! , um dem Schnelleinsatz Flugzeugtypen hinzuzufügen."</v>
       </c>
       <c r="D416" s="1" t="str">
         <f aca="false">IF(ISBLANK(A416),"",C416)</f>
-        <v> QUICK_DEPLOY_SELECTION_WINDOW_DESC: "§GKlicken§!, um dem Schnelleinsatz Flugzeugtypen hinzuzufügen."</v>
+        <v> QUICK_DEPLOY_SELECTION_WINDOW_DESC: "§G§G Klicken §!§! , um dem Schnelleinsatz Flugzeugtypen hinzuzufügen."</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9391,11 +9391,11 @@
       </c>
       <c r="C417" s="1" t="str">
         <f aca="false">A417 &amp;" " &amp;"""" &amp;B417 &amp;""""</f>
-        <v> QUICK_DEPLOY_SELECTION_WINDOW_OPEN_DESC: "Schnelleinsatz\n\nFügt dem Einsatz von §HLuftgeschwadern§! eines bestimmten Typs Tastenkürzel hinzu."</v>
+        <v> QUICK_DEPLOY_SELECTION_WINDOW_OPEN_DESC: "Schnelleinsatz\n\nFügt dem Einsatz von §H§H Luftgeschwadern §!§!  eines bestimmten Typs Tastenkürzel hinzu."</v>
       </c>
       <c r="D417" s="1" t="str">
         <f aca="false">IF(ISBLANK(A417),"",C417)</f>
-        <v> QUICK_DEPLOY_SELECTION_WINDOW_OPEN_DESC: "Schnelleinsatz\n\nFügt dem Einsatz von §HLuftgeschwadern§! eines bestimmten Typs Tastenkürzel hinzu."</v>
+        <v> QUICK_DEPLOY_SELECTION_WINDOW_OPEN_DESC: "Schnelleinsatz\n\nFügt dem Einsatz von §H§H Luftgeschwadern §!§!  eines bestimmten Typs Tastenkürzel hinzu."</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9407,11 +9407,11 @@
       </c>
       <c r="C418" s="1" t="str">
         <f aca="false">A418 &amp;" " &amp;"""" &amp;B418 &amp;""""</f>
-        <v> NOT_ENOUGH_PLANES_FOR_MISION: "§RDas Luftgeschwader benötigt mindestens $NUM$ Flugzeuge, um diese Mission durchführen zu können.§!"</v>
+        <v> NOT_ENOUGH_PLANES_FOR_MISION: "§R§R Das Luftgeschwader benötigt mindestens $NUM$ Flugzeuge, um diese Mission durchführen zu können. §!§! "</v>
       </c>
       <c r="D418" s="1" t="str">
         <f aca="false">IF(ISBLANK(A418),"",C418)</f>
-        <v> NOT_ENOUGH_PLANES_FOR_MISION: "§RDas Luftgeschwader benötigt mindestens $NUM$ Flugzeuge, um diese Mission durchführen zu können.§!"</v>
+        <v> NOT_ENOUGH_PLANES_FOR_MISION: "§R§R Das Luftgeschwader benötigt mindestens $NUM$ Flugzeuge, um diese Mission durchführen zu können. §!§! "</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9423,11 +9423,11 @@
       </c>
       <c r="C419" s="1" t="str">
         <f aca="false">A419 &amp;" " &amp;"""" &amp;B419 &amp;""""</f>
-        <v> SETUP_AIR_WING_MOVE_INFO: "§GKlicken§!, um bis zu §H100§! Flugzeuge dieses Typs zu verlegen."</v>
+        <v> SETUP_AIR_WING_MOVE_INFO: "§G§G Klicken §!§! , um bis zu §H§H 100 §!§!  Flugzeuge dieses Typs zu verlegen."</v>
       </c>
       <c r="D419" s="1" t="str">
         <f aca="false">IF(ISBLANK(A419),"",C419)</f>
-        <v> SETUP_AIR_WING_MOVE_INFO: "§GKlicken§!, um bis zu §H100§! Flugzeuge dieses Typs zu verlegen."</v>
+        <v> SETUP_AIR_WING_MOVE_INFO: "§G§G Klicken §!§! , um bis zu §H§H 100 §!§!  Flugzeuge dieses Typs zu verlegen."</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9439,11 +9439,11 @@
       </c>
       <c r="C420" s="1" t="str">
         <f aca="false">A420 &amp;" " &amp;"""" &amp;B420 &amp;""""</f>
-        <v> OPEN_DESIGNER_VIEW_NOT_FOREIGN: "§GKlicken§!, um diese Variante im Ausrüstungskonstrukteur zu öffnen. Fremde Varianten können nicht bearbeitet werden."</v>
+        <v> OPEN_DESIGNER_VIEW_NOT_FOREIGN: "§G§G Klicken §!§! , um diese Variante im Ausrüstungskonstrukteur zu öffnen. Fremde Varianten können nicht bearbeitet werden."</v>
       </c>
       <c r="D420" s="1" t="str">
         <f aca="false">IF(ISBLANK(A420),"",C420)</f>
-        <v> OPEN_DESIGNER_VIEW_NOT_FOREIGN: "§GKlicken§!, um diese Variante im Ausrüstungskonstrukteur zu öffnen. Fremde Varianten können nicht bearbeitet werden."</v>
+        <v> OPEN_DESIGNER_VIEW_NOT_FOREIGN: "§G§G Klicken §!§! , um diese Variante im Ausrüstungskonstrukteur zu öffnen. Fremde Varianten können nicht bearbeitet werden."</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/806209426/localisation/excel/air_l_german.xlsx
+++ b/806209426/localisation/excel/air_l_german.xlsx
@@ -2718,8 +2718,8 @@
   </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D420" activeCellId="0" sqref="D1:D420"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9447,714 +9447,217 @@
       </c>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="1" t="str">
-        <f aca="false">A421 &amp;" " &amp;"""" &amp;B421 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D421" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A421),"",C421)</f>
-        <v/>
-      </c>
+      <c r="D421" s="1"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="1" t="str">
-        <f aca="false">A422 &amp;" " &amp;"""" &amp;B422 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D422" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A422),"",C422)</f>
-        <v/>
-      </c>
+      <c r="D422" s="1"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="1" t="str">
-        <f aca="false">A423 &amp;" " &amp;"""" &amp;B423 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D423" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A423),"",C423)</f>
-        <v/>
-      </c>
+      <c r="D423" s="1"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="1" t="str">
-        <f aca="false">A424 &amp;" " &amp;"""" &amp;B424 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D424" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A424),"",C424)</f>
-        <v/>
-      </c>
+      <c r="D424" s="1"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="1" t="str">
-        <f aca="false">A425 &amp;" " &amp;"""" &amp;B425 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D425" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A425),"",C425)</f>
-        <v/>
-      </c>
+      <c r="D425" s="1"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="1" t="str">
-        <f aca="false">A426 &amp;" " &amp;"""" &amp;B426 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D426" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A426),"",C426)</f>
-        <v/>
-      </c>
+      <c r="D426" s="1"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="1" t="str">
-        <f aca="false">A427 &amp;" " &amp;"""" &amp;B427 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D427" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A427),"",C427)</f>
-        <v/>
-      </c>
+      <c r="D427" s="1"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="1" t="str">
-        <f aca="false">A428 &amp;" " &amp;"""" &amp;B428 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D428" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A428),"",C428)</f>
-        <v/>
-      </c>
+      <c r="D428" s="1"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="1" t="str">
-        <f aca="false">A429 &amp;" " &amp;"""" &amp;B429 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D429" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A429),"",C429)</f>
-        <v/>
-      </c>
+      <c r="D429" s="1"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="1" t="str">
-        <f aca="false">A430 &amp;" " &amp;"""" &amp;B430 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D430" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A430),"",C430)</f>
-        <v/>
-      </c>
+      <c r="D430" s="1"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="1" t="str">
-        <f aca="false">A431 &amp;" " &amp;"""" &amp;B431 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D431" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A431),"",C431)</f>
-        <v/>
-      </c>
+      <c r="D431" s="1"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="1" t="str">
-        <f aca="false">A432 &amp;" " &amp;"""" &amp;B432 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D432" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A432),"",C432)</f>
-        <v/>
-      </c>
+      <c r="D432" s="1"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="1" t="str">
-        <f aca="false">A433 &amp;" " &amp;"""" &amp;B433 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D433" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A433),"",C433)</f>
-        <v/>
-      </c>
+      <c r="D433" s="1"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="1" t="str">
-        <f aca="false">A434 &amp;" " &amp;"""" &amp;B434 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D434" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A434),"",C434)</f>
-        <v/>
-      </c>
+      <c r="D434" s="1"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="1" t="str">
-        <f aca="false">A435 &amp;" " &amp;"""" &amp;B435 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D435" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A435),"",C435)</f>
-        <v/>
-      </c>
+      <c r="D435" s="1"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="1" t="str">
-        <f aca="false">A436 &amp;" " &amp;"""" &amp;B436 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D436" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A436),"",C436)</f>
-        <v/>
-      </c>
+      <c r="D436" s="1"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="1" t="str">
-        <f aca="false">A437 &amp;" " &amp;"""" &amp;B437 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D437" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A437),"",C437)</f>
-        <v/>
-      </c>
+      <c r="D437" s="1"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="1" t="str">
-        <f aca="false">A438 &amp;" " &amp;"""" &amp;B438 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D438" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A438),"",C438)</f>
-        <v/>
-      </c>
+      <c r="D438" s="1"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="1" t="str">
-        <f aca="false">A439 &amp;" " &amp;"""" &amp;B439 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D439" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A439),"",C439)</f>
-        <v/>
-      </c>
+      <c r="D439" s="1"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="1" t="str">
-        <f aca="false">A440 &amp;" " &amp;"""" &amp;B440 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D440" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A440),"",C440)</f>
-        <v/>
-      </c>
+      <c r="D440" s="1"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="1" t="str">
-        <f aca="false">A441 &amp;" " &amp;"""" &amp;B441 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D441" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A441),"",C441)</f>
-        <v/>
-      </c>
+      <c r="D441" s="1"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="1" t="str">
-        <f aca="false">A442 &amp;" " &amp;"""" &amp;B442 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D442" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A442),"",C442)</f>
-        <v/>
-      </c>
+      <c r="D442" s="1"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="1" t="str">
-        <f aca="false">A443 &amp;" " &amp;"""" &amp;B443 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D443" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A443),"",C443)</f>
-        <v/>
-      </c>
+      <c r="D443" s="1"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="1" t="str">
-        <f aca="false">A444 &amp;" " &amp;"""" &amp;B444 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D444" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A444),"",C444)</f>
-        <v/>
-      </c>
+      <c r="D444" s="1"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="1" t="str">
-        <f aca="false">A445 &amp;" " &amp;"""" &amp;B445 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D445" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A445),"",C445)</f>
-        <v/>
-      </c>
+      <c r="D445" s="1"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="1" t="str">
-        <f aca="false">A446 &amp;" " &amp;"""" &amp;B446 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D446" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A446),"",C446)</f>
-        <v/>
-      </c>
+      <c r="D446" s="1"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="1" t="str">
-        <f aca="false">A447 &amp;" " &amp;"""" &amp;B447 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D447" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A447),"",C447)</f>
-        <v/>
-      </c>
+      <c r="D447" s="1"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="1" t="str">
-        <f aca="false">A448 &amp;" " &amp;"""" &amp;B448 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D448" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A448),"",C448)</f>
-        <v/>
-      </c>
+      <c r="D448" s="1"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="1" t="str">
-        <f aca="false">A449 &amp;" " &amp;"""" &amp;B449 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D449" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A449),"",C449)</f>
-        <v/>
-      </c>
+      <c r="D449" s="1"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="1" t="str">
-        <f aca="false">A450 &amp;" " &amp;"""" &amp;B450 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D450" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A450),"",C450)</f>
-        <v/>
-      </c>
+      <c r="D450" s="1"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="1" t="str">
-        <f aca="false">A451 &amp;" " &amp;"""" &amp;B451 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D451" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A451),"",C451)</f>
-        <v/>
-      </c>
+      <c r="D451" s="1"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="1" t="str">
-        <f aca="false">A452 &amp;" " &amp;"""" &amp;B452 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D452" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A452),"",C452)</f>
-        <v/>
-      </c>
+      <c r="D452" s="1"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="1" t="str">
-        <f aca="false">A453 &amp;" " &amp;"""" &amp;B453 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D453" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A453),"",C453)</f>
-        <v/>
-      </c>
+      <c r="D453" s="1"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="1" t="str">
-        <f aca="false">A454 &amp;" " &amp;"""" &amp;B454 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D454" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A454),"",C454)</f>
-        <v/>
-      </c>
+      <c r="D454" s="1"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="1" t="str">
-        <f aca="false">A455 &amp;" " &amp;"""" &amp;B455 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D455" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A455),"",C455)</f>
-        <v/>
-      </c>
+      <c r="D455" s="1"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="1" t="str">
-        <f aca="false">A456 &amp;" " &amp;"""" &amp;B456 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D456" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A456),"",C456)</f>
-        <v/>
-      </c>
+      <c r="D456" s="1"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="1" t="str">
-        <f aca="false">A457 &amp;" " &amp;"""" &amp;B457 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D457" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A457),"",C457)</f>
-        <v/>
-      </c>
+      <c r="D457" s="1"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="1" t="str">
-        <f aca="false">A458 &amp;" " &amp;"""" &amp;B458 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D458" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A458),"",C458)</f>
-        <v/>
-      </c>
+      <c r="D458" s="1"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="1" t="str">
-        <f aca="false">A459 &amp;" " &amp;"""" &amp;B459 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D459" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A459),"",C459)</f>
-        <v/>
-      </c>
+      <c r="D459" s="1"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="1" t="str">
-        <f aca="false">A460 &amp;" " &amp;"""" &amp;B460 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D460" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A460),"",C460)</f>
-        <v/>
-      </c>
+      <c r="D460" s="1"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="1" t="str">
-        <f aca="false">A461 &amp;" " &amp;"""" &amp;B461 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D461" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A461),"",C461)</f>
-        <v/>
-      </c>
+      <c r="D461" s="1"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="1" t="str">
-        <f aca="false">A462 &amp;" " &amp;"""" &amp;B462 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D462" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A462),"",C462)</f>
-        <v/>
-      </c>
+      <c r="D462" s="1"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="1" t="str">
-        <f aca="false">A463 &amp;" " &amp;"""" &amp;B463 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D463" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A463),"",C463)</f>
-        <v/>
-      </c>
+      <c r="D463" s="1"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="1" t="str">
-        <f aca="false">A464 &amp;" " &amp;"""" &amp;B464 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D464" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A464),"",C464)</f>
-        <v/>
-      </c>
+      <c r="D464" s="1"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="1" t="str">
-        <f aca="false">A465 &amp;" " &amp;"""" &amp;B465 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D465" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A465),"",C465)</f>
-        <v/>
-      </c>
+      <c r="D465" s="1"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="1" t="str">
-        <f aca="false">A466 &amp;" " &amp;"""" &amp;B466 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D466" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A466),"",C466)</f>
-        <v/>
-      </c>
+      <c r="D466" s="1"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="1" t="str">
-        <f aca="false">A467 &amp;" " &amp;"""" &amp;B467 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D467" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A467),"",C467)</f>
-        <v/>
-      </c>
+      <c r="D467" s="1"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="1" t="str">
-        <f aca="false">A468 &amp;" " &amp;"""" &amp;B468 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D468" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A468),"",C468)</f>
-        <v/>
-      </c>
+      <c r="D468" s="1"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="1" t="str">
-        <f aca="false">A469 &amp;" " &amp;"""" &amp;B469 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D469" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A469),"",C469)</f>
-        <v/>
-      </c>
+      <c r="D469" s="1"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="1" t="str">
-        <f aca="false">A470 &amp;" " &amp;"""" &amp;B470 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D470" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A470),"",C470)</f>
-        <v/>
-      </c>
+      <c r="D470" s="1"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="1" t="str">
-        <f aca="false">A471 &amp;" " &amp;"""" &amp;B471 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D471" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A471),"",C471)</f>
-        <v/>
-      </c>
+      <c r="D471" s="1"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="1" t="str">
-        <f aca="false">A472 &amp;" " &amp;"""" &amp;B472 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D472" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A472),"",C472)</f>
-        <v/>
-      </c>
+      <c r="D472" s="1"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="1" t="str">
-        <f aca="false">A473 &amp;" " &amp;"""" &amp;B473 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D473" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A473),"",C473)</f>
-        <v/>
-      </c>
+      <c r="D473" s="1"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="1" t="str">
-        <f aca="false">A474 &amp;" " &amp;"""" &amp;B474 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D474" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A474),"",C474)</f>
-        <v/>
-      </c>
+      <c r="D474" s="1"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="1" t="str">
-        <f aca="false">A475 &amp;" " &amp;"""" &amp;B475 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D475" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A475),"",C475)</f>
-        <v/>
-      </c>
+      <c r="D475" s="1"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="1" t="str">
-        <f aca="false">A476 &amp;" " &amp;"""" &amp;B476 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D476" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A476),"",C476)</f>
-        <v/>
-      </c>
+      <c r="D476" s="1"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="1" t="str">
-        <f aca="false">A477 &amp;" " &amp;"""" &amp;B477 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D477" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A477),"",C477)</f>
-        <v/>
-      </c>
+      <c r="D477" s="1"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="1" t="str">
-        <f aca="false">A478 &amp;" " &amp;"""" &amp;B478 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D478" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A478),"",C478)</f>
-        <v/>
-      </c>
+      <c r="D478" s="1"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="1" t="str">
-        <f aca="false">A479 &amp;" " &amp;"""" &amp;B479 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D479" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A479),"",C479)</f>
-        <v/>
-      </c>
+      <c r="D479" s="1"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="1" t="str">
-        <f aca="false">A480 &amp;" " &amp;"""" &amp;B480 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D480" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A480),"",C480)</f>
-        <v/>
-      </c>
+      <c r="D480" s="1"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="1" t="str">
-        <f aca="false">A481 &amp;" " &amp;"""" &amp;B481 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D481" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A481),"",C481)</f>
-        <v/>
-      </c>
+      <c r="D481" s="1"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="1" t="str">
-        <f aca="false">A482 &amp;" " &amp;"""" &amp;B482 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D482" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A482),"",C482)</f>
-        <v/>
-      </c>
+      <c r="D482" s="1"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="1" t="str">
-        <f aca="false">A483 &amp;" " &amp;"""" &amp;B483 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D483" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A483),"",C483)</f>
-        <v/>
-      </c>
+      <c r="D483" s="1"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="1" t="str">
-        <f aca="false">A484 &amp;" " &amp;"""" &amp;B484 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D484" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A484),"",C484)</f>
-        <v/>
-      </c>
+      <c r="D484" s="1"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="1" t="str">
-        <f aca="false">A485 &amp;" " &amp;"""" &amp;B485 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D485" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A485),"",C485)</f>
-        <v/>
-      </c>
+      <c r="D485" s="1"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="1" t="str">
-        <f aca="false">A486 &amp;" " &amp;"""" &amp;B486 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D486" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A486),"",C486)</f>
-        <v/>
-      </c>
+      <c r="D486" s="1"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="1" t="str">
-        <f aca="false">A487 &amp;" " &amp;"""" &amp;B487 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D487" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A487),"",C487)</f>
-        <v/>
-      </c>
+      <c r="D487" s="1"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="1" t="str">
-        <f aca="false">A488 &amp;" " &amp;"""" &amp;B488 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D488" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A488),"",C488)</f>
-        <v/>
-      </c>
+      <c r="D488" s="1"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="1" t="str">
-        <f aca="false">A489 &amp;" " &amp;"""" &amp;B489 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D489" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A489),"",C489)</f>
-        <v/>
-      </c>
+      <c r="D489" s="1"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="1" t="str">
-        <f aca="false">A490 &amp;" " &amp;"""" &amp;B490 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D490" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A490),"",C490)</f>
-        <v/>
-      </c>
+      <c r="D490" s="1"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="1" t="str">
-        <f aca="false">A491 &amp;" " &amp;"""" &amp;B491 &amp;""""</f>
-        <v>""</v>
-      </c>
-      <c r="D491" s="1" t="str">
-        <f aca="false">IF(ISBLANK(A491),"",C491)</f>
-        <v/>
-      </c>
+      <c r="D491" s="1"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D492" s="1"/>
